--- a/mplus/kidsights_syntax_FIXED.xlsx
+++ b/mplus/kidsights_syntax_FIXED.xlsx
@@ -353,7 +353,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A1270"/>
+  <dimension ref="A1:A1263"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3488,1185 +3488,1178 @@
         </is>
       </c>
     </row>
-    <row r="588">
-      <c r="A588" t="inlineStr">
-        <is>
-          <t>[EG12b$2*6.276] (t2_140);</t>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>!ITEM: EG13a | jid = 141</t>
         </is>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>!ITEM: EG13a | jid = 141</t>
+          <t>f BY EG13a*2.353 (a_141);</t>
         </is>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>f BY EG13a*2.353 (a_141);</t>
-        </is>
-      </c>
-    </row>
-    <row r="592">
-      <c r="A592" t="inlineStr">
-        <is>
           <t>[EG13a$1*9.73] (t1_141);</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>!ITEM: EG13b | jid = 142</t>
         </is>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>!ITEM: EG13b | jid = 142</t>
+          <t>!Constrain slope to EG13a. Constrain tau$1 to be greater than EG13a$1</t>
         </is>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>!Constrain slope to EG13a. Constrain tau$1 to be greater than EG13a$1</t>
+          <t>f BY EG13b*2.353 (a_141);</t>
         </is>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>f BY EG13b*2.353 (a_141);</t>
-        </is>
-      </c>
-    </row>
-    <row r="597">
-      <c r="A597" t="inlineStr">
-        <is>
           <t>[EG13b$1*11.424] (t1_142);</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>!ITEM: EG14a | jid = 143</t>
         </is>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>!ITEM: EG14a | jid = 143</t>
+          <t>f BY EG14a*1.728 (a_143);</t>
         </is>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>f BY EG14a*1.728 (a_143);</t>
-        </is>
-      </c>
-    </row>
-    <row r="601">
-      <c r="A601" t="inlineStr">
-        <is>
           <t>[EG14a$1*7.358] (t1_143);</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>!ITEM: EG14b | jid = 144</t>
         </is>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>!ITEM: EG14b | jid = 144</t>
+          <t>!Constrain slope to EG14a</t>
         </is>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>!Constrain slope to EG14a</t>
+          <t>f BY EG14b*1.728 (a_143);</t>
         </is>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>f BY EG14b*1.728 (a_143);</t>
-        </is>
-      </c>
-    </row>
-    <row r="606">
-      <c r="A606" t="inlineStr">
-        <is>
           <t>[EG14b$1*7.559] (t1_144);</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>!ITEM: EG15_1 | jid = 145</t>
         </is>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>!ITEM: EG15_1 | jid = 145</t>
+          <t>f BY EG15_1*1.214 (a_145);</t>
         </is>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>f BY EG15_1*1.214 (a_145);</t>
+          <t>[EG15_1$1*3.996] (t1_145);</t>
         </is>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>[EG15_1$1*3.996] (t1_145);</t>
+          <t>[EG15_1$2*5.736] (t2_145);</t>
         </is>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>[EG15_1$2*5.736] (t2_145);</t>
+          <t>[EG15_1$3*6.351] (t3_145);</t>
         </is>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>[EG15_1$3*6.351] (t3_145);</t>
-        </is>
-      </c>
-    </row>
-    <row r="613">
-      <c r="A613" t="inlineStr">
-        <is>
           <t>[EG15_1$4*8.215] (t4_145);</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>!ITEM: EG15_2 | jid = 146</t>
         </is>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>!ITEM: EG15_2 | jid = 146</t>
+          <t>!Constrain all to EG15_1</t>
         </is>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>!Constrain all to EG15_1</t>
+          <t>f BY EG15_2*1.214 (a_145);</t>
         </is>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>f BY EG15_2*1.214 (a_145);</t>
+          <t>[EG15_2$1*3.996] (t1_145);</t>
         </is>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>[EG15_2$1*3.996] (t1_145);</t>
+          <t>[EG15_2$2*5.736] (t2_145);</t>
         </is>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>[EG15_2$2*5.736] (t2_145);</t>
+          <t>[EG15_2$3*6.351] (t3_145);</t>
         </is>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>[EG15_2$3*6.351] (t3_145);</t>
-        </is>
-      </c>
-    </row>
-    <row r="621">
-      <c r="A621" t="inlineStr">
-        <is>
           <t>[EG15_2$4*8.215] (t4_145);</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>!ITEM: EG16a_1 | jid = 147</t>
         </is>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>!ITEM: EG16a_1 | jid = 147</t>
+          <t>f BY EG16a_1*0.694 (a_147);</t>
         </is>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>f BY EG16a_1*0.694 (a_147);</t>
+          <t>[EG16a_1$1*-1.086] (t1_147);</t>
         </is>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>[EG16a_1$1*-1.086] (t1_147);</t>
+          <t>[EG16a_1$2*1.084] (t2_147);</t>
         </is>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>[EG16a_1$2*1.084] (t2_147);</t>
+          <t>[EG16a_1$3*2.044] (t3_147);</t>
         </is>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>[EG16a_1$3*2.044] (t3_147);</t>
-        </is>
-      </c>
-    </row>
-    <row r="628">
-      <c r="A628" t="inlineStr">
-        <is>
           <t>[EG16a_1$4*5.093] (t4_147);</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>!ITEM: EG16a_2 | jid = 148</t>
         </is>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>!ITEM: EG16a_2 | jid = 148</t>
+          <t>!Constrain all to EG16a_1</t>
         </is>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>!Constrain all to EG16a_1</t>
+          <t>f BY EG16a_2*0.694 (a_147);</t>
         </is>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>f BY EG16a_2*0.694 (a_147);</t>
+          <t>[EG16a_2$1*-1.086] (t1_147);</t>
         </is>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>[EG16a_2$1*-1.086] (t1_147);</t>
+          <t>[EG16a_2$2*1.084] (t2_147);</t>
         </is>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>[EG16a_2$2*1.084] (t2_147);</t>
+          <t>[EG16a_2$3*2.044] (t3_147);</t>
         </is>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>[EG16a_2$3*2.044] (t3_147);</t>
-        </is>
-      </c>
-    </row>
-    <row r="636">
-      <c r="A636" t="inlineStr">
-        <is>
           <t>[EG16a_2$4*5.093] (t4_147);</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>!ITEM: EG16b | jid = 149</t>
         </is>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>!ITEM: EG16b | jid = 149</t>
+          <t>!Constrain slope to EG16a_1</t>
         </is>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>!Constrain slope to EG16a_1</t>
+          <t>f BY EG16b*0.694 (a_147);</t>
         </is>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>f BY EG16b*0.694 (a_147);</t>
-        </is>
-      </c>
-    </row>
-    <row r="641">
-      <c r="A641" t="inlineStr">
-        <is>
           <t>[EG16b$1*0.227] (t1_149);</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>!ITEM: EG16c | jid = 150</t>
         </is>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>!ITEM: EG16c | jid = 150</t>
+          <t>!Constrain slope to EG16a_1.</t>
         </is>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>!Constrain slope to EG16a_1.</t>
+          <t>f BY EG16c*0.694 (a_147);</t>
         </is>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>f BY EG16c*0.694 (a_147);</t>
-        </is>
-      </c>
-    </row>
-    <row r="646">
-      <c r="A646" t="inlineStr">
-        <is>
           <t>[EG16c$1*0.619] (t1_150);</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>!ITEM: EG17a | jid = 151</t>
         </is>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>!ITEM: EG17a | jid = 151</t>
+          <t>f BY EG17a*0.891 (a_151);</t>
         </is>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>f BY EG17a*0.891 (a_151);</t>
+          <t>[EG17a$1*0.594] (t1_151);</t>
         </is>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>[EG17a$1*0.594] (t1_151);</t>
+          <t>[EG17a$2*3.369] (t2_151);</t>
         </is>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>[EG17a$2*3.369] (t2_151);</t>
+          <t>[EG17a$3*5.077] (t3_151);</t>
         </is>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>[EG17a$3*5.077] (t3_151);</t>
-        </is>
-      </c>
-    </row>
-    <row r="653">
-      <c r="A653" t="inlineStr">
-        <is>
           <t>[EG17a$4*8.436] (t4_151);</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>!ITEM: EG17b | jid = 152</t>
         </is>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>!ITEM: EG17b | jid = 152</t>
+          <t>!Constrain slope to to be equal to EG17a. Constrain tau$1 to be less than EG17a$1.</t>
         </is>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>!Constrain slope to to be equal to EG17a. Constrain tau$1 to be less than EG17a$1.</t>
+          <t>f BY EG17b*0.891 (a_151);</t>
         </is>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>f BY EG17b*0.891 (a_151);</t>
-        </is>
-      </c>
-    </row>
-    <row r="658">
-      <c r="A658" t="inlineStr">
-        <is>
           <t>[EG17b$1*2.204] (t1_152);</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>!ITEM: EG18a | jid = 153</t>
         </is>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>!ITEM: EG18a | jid = 153</t>
+          <t>f BY EG18a*0.753 (a_153);</t>
         </is>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>f BY EG18a*0.753 (a_153);</t>
+          <t>[EG18a$1*0.029] (t1_153);</t>
         </is>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>[EG18a$1*0.029] (t1_153);</t>
+          <t>[EG18a$2*2.433] (t2_153);</t>
         </is>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>[EG18a$2*2.433] (t2_153);</t>
+          <t>[EG18a$3*3.857] (t3_153);</t>
         </is>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>[EG18a$3*3.857] (t3_153);</t>
-        </is>
-      </c>
-    </row>
-    <row r="665">
-      <c r="A665" t="inlineStr">
-        <is>
           <t>[EG18a$4*6.786] (t4_153);</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>!ITEM: EG18b | jid = 154</t>
         </is>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>!ITEM: EG18b | jid = 154</t>
+          <t>!Constrain slope to EG18a</t>
         </is>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>!Constrain slope to EG18a</t>
+          <t>f BY EG18b*0.753 (a_153);</t>
         </is>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>f BY EG18b*0.753 (a_153);</t>
-        </is>
-      </c>
-    </row>
-    <row r="670">
-      <c r="A670" t="inlineStr">
-        <is>
           <t>[EG18b$1*1.625] (t1_154);</t>
+        </is>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>!ITEM: EG19_b | jid = 155</t>
         </is>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>!ITEM: EG19_b | jid = 155</t>
+          <t>!Constrain slope to EG19a_1</t>
         </is>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>!Constrain slope to EG19a_1</t>
+          <t>f BY EG19_b*1.984 (a_156);</t>
         </is>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>f BY EG19_b*1.984 (a_156);</t>
-        </is>
-      </c>
-    </row>
-    <row r="675">
-      <c r="A675" t="inlineStr">
-        <is>
           <t>[EG19_b$1*7.242] (t1_155);</t>
+        </is>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>!ITEM: EG19a_1 | jid = 156</t>
         </is>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>!ITEM: EG19a_1 | jid = 156</t>
+          <t>f BY EG19a_1*1.984 (a_156);</t>
         </is>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>f BY EG19a_1*1.984 (a_156);</t>
-        </is>
-      </c>
-    </row>
-    <row r="679">
-      <c r="A679" t="inlineStr">
-        <is>
           <t>[EG19a_1$1*5.955] (t1_156);</t>
+        </is>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>!ITEM: EG19a_2 | jid = 157</t>
         </is>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>!ITEM: EG19a_2 | jid = 157</t>
+          <t>!Constrain all to EG19a_1</t>
         </is>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>!Constrain all to EG19a_1</t>
+          <t>f BY EG19a_2*1.984 (a_156);</t>
         </is>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>f BY EG19a_2*1.984 (a_156);</t>
-        </is>
-      </c>
-    </row>
-    <row r="684">
-      <c r="A684" t="inlineStr">
-        <is>
           <t>[EG19a_2$1*5.955] (t1_156);</t>
+        </is>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>!ITEM: EG19a_3 | jid = 158</t>
         </is>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>!ITEM: EG19a_3 | jid = 158</t>
+          <t>!Constrain all to EG19a_1</t>
         </is>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>!Constrain all to EG19a_1</t>
+          <t>f BY EG19a_3*1.984 (a_156);</t>
         </is>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>f BY EG19a_3*1.984 (a_156);</t>
-        </is>
-      </c>
-    </row>
-    <row r="689">
-      <c r="A689" t="inlineStr">
-        <is>
           <t>[EG19a_3$1*5.955] (t1_156);</t>
+        </is>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>!ITEM: EG19a_4 | jid = 159</t>
         </is>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>!ITEM: EG19a_4 | jid = 159</t>
+          <t>!Constrain all to EG19a_1</t>
         </is>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>!Constrain all to EG19a_1</t>
+          <t>f BY EG19a_4*1.984 (a_156);</t>
         </is>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>f BY EG19a_4*1.984 (a_156);</t>
-        </is>
-      </c>
-    </row>
-    <row r="694">
-      <c r="A694" t="inlineStr">
-        <is>
           <t>[EG19a_4$1*5.955] (t1_156);</t>
+        </is>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>!ITEM: EG2_1 | jid = 160</t>
         </is>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>!ITEM: EG2_1 | jid = 160</t>
+          <t>f BY EG2_1*1.518 (a_160);</t>
         </is>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>f BY EG2_1*1.518 (a_160);</t>
-        </is>
-      </c>
-    </row>
-    <row r="698">
-      <c r="A698" t="inlineStr">
-        <is>
           <t>[EG2_1$1*3.39] (t1_160);</t>
+        </is>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>!ITEM: EG2_2 | jid = 161</t>
         </is>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>!ITEM: EG2_2 | jid = 161</t>
+          <t>!Constrain all to EG2_1</t>
         </is>
       </c>
     </row>
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>!Constrain all to EG2_1</t>
+          <t>f BY EG2_2*1.518 (a_160);</t>
         </is>
       </c>
     </row>
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>f BY EG2_2*1.518 (a_160);</t>
-        </is>
-      </c>
-    </row>
-    <row r="703">
-      <c r="A703" t="inlineStr">
-        <is>
           <t>[EG2_2$1*3.39] (t1_160);</t>
+        </is>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>!ITEM: EG20a | jid = 162</t>
         </is>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>!ITEM: EG20a | jid = 162</t>
+          <t>f BY EG20a*1.303 (a_162);</t>
         </is>
       </c>
     </row>
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>f BY EG20a*1.303 (a_162);</t>
+          <t>[EG20a$1*3.49] (t1_162);</t>
         </is>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>[EG20a$1*3.49] (t1_162);</t>
+          <t>[EG20a$2*4.917] (t2_162);</t>
         </is>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>[EG20a$2*4.917] (t2_162);</t>
+          <t>[EG20a$3*8.322] (t3_162);</t>
         </is>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>[EG20a$3*8.322] (t3_162);</t>
-        </is>
-      </c>
-    </row>
-    <row r="710">
-      <c r="A710" t="inlineStr">
-        <is>
           <t>[EG20a$4*9.628] (t4_162);</t>
+        </is>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>!ITEM: EG20b_1 | jid = 163</t>
         </is>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>!ITEM: EG20b_1 | jid = 163</t>
+          <t>!Constrain slope to EG20a. Constrain tau$1 to EG20a$1. Constrain tau$2 to EG20a$2. Constrain tau$4 to EG20a$3. Constrain tau$5 to EG20a$4</t>
         </is>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>!Constrain slope to EG20a. Constrain tau$1 to EG20a$1. Constrain tau$2 to EG20a$2. Constrain tau$4 to EG20a$3. Constrain tau$5 to EG20a$4</t>
+          <t>f BY EG20b_1*1.303 (a_162);</t>
         </is>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>f BY EG20b_1*1.303 (a_162);</t>
+          <t>[EG20b_1$1*3.49] (t1_162);</t>
         </is>
       </c>
     </row>
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>[EG20b_1$1*3.49] (t1_162);</t>
+          <t>[EG20b_1$2*4.917] (t2_162);</t>
         </is>
       </c>
     </row>
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>[EG20b_1$2*4.917] (t2_162);</t>
+          <t>[EG20b_1$3*7.088] (t3_163);</t>
         </is>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>[EG20b_1$3*7.088] (t3_163);</t>
+          <t>[EG20b_1$4*8.322] (t3_162);</t>
         </is>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>[EG20b_1$4*8.322] (t3_162);</t>
-        </is>
-      </c>
-    </row>
-    <row r="719">
-      <c r="A719" t="inlineStr">
-        <is>
           <t>[EG20b_1$5*9.628] (t4_162);</t>
+        </is>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>!ITEM: EG20b_2 | jid = 164</t>
         </is>
       </c>
     </row>
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>!ITEM: EG20b_2 | jid = 164</t>
+          <t>!Constrain slope to EG20a. Constrain tau$1 to EG20a$1. Constrain tau$2 to EG20a$2. Constrain tau$4 to EG20a$3. Constrain tau$5 to EG20a$4</t>
         </is>
       </c>
     </row>
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>!Constrain slope to EG20a. Constrain tau$1 to EG20a$1. Constrain tau$2 to EG20a$2. Constrain tau$4 to EG20a$3. Constrain tau$5 to EG20a$4</t>
+          <t>f BY EG20b_2*1.303 (a_162);</t>
         </is>
       </c>
     </row>
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>f BY EG20b_2*1.303 (a_162);</t>
+          <t>[EG20b_2$1*3.49] (t1_162);</t>
         </is>
       </c>
     </row>
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>[EG20b_2$1*3.49] (t1_162);</t>
+          <t>[EG20b_2$2*4.917] (t2_162);</t>
         </is>
       </c>
     </row>
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>[EG20b_2$2*4.917] (t2_162);</t>
+          <t>[EG20b_2$3*6.608] (t3_164);</t>
         </is>
       </c>
     </row>
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>[EG20b_2$3*6.608] (t3_164);</t>
+          <t>[EG20b_2$4*8.322] (t3_162);</t>
         </is>
       </c>
     </row>
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>[EG20b_2$4*8.322] (t3_162);</t>
-        </is>
-      </c>
-    </row>
-    <row r="728">
-      <c r="A728" t="inlineStr">
-        <is>
           <t>[EG20b_2$5*9.628] (t4_162);</t>
+        </is>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>!ITEM: EG20c | jid = 165</t>
         </is>
       </c>
     </row>
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>!ITEM: EG20c | jid = 165</t>
+          <t>!Constrain slope to EG20a. Constrain tau$1 to EG20a$2.</t>
         </is>
       </c>
     </row>
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>!Constrain slope to EG20a. Constrain tau$1 to EG20a$2.</t>
+          <t>f BY EG20c*1.303 (a_162);</t>
         </is>
       </c>
     </row>
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>f BY EG20c*1.303 (a_162);</t>
-        </is>
-      </c>
-    </row>
-    <row r="733">
-      <c r="A733" t="inlineStr">
-        <is>
           <t>[EG20c$1*4.917] (t2_162);</t>
+        </is>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>!ITEM: EG20d | jid = 166</t>
         </is>
       </c>
     </row>
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>!ITEM: EG20d | jid = 166</t>
+          <t>!Constrain slope to EG20a. Constrain tau$1 to EG20a$1</t>
         </is>
       </c>
     </row>
     <row r="736">
       <c r="A736" t="inlineStr">
         <is>
-          <t>!Constrain slope to EG20a. Constrain tau$1 to EG20a$1</t>
+          <t>f BY EG20d*1.303 (a_162);</t>
         </is>
       </c>
     </row>
     <row r="737">
       <c r="A737" t="inlineStr">
         <is>
-          <t>f BY EG20d*1.303 (a_162);</t>
-        </is>
-      </c>
-    </row>
-    <row r="738">
-      <c r="A738" t="inlineStr">
-        <is>
           <t>[EG20d$1*3.49] (t1_162);</t>
+        </is>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
+          <t>!ITEM: EG20e_1 | jid = 167</t>
         </is>
       </c>
     </row>
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
-          <t>!ITEM: EG20e_1 | jid = 167</t>
+          <t>!Constrain slope to EG20a. Constrain tau$1 to be less than EG20a$1.</t>
         </is>
       </c>
     </row>
     <row r="741">
       <c r="A741" t="inlineStr">
         <is>
-          <t>!Constrain slope to EG20a. Constrain tau$1 to be less than EG20a$1.</t>
+          <t>f BY EG20e_1*1.303 (a_162);</t>
         </is>
       </c>
     </row>
     <row r="742">
       <c r="A742" t="inlineStr">
         <is>
-          <t>f BY EG20e_1*1.303 (a_162);</t>
-        </is>
-      </c>
-    </row>
-    <row r="743">
-      <c r="A743" t="inlineStr">
-        <is>
           <t>[EG20e_1$1*4.544] (t1_167);</t>
+        </is>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="inlineStr">
+        <is>
+          <t>!ITEM: EG20e_2 | jid = 168</t>
         </is>
       </c>
     </row>
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t>!ITEM: EG20e_2 | jid = 168</t>
+          <t>!Constrain slope to EG20a. Constrain tau$1 to be equal to EG20e_1$1.</t>
         </is>
       </c>
     </row>
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>!Constrain slope to EG20a. Constrain tau$1 to be equal to EG20e_1$1.</t>
+          <t>f BY EG20e_2*1.303 (a_162);</t>
         </is>
       </c>
     </row>
     <row r="747">
       <c r="A747" t="inlineStr">
         <is>
-          <t>f BY EG20e_2*1.303 (a_162);</t>
-        </is>
-      </c>
-    </row>
-    <row r="748">
-      <c r="A748" t="inlineStr">
-        <is>
           <t>[EG20e_2$1*4.544] (t1_167);</t>
+        </is>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="inlineStr">
+        <is>
+          <t>!ITEM: EG21a | jid = 169</t>
         </is>
       </c>
     </row>
     <row r="750">
       <c r="A750" t="inlineStr">
         <is>
-          <t>!ITEM: EG21a | jid = 169</t>
+          <t>f BY EG21a*1.351 (a_169);</t>
         </is>
       </c>
     </row>
     <row r="751">
       <c r="A751" t="inlineStr">
         <is>
-          <t>f BY EG21a*1.351 (a_169);</t>
+          <t>[EG21a$1*5.293] (t1_169);</t>
         </is>
       </c>
     </row>
     <row r="752">
       <c r="A752" t="inlineStr">
         <is>
-          <t>[EG21a$1*5.293] (t1_169);</t>
+          <t>[EG21a$2*6.624] (t2_169);</t>
         </is>
       </c>
     </row>
     <row r="753">
       <c r="A753" t="inlineStr">
         <is>
-          <t>[EG21a$2*6.624] (t2_169);</t>
+          <t>[EG21a$3*7.122] (t3_169);</t>
         </is>
       </c>
     </row>
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>[EG21a$3*7.122] (t3_169);</t>
-        </is>
-      </c>
-    </row>
-    <row r="755">
-      <c r="A755" t="inlineStr">
-        <is>
           <t>[EG21a$4*8.37] (t4_169);</t>
+        </is>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="inlineStr">
+        <is>
+          <t>!ITEM: EG21b | jid = 170</t>
         </is>
       </c>
     </row>
     <row r="757">
       <c r="A757" t="inlineStr">
         <is>
-          <t>!ITEM: EG21b | jid = 170</t>
+          <t>!Constrain slope to EG21a. Constrain tau$1 to be a simplex  between EG21a$1 and EG21a$4</t>
         </is>
       </c>
     </row>
     <row r="758">
       <c r="A758" t="inlineStr">
         <is>
-          <t>!Constrain slope to EG21a. Constrain tau$1 to be a simplex  between EG21a$1 and EG21a$4</t>
+          <t>f BY EG21b*1.351 (a_169);</t>
         </is>
       </c>
     </row>
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>f BY EG21b*1.351 (a_169);</t>
-        </is>
-      </c>
-    </row>
-    <row r="760">
-      <c r="A760" t="inlineStr">
-        <is>
           <t>[EG21b$1*5.785] (t1_170);</t>
+        </is>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="inlineStr">
+        <is>
+          <t>!ITEM: EG22_1 | jid = 171</t>
         </is>
       </c>
     </row>
     <row r="762">
       <c r="A762" t="inlineStr">
         <is>
-          <t>!ITEM: EG22_1 | jid = 171</t>
+          <t>f BY EG22_1*1.558 (a_171);</t>
         </is>
       </c>
     </row>
     <row r="763">
       <c r="A763" t="inlineStr">
         <is>
-          <t>f BY EG22_1*1.558 (a_171);</t>
+          <t>[EG22_1$1*8.518] (t1_171);</t>
         </is>
       </c>
     </row>
     <row r="764">
       <c r="A764" t="inlineStr">
         <is>
-          <t>[EG22_1$1*8.518] (t1_171);</t>
+          <t>[EG22_1$2*10.009] (t2_171);</t>
         </is>
       </c>
     </row>
     <row r="765">
       <c r="A765" t="inlineStr">
         <is>
-          <t>[EG22_1$2*10.009] (t2_171);</t>
+          <t>[EG22_1$3*10.617] (t3_171);</t>
         </is>
       </c>
     </row>
     <row r="766">
       <c r="A766" t="inlineStr">
         <is>
-          <t>[EG22_1$3*10.617] (t3_171);</t>
-        </is>
-      </c>
-    </row>
-    <row r="767">
-      <c r="A767" t="inlineStr">
-        <is>
           <t>[EG22_1$4*12.268] (t4_171);</t>
+        </is>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="inlineStr">
+        <is>
+          <t>!ITEM: EG22_2 | jid = 172</t>
         </is>
       </c>
     </row>
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>!ITEM: EG22_2 | jid = 172</t>
+          <t>!Constrain all to EG22_1</t>
         </is>
       </c>
     </row>
     <row r="770">
       <c r="A770" t="inlineStr">
         <is>
-          <t>!Constrain all to EG22_1</t>
+          <t>f BY EG22_2*1.558 (a_171);</t>
         </is>
       </c>
     </row>
     <row r="771">
       <c r="A771" t="inlineStr">
         <is>
-          <t>f BY EG22_2*1.558 (a_171);</t>
+          <t>[EG22_2$1*8.518] (t1_171);</t>
         </is>
       </c>
     </row>
     <row r="772">
       <c r="A772" t="inlineStr">
         <is>
-          <t>[EG22_2$1*8.518] (t1_171);</t>
+          <t>[EG22_2$2*10.009] (t2_171);</t>
         </is>
       </c>
     </row>
     <row r="773">
       <c r="A773" t="inlineStr">
         <is>
-          <t>[EG22_2$2*10.009] (t2_171);</t>
+          <t>[EG22_2$3*10.617] (t3_171);</t>
         </is>
       </c>
     </row>
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>[EG22_2$3*10.617] (t3_171);</t>
-        </is>
-      </c>
-    </row>
-    <row r="775">
-      <c r="A775" t="inlineStr">
-        <is>
           <t>[EG22_2$4*12.268] (t4_171);</t>
+        </is>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="inlineStr">
+        <is>
+          <t>!ITEM: EG23a | jid = 173</t>
         </is>
       </c>
     </row>
     <row r="777">
       <c r="A777" t="inlineStr">
         <is>
-          <t>!ITEM: EG23a | jid = 173</t>
+          <t>f BY EG23a*0.673 (a_173);</t>
         </is>
       </c>
     </row>
     <row r="778">
       <c r="A778" t="inlineStr">
         <is>
-          <t>f BY EG23a*0.673 (a_173);</t>
+          <t>[EG23a$1*-1.553] (t1_173);</t>
         </is>
       </c>
     </row>
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>[EG23a$1*-1.553] (t1_173);</t>
+          <t>[EG23a$2*1.956] (t2_173);</t>
         </is>
       </c>
     </row>
     <row r="780">
       <c r="A780" t="inlineStr">
         <is>
-          <t>[EG23a$2*1.956] (t2_173);</t>
+          <t>[EG23a$3*3.357] (t3_173);</t>
         </is>
       </c>
     </row>
     <row r="781">
       <c r="A781" t="inlineStr">
         <is>
-          <t>[EG23a$3*3.357] (t3_173);</t>
-        </is>
-      </c>
-    </row>
-    <row r="782">
-      <c r="A782" t="inlineStr">
-        <is>
           <t>[EG23a$4*6.12] (t4_173);</t>
+        </is>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="inlineStr">
+        <is>
+          <t>!ITEM: EG23b | jid = 174</t>
         </is>
       </c>
     </row>
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t>!ITEM: EG23b | jid = 174</t>
+          <t>!Constrain slope to EG23a. Constrain tau$1 to be a simplex between EG23a$1 and EG23a$4</t>
         </is>
       </c>
     </row>
     <row r="785">
       <c r="A785" t="inlineStr">
         <is>
-          <t>!Constrain slope to EG23a. Constrain tau$1 to be a simplex between EG23a$1 and EG23a$4</t>
+          <t>f BY EG23b*0.673 (a_173);</t>
         </is>
       </c>
     </row>
     <row r="786">
       <c r="A786" t="inlineStr">
         <is>
-          <t>f BY EG23b*0.673 (a_173);</t>
-        </is>
-      </c>
-    </row>
-    <row r="787">
-      <c r="A787" t="inlineStr">
-        <is>
           <t>[EG23b$1*-0.326] (t1_174);</t>
+        </is>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="inlineStr">
+        <is>
+          <t>!ITEM: EG24a | jid = 175</t>
         </is>
       </c>
     </row>
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>!ITEM: EG24a | jid = 175</t>
+          <t>f BY EG24a*0.482 (a_175);</t>
         </is>
       </c>
     </row>
     <row r="790">
       <c r="A790" t="inlineStr">
         <is>
-          <t>f BY EG24a*0.482 (a_175);</t>
-        </is>
-      </c>
-    </row>
-    <row r="791">
-      <c r="A791" t="inlineStr">
-        <is>
           <t>[EG24a$1*-0.821] (t1_175);</t>
         </is>
       </c>
@@ -4674,2749 +4667,2707 @@
     <row r="792">
       <c r="A792" t="inlineStr">
         <is>
-          <t>[EG24a$2*1.048] (t2_175);</t>
+          <t>!ITEM: EG24b | jid = 176</t>
         </is>
       </c>
     </row>
     <row r="793">
       <c r="A793" t="inlineStr">
         <is>
-          <t>[EG24a$3*2.266] (t3_175);</t>
+          <t>!Constrain slope to EG24a</t>
         </is>
       </c>
     </row>
     <row r="794">
       <c r="A794" t="inlineStr">
         <is>
-          <t>[EG24a$4*5.575] (t4_175);</t>
+          <t>f BY EG24b*0.482 (a_175);</t>
+        </is>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="inlineStr">
+        <is>
+          <t>[EG24b$1*-1.241] (t1_176);</t>
         </is>
       </c>
     </row>
     <row r="796">
       <c r="A796" t="inlineStr">
         <is>
-          <t>!ITEM: EG24b | jid = 176</t>
+          <t>[EG24b$2*0.557] (t2_176);</t>
         </is>
       </c>
     </row>
     <row r="797">
       <c r="A797" t="inlineStr">
         <is>
-          <t>!Constrain slope to EG24a</t>
+          <t>[EG24b$3*1.646] (t3_176);</t>
         </is>
       </c>
     </row>
     <row r="798">
       <c r="A798" t="inlineStr">
         <is>
-          <t>f BY EG24b*0.482 (a_175);</t>
-        </is>
-      </c>
-    </row>
-    <row r="799">
-      <c r="A799" t="inlineStr">
-        <is>
-          <t>[EG24b$1*-1.241] (t1_176);</t>
+          <t>[EG24b$4*5.732] (t4_176);</t>
         </is>
       </c>
     </row>
     <row r="800">
       <c r="A800" t="inlineStr">
         <is>
-          <t>[EG24b$2*0.557] (t2_176);</t>
+          <t>!ITEM: EG25a | jid = 177</t>
         </is>
       </c>
     </row>
     <row r="801">
       <c r="A801" t="inlineStr">
         <is>
-          <t>[EG24b$3*1.646] (t3_176);</t>
+          <t>f BY EG25a*0.369 (a_177);</t>
         </is>
       </c>
     </row>
     <row r="802">
       <c r="A802" t="inlineStr">
         <is>
-          <t>[EG24b$4*5.732] (t4_176);</t>
+          <t>[EG25a$1*-1.983] (t1_177);</t>
+        </is>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="inlineStr">
+        <is>
+          <t>[EG25a$2*0.273] (t2_177);</t>
         </is>
       </c>
     </row>
     <row r="804">
       <c r="A804" t="inlineStr">
         <is>
-          <t>!ITEM: EG25a | jid = 177</t>
+          <t>[EG25a$3*1.509] (t3_177);</t>
         </is>
       </c>
     </row>
     <row r="805">
       <c r="A805" t="inlineStr">
         <is>
-          <t>f BY EG25a*0.369 (a_177);</t>
-        </is>
-      </c>
-    </row>
-    <row r="806">
-      <c r="A806" t="inlineStr">
-        <is>
-          <t>[EG25a$1*-1.983] (t1_177);</t>
+          <t>[EG25a$4*4.337] (t4_177);</t>
         </is>
       </c>
     </row>
     <row r="807">
       <c r="A807" t="inlineStr">
         <is>
-          <t>[EG25a$2*0.273] (t2_177);</t>
+          <t>!ITEM: EG25b | jid = 178</t>
         </is>
       </c>
     </row>
     <row r="808">
       <c r="A808" t="inlineStr">
         <is>
-          <t>[EG25a$3*1.509] (t3_177);</t>
+          <t>!Constrain slope to EG25a</t>
         </is>
       </c>
     </row>
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>[EG25a$4*4.337] (t4_177);</t>
-        </is>
-      </c>
-    </row>
-    <row r="811">
-      <c r="A811" t="inlineStr">
-        <is>
-          <t>!ITEM: EG25b | jid = 178</t>
+          <t>f BY EG25b*0.369 (a_177);</t>
+        </is>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="inlineStr">
+        <is>
+          <t>[EG25b$1*0.613] (t1_178);</t>
         </is>
       </c>
     </row>
     <row r="812">
       <c r="A812" t="inlineStr">
         <is>
-          <t>!Constrain slope to EG25a</t>
+          <t>!ITEM: EG26a | jid = 179</t>
         </is>
       </c>
     </row>
     <row r="813">
       <c r="A813" t="inlineStr">
         <is>
-          <t>f BY EG25b*0.369 (a_177);</t>
+          <t>f BY EG26a*0.003 (a_179);</t>
         </is>
       </c>
     </row>
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>[EG25b$1*0.613] (t1_178);</t>
+          <t>[EG26a$1*-4.328] (t1_179);</t>
         </is>
       </c>
     </row>
     <row r="816">
       <c r="A816" t="inlineStr">
         <is>
-          <t>!ITEM: EG26a | jid = 179</t>
+          <t>!ITEM: EG26b | jid = 180</t>
         </is>
       </c>
     </row>
     <row r="817">
       <c r="A817" t="inlineStr">
         <is>
-          <t>f BY EG26a*0.003 (a_179);</t>
+          <t>!Constrain slope to EG26a</t>
         </is>
       </c>
     </row>
     <row r="818">
       <c r="A818" t="inlineStr">
         <is>
-          <t>[EG26a$1*-4.328] (t1_179);</t>
+          <t>f BY EG26b*0.003 (a_179);</t>
         </is>
       </c>
     </row>
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>[EG26a$2*-3.041] (t2_179);</t>
+          <t>[EG26b$1*-1.714] (t1_180);</t>
         </is>
       </c>
     </row>
     <row r="820">
       <c r="A820" t="inlineStr">
         <is>
-          <t>[EG26a$3*-1.972] (t3_179);</t>
+          <t>[EG26b$2*0.845] (t2_180);</t>
         </is>
       </c>
     </row>
     <row r="821">
       <c r="A821" t="inlineStr">
         <is>
-          <t>[EG26a$4*0.848] (t4_179);</t>
-        </is>
-      </c>
-    </row>
-    <row r="823">
-      <c r="A823" t="inlineStr">
-        <is>
-          <t>!ITEM: EG26b | jid = 180</t>
+          <t>[EG26b$3*1.843] (t3_180);</t>
+        </is>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="inlineStr">
+        <is>
+          <t>[EG26b$4*3.161] (t4_180);</t>
         </is>
       </c>
     </row>
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>!Constrain slope to EG26a</t>
+          <t>!ITEM: EG27a | jid = 181</t>
         </is>
       </c>
     </row>
     <row r="825">
       <c r="A825" t="inlineStr">
         <is>
-          <t>f BY EG26b*0.003 (a_179);</t>
+          <t>f BY EG27a*1.415 (a_181);</t>
         </is>
       </c>
     </row>
     <row r="826">
       <c r="A826" t="inlineStr">
         <is>
-          <t>[EG26b$1*-1.714] (t1_180);</t>
+          <t>[EG27a$1*3.171] (t1_181);</t>
         </is>
       </c>
     </row>
     <row r="827">
       <c r="A827" t="inlineStr">
         <is>
-          <t>[EG26b$2*0.845] (t2_180);</t>
+          <t>[EG27a$2*4.909] (t2_181);</t>
         </is>
       </c>
     </row>
     <row r="828">
       <c r="A828" t="inlineStr">
         <is>
-          <t>[EG26b$3*1.843] (t3_180);</t>
+          <t>[EG27a$3*5.584] (t3_181);</t>
         </is>
       </c>
     </row>
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t>[EG26b$4*3.161] (t4_180);</t>
+          <t>[EG27a$4*7.553] (t4_181);</t>
         </is>
       </c>
     </row>
     <row r="831">
       <c r="A831" t="inlineStr">
         <is>
-          <t>!ITEM: EG27a | jid = 181</t>
+          <t>!ITEM: EG27b_1 | jid = 182</t>
         </is>
       </c>
     </row>
     <row r="832">
       <c r="A832" t="inlineStr">
         <is>
-          <t>f BY EG27a*1.415 (a_181);</t>
+          <t>!Constrain slope to EG27a. Constrain tau$1 to be between EG27a$1 and EG27a$4</t>
         </is>
       </c>
     </row>
     <row r="833">
       <c r="A833" t="inlineStr">
         <is>
-          <t>[EG27a$1*3.171] (t1_181);</t>
+          <t>f BY EG27b_1*1.415 (a_181);</t>
         </is>
       </c>
     </row>
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>[EG27a$2*4.909] (t2_181);</t>
-        </is>
-      </c>
-    </row>
-    <row r="835">
-      <c r="A835" t="inlineStr">
-        <is>
-          <t>[EG27a$3*5.584] (t3_181);</t>
+          <t>[EG27b_1$1*4.563] (t1_182);</t>
         </is>
       </c>
     </row>
     <row r="836">
       <c r="A836" t="inlineStr">
         <is>
-          <t>[EG27a$4*7.553] (t4_181);</t>
+          <t>!ITEM: EG27b_2 | jid = 183</t>
+        </is>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="inlineStr">
+        <is>
+          <t>!Constrain slope to EG27a. Constrain tau$1 to be EG27b_1$1</t>
         </is>
       </c>
     </row>
     <row r="838">
       <c r="A838" t="inlineStr">
         <is>
-          <t>!ITEM: EG27b_1 | jid = 182</t>
+          <t>f BY EG27b_2*1.415 (a_181);</t>
         </is>
       </c>
     </row>
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t>!Constrain slope to EG27a. Constrain tau$1 to be between EG27a$1 and EG27a$4</t>
-        </is>
-      </c>
-    </row>
-    <row r="840">
-      <c r="A840" t="inlineStr">
-        <is>
-          <t>f BY EG27b_1*1.415 (a_181);</t>
+          <t>[EG27b_2$1*4.563] (t1_182);</t>
         </is>
       </c>
     </row>
     <row r="841">
       <c r="A841" t="inlineStr">
         <is>
-          <t>[EG27b_1$1*4.563] (t1_182);</t>
+          <t>!ITEM: EG27b_3 | jid = 184</t>
+        </is>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="inlineStr">
+        <is>
+          <t>!Constrain slope to EG27a. Constrain tau$1 to be EG27b_1$1</t>
         </is>
       </c>
     </row>
     <row r="843">
       <c r="A843" t="inlineStr">
         <is>
-          <t>!ITEM: EG27b_2 | jid = 183</t>
+          <t>f BY EG27b_3*1.415 (a_181);</t>
         </is>
       </c>
     </row>
     <row r="844">
       <c r="A844" t="inlineStr">
         <is>
-          <t>!Constrain slope to EG27a. Constrain tau$1 to be EG27b_1$1</t>
-        </is>
-      </c>
-    </row>
-    <row r="845">
-      <c r="A845" t="inlineStr">
-        <is>
-          <t>f BY EG27b_2*1.415 (a_181);</t>
+          <t>[EG27b_3$1*4.563] (t1_182);</t>
         </is>
       </c>
     </row>
     <row r="846">
       <c r="A846" t="inlineStr">
         <is>
-          <t>[EG27b_2$1*4.563] (t1_182);</t>
+          <t>!ITEM: EG28a | jid = 185</t>
+        </is>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="inlineStr">
+        <is>
+          <t>f BY EG28a*1.788 (a_185);</t>
         </is>
       </c>
     </row>
     <row r="848">
       <c r="A848" t="inlineStr">
         <is>
-          <t>!ITEM: EG27b_3 | jid = 184</t>
+          <t>[EG28a$1*9.819] (t1_185);</t>
         </is>
       </c>
     </row>
     <row r="849">
       <c r="A849" t="inlineStr">
         <is>
-          <t>!Constrain slope to EG27a. Constrain tau$1 to be EG27b_1$1</t>
+          <t>[EG28a$2*10.731] (t2_185);</t>
         </is>
       </c>
     </row>
     <row r="850">
       <c r="A850" t="inlineStr">
         <is>
-          <t>f BY EG27b_3*1.415 (a_181);</t>
+          <t>[EG28a$3*11.081] (t3_185);</t>
         </is>
       </c>
     </row>
     <row r="851">
       <c r="A851" t="inlineStr">
         <is>
-          <t>[EG27b_3$1*4.563] (t1_182);</t>
+          <t>[EG28a$4*11.881] (t4_185);</t>
         </is>
       </c>
     </row>
     <row r="853">
       <c r="A853" t="inlineStr">
         <is>
-          <t>!ITEM: EG28a | jid = 185</t>
+          <t>!ITEM: EG28b | jid = 186</t>
         </is>
       </c>
     </row>
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t>f BY EG28a*1.788 (a_185);</t>
+          <t>!Constrain slope to EG28a. Constrain tau$1 to be equal to a simplex between EG28a$1 and EG28a$4</t>
         </is>
       </c>
     </row>
     <row r="855">
       <c r="A855" t="inlineStr">
         <is>
-          <t>[EG28a$1*9.819] (t1_185);</t>
+          <t>f BY EG28b*1.788 (a_185);</t>
         </is>
       </c>
     </row>
     <row r="856">
       <c r="A856" t="inlineStr">
         <is>
-          <t>[EG28a$2*10.731] (t2_185);</t>
-        </is>
-      </c>
-    </row>
-    <row r="857">
-      <c r="A857" t="inlineStr">
-        <is>
-          <t>[EG28a$3*11.081] (t3_185);</t>
+          <t>[EG28b$1*10.149] (t1_186);</t>
         </is>
       </c>
     </row>
     <row r="858">
       <c r="A858" t="inlineStr">
         <is>
-          <t>[EG28a$4*11.881] (t4_185);</t>
+          <t>!ITEM: EG28c | jid = 187</t>
+        </is>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="inlineStr">
+        <is>
+          <t>!Constrain slope to EG28a. Constrain tau$1 to be equal to a simplex between EG28a$1 and EG28a$4</t>
         </is>
       </c>
     </row>
     <row r="860">
       <c r="A860" t="inlineStr">
         <is>
-          <t>!ITEM: EG28b | jid = 186</t>
+          <t>f BY EG28c*1.788 (a_185);</t>
         </is>
       </c>
     </row>
     <row r="861">
       <c r="A861" t="inlineStr">
         <is>
-          <t>!Constrain slope to EG28a. Constrain tau$1 to be equal to a simplex between EG28a$1 and EG28a$4</t>
-        </is>
-      </c>
-    </row>
-    <row r="862">
-      <c r="A862" t="inlineStr">
-        <is>
-          <t>f BY EG28b*1.788 (a_185);</t>
+          <t>[EG28c$1*10.149] (t1_187);</t>
         </is>
       </c>
     </row>
     <row r="863">
       <c r="A863" t="inlineStr">
         <is>
-          <t>[EG28b$1*10.149] (t1_186);</t>
+          <t>!ITEM: EG29a | jid = 188</t>
+        </is>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="inlineStr">
+        <is>
+          <t>f BY EG29a*1.201 (a_188);</t>
         </is>
       </c>
     </row>
     <row r="865">
       <c r="A865" t="inlineStr">
         <is>
-          <t>!ITEM: EG28c | jid = 187</t>
+          <t>[EG29a$1*3.849] (t1_188);</t>
         </is>
       </c>
     </row>
     <row r="866">
       <c r="A866" t="inlineStr">
         <is>
-          <t>!Constrain slope to EG28a. Constrain tau$1 to be equal to a simplex between EG28a$1 and EG28a$4</t>
+          <t>[EG29a$2*6.025] (t2_188);</t>
         </is>
       </c>
     </row>
     <row r="867">
       <c r="A867" t="inlineStr">
         <is>
-          <t>f BY EG28c*1.788 (a_185);</t>
+          <t>[EG29a$3*6.622] (t3_188);</t>
         </is>
       </c>
     </row>
     <row r="868">
       <c r="A868" t="inlineStr">
         <is>
-          <t>[EG28c$1*10.149] (t1_187);</t>
+          <t>[EG29a$4*7.938] (t4_188);</t>
         </is>
       </c>
     </row>
     <row r="870">
       <c r="A870" t="inlineStr">
         <is>
-          <t>!ITEM: EG29a | jid = 188</t>
+          <t>!ITEM: EG29b | jid = 189</t>
         </is>
       </c>
     </row>
     <row r="871">
       <c r="A871" t="inlineStr">
         <is>
-          <t>f BY EG29a*1.201 (a_188);</t>
+          <t>!Constrain slope to EG29a. Constrain tau$1 to be equal to EG29a$1. Constrain tau$2  to be equal to EG29a$3. Constrain tau$3 to be equal to EG29a$4</t>
         </is>
       </c>
     </row>
     <row r="872">
       <c r="A872" t="inlineStr">
         <is>
-          <t>[EG29a$1*3.849] (t1_188);</t>
+          <t>f BY EG29b*1.201 (a_188);</t>
         </is>
       </c>
     </row>
     <row r="873">
       <c r="A873" t="inlineStr">
         <is>
-          <t>[EG29a$2*6.025] (t2_188);</t>
+          <t>[EG29b$1*3.849] (t1_188);</t>
         </is>
       </c>
     </row>
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t>[EG29a$3*6.622] (t3_188);</t>
+          <t>[EG29b$2*6.622] (t3_188);</t>
         </is>
       </c>
     </row>
     <row r="875">
       <c r="A875" t="inlineStr">
         <is>
-          <t>[EG29a$4*7.938] (t4_188);</t>
+          <t>[EG29b$3*7.938] (t4_188);</t>
         </is>
       </c>
     </row>
     <row r="877">
       <c r="A877" t="inlineStr">
         <is>
-          <t>!ITEM: EG29b | jid = 189</t>
+          <t>!ITEM: EG29c | jid = 190</t>
         </is>
       </c>
     </row>
     <row r="878">
       <c r="A878" t="inlineStr">
         <is>
-          <t>!Constrain slope to EG29a. Constrain tau$1 to be equal to EG29a$1. Constrain tau$2  to be equal to EG29a$3. Constrain tau$3 to be equal to EG29a$4</t>
+          <t>!Constrain slope to EG29a. Constrain tau$1 to be equal to EG29a$1.</t>
         </is>
       </c>
     </row>
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t>f BY EG29b*1.201 (a_188);</t>
+          <t>f BY EG29c*1.201 (a_188);</t>
         </is>
       </c>
     </row>
     <row r="880">
       <c r="A880" t="inlineStr">
         <is>
-          <t>[EG29b$1*3.849] (t1_188);</t>
-        </is>
-      </c>
-    </row>
-    <row r="881">
-      <c r="A881" t="inlineStr">
-        <is>
-          <t>[EG29b$2*6.622] (t3_188);</t>
+          <t>[EG29c$1*3.849] (t1_188);</t>
         </is>
       </c>
     </row>
     <row r="882">
       <c r="A882" t="inlineStr">
         <is>
-          <t>[EG29b$3*7.938] (t4_188);</t>
+          <t>!ITEM: EG3_1 | jid = 191</t>
+        </is>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="inlineStr">
+        <is>
+          <t>f BY EG3_1*2.08 (a_191);</t>
         </is>
       </c>
     </row>
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t>!ITEM: EG29c | jid = 190</t>
-        </is>
-      </c>
-    </row>
-    <row r="885">
-      <c r="A885" t="inlineStr">
-        <is>
-          <t>!Constrain slope to EG29a. Constrain tau$1 to be equal to EG29a$1.</t>
+          <t>[EG3_1$1*6.773] (t1_191);</t>
         </is>
       </c>
     </row>
     <row r="886">
       <c r="A886" t="inlineStr">
         <is>
-          <t>f BY EG29c*1.201 (a_188);</t>
+          <t>!ITEM: EG3_2 | jid = 192</t>
         </is>
       </c>
     </row>
     <row r="887">
       <c r="A887" t="inlineStr">
         <is>
-          <t>[EG29c$1*3.849] (t1_188);</t>
+          <t>!Constrain all to EG3_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" t="inlineStr">
+        <is>
+          <t>f BY EG3_2*2.08 (a_191);</t>
         </is>
       </c>
     </row>
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>!ITEM: EG3_1 | jid = 191</t>
-        </is>
-      </c>
-    </row>
-    <row r="890">
-      <c r="A890" t="inlineStr">
-        <is>
-          <t>f BY EG3_1*2.08 (a_191);</t>
+          <t>[EG3_2$1*6.773] (t1_191);</t>
         </is>
       </c>
     </row>
     <row r="891">
       <c r="A891" t="inlineStr">
         <is>
-          <t>[EG3_1$1*6.773] (t1_191);</t>
+          <t>!ITEM: EG30a | jid = 193</t>
+        </is>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" t="inlineStr">
+        <is>
+          <t>!Constrain slope to EG27a</t>
         </is>
       </c>
     </row>
     <row r="893">
       <c r="A893" t="inlineStr">
         <is>
-          <t>!ITEM: EG3_2 | jid = 192</t>
+          <t>f BY EG30a*1.415 (a_181);</t>
         </is>
       </c>
     </row>
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t>!Constrain all to EG3_1</t>
+          <t>[EG30a$1*4.104] (t1_193);</t>
         </is>
       </c>
     </row>
     <row r="895">
       <c r="A895" t="inlineStr">
         <is>
-          <t>f BY EG3_2*2.08 (a_191);</t>
+          <t>[EG30a$2*6.105] (t2_193);</t>
         </is>
       </c>
     </row>
     <row r="896">
       <c r="A896" t="inlineStr">
         <is>
-          <t>[EG3_2$1*6.773] (t1_191);</t>
+          <t>[EG30a$3*9.71] (t3_193);</t>
         </is>
       </c>
     </row>
     <row r="898">
       <c r="A898" t="inlineStr">
         <is>
-          <t>!ITEM: EG30a | jid = 193</t>
+          <t>!ITEM: EG30b | jid = 194</t>
         </is>
       </c>
     </row>
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>!Constrain slope to EG27a</t>
+          <t>!Constrain slope to EG30a. Constrain tau$1 to be a simplex between EG30a$1 and EG30a$3</t>
         </is>
       </c>
     </row>
     <row r="900">
       <c r="A900" t="inlineStr">
         <is>
-          <t>f BY EG30a*1.415 (a_181);</t>
+          <t>f BY EG30b*1.406 (a_193);</t>
         </is>
       </c>
     </row>
     <row r="901">
       <c r="A901" t="inlineStr">
         <is>
-          <t>[EG30a$1*4.104] (t1_193);</t>
-        </is>
-      </c>
-    </row>
-    <row r="902">
-      <c r="A902" t="inlineStr">
-        <is>
-          <t>[EG30a$2*6.105] (t2_193);</t>
+          <t>[EG30b$1*5.001] (t1_194);</t>
         </is>
       </c>
     </row>
     <row r="903">
       <c r="A903" t="inlineStr">
         <is>
-          <t>[EG30a$3*9.71] (t3_193);</t>
+          <t>!ITEM: EG30c | jid = 195</t>
+        </is>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="inlineStr">
+        <is>
+          <t>!Constrain slope to EG27a. Constrain tau$1 to between EG30a$1 and EG30a$3</t>
         </is>
       </c>
     </row>
     <row r="905">
       <c r="A905" t="inlineStr">
         <is>
-          <t>!ITEM: EG30b | jid = 194</t>
+          <t>f BY EG30c*1.415 (a_181);</t>
         </is>
       </c>
     </row>
     <row r="906">
       <c r="A906" t="inlineStr">
         <is>
-          <t>!Constrain slope to EG30a. Constrain tau$1 to be a simplex between EG30a$1 and EG30a$3</t>
-        </is>
-      </c>
-    </row>
-    <row r="907">
-      <c r="A907" t="inlineStr">
-        <is>
-          <t>f BY EG30b*1.406 (a_193);</t>
+          <t>[EG30c$1*5.93] (t1_195);</t>
         </is>
       </c>
     </row>
     <row r="908">
       <c r="A908" t="inlineStr">
         <is>
-          <t>[EG30b$1*5.001] (t1_194);</t>
+          <t>!ITEM: EG30d | jid = 196</t>
+        </is>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="inlineStr">
+        <is>
+          <t>!Constrain slope to EG27a</t>
         </is>
       </c>
     </row>
     <row r="910">
       <c r="A910" t="inlineStr">
         <is>
-          <t>!ITEM: EG30c | jid = 195</t>
+          <t>f BY EG30d*1.415 (a_181);</t>
         </is>
       </c>
     </row>
     <row r="911">
       <c r="A911" t="inlineStr">
         <is>
-          <t>!Constrain slope to EG27a. Constrain tau$1 to between EG30a$1 and EG30a$3</t>
-        </is>
-      </c>
-    </row>
-    <row r="912">
-      <c r="A912" t="inlineStr">
-        <is>
-          <t>f BY EG30c*1.415 (a_181);</t>
+          <t>[EG30d$1*7.232] (t1_196);</t>
         </is>
       </c>
     </row>
     <row r="913">
       <c r="A913" t="inlineStr">
         <is>
-          <t>[EG30c$1*5.93] (t1_195);</t>
+          <t>!ITEM: EG30e | jid = 197</t>
+        </is>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" t="inlineStr">
+        <is>
+          <t>!Constrain slope to EG27a</t>
         </is>
       </c>
     </row>
     <row r="915">
       <c r="A915" t="inlineStr">
         <is>
-          <t>!ITEM: EG30d | jid = 196</t>
+          <t>f BY EG30e*1.415 (a_181);</t>
         </is>
       </c>
     </row>
     <row r="916">
       <c r="A916" t="inlineStr">
         <is>
-          <t>!Constrain slope to EG27a</t>
-        </is>
-      </c>
-    </row>
-    <row r="917">
-      <c r="A917" t="inlineStr">
-        <is>
-          <t>f BY EG30d*1.415 (a_181);</t>
+          <t>[EG30e$1*7.029] (t1_197);</t>
         </is>
       </c>
     </row>
     <row r="918">
       <c r="A918" t="inlineStr">
         <is>
-          <t>[EG30d$1*7.232] (t1_196);</t>
+          <t>!ITEM: EG30f | jid = 198</t>
+        </is>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" t="inlineStr">
+        <is>
+          <t>!Constrain slope to EG27a</t>
         </is>
       </c>
     </row>
     <row r="920">
       <c r="A920" t="inlineStr">
         <is>
-          <t>!ITEM: EG30e | jid = 197</t>
+          <t>f BY EG30f*1.415 (a_181);</t>
         </is>
       </c>
     </row>
     <row r="921">
       <c r="A921" t="inlineStr">
         <is>
-          <t>!Constrain slope to EG27a</t>
-        </is>
-      </c>
-    </row>
-    <row r="922">
-      <c r="A922" t="inlineStr">
-        <is>
-          <t>f BY EG30e*1.415 (a_181);</t>
+          <t>[EG30f$1*4.776] (t1_198);</t>
         </is>
       </c>
     </row>
     <row r="923">
       <c r="A923" t="inlineStr">
         <is>
-          <t>[EG30e$1*7.029] (t1_197);</t>
+          <t>!ITEM: EG31a_1 | jid = 199</t>
+        </is>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="inlineStr">
+        <is>
+          <t>f BY EG31a_1*0.871 (a_199);</t>
         </is>
       </c>
     </row>
     <row r="925">
       <c r="A925" t="inlineStr">
         <is>
-          <t>!ITEM: EG30f | jid = 198</t>
-        </is>
-      </c>
-    </row>
-    <row r="926">
-      <c r="A926" t="inlineStr">
-        <is>
-          <t>!Constrain slope to EG27a</t>
+          <t>[EG31a_1$1*0.754] (t1_199);</t>
         </is>
       </c>
     </row>
     <row r="927">
       <c r="A927" t="inlineStr">
         <is>
-          <t>f BY EG30f*1.415 (a_181);</t>
+          <t>!ITEM: EG31a_2 | jid = 200</t>
         </is>
       </c>
     </row>
     <row r="928">
       <c r="A928" t="inlineStr">
         <is>
-          <t>[EG30f$1*4.776] (t1_198);</t>
+          <t>!Constrain all to EG31a_1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" t="inlineStr">
+        <is>
+          <t>f BY EG31a_2*0.871 (a_199);</t>
         </is>
       </c>
     </row>
     <row r="930">
       <c r="A930" t="inlineStr">
         <is>
-          <t>!ITEM: EG31a_1 | jid = 199</t>
-        </is>
-      </c>
-    </row>
-    <row r="931">
-      <c r="A931" t="inlineStr">
-        <is>
-          <t>f BY EG31a_1*0.871 (a_199);</t>
+          <t>[EG31a_2$1*0.754] (t1_199);</t>
         </is>
       </c>
     </row>
     <row r="932">
       <c r="A932" t="inlineStr">
         <is>
-          <t>[EG31a_1$1*0.754] (t1_199);</t>
+          <t>!ITEM: EG31b | jid = 201</t>
+        </is>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" t="inlineStr">
+        <is>
+          <t>!Constrain slope to be equal to EG31a_1. Constrain tau$1 to be less than EG31a_1$1.</t>
         </is>
       </c>
     </row>
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>!ITEM: EG31a_2 | jid = 200</t>
+          <t>f BY EG31b*0.871 (a_199);</t>
         </is>
       </c>
     </row>
     <row r="935">
       <c r="A935" t="inlineStr">
         <is>
-          <t>!Constrain all to EG31a_1.</t>
-        </is>
-      </c>
-    </row>
-    <row r="936">
-      <c r="A936" t="inlineStr">
-        <is>
-          <t>f BY EG31a_2*0.871 (a_199);</t>
+          <t>[EG31b$1*-0.735] (t1_201);</t>
         </is>
       </c>
     </row>
     <row r="937">
       <c r="A937" t="inlineStr">
         <is>
-          <t>[EG31a_2$1*0.754] (t1_199);</t>
+          <t>!ITEM: EG32a | jid = 202</t>
+        </is>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" t="inlineStr">
+        <is>
+          <t>f BY EG32a*1.67 (a_202);</t>
         </is>
       </c>
     </row>
     <row r="939">
       <c r="A939" t="inlineStr">
         <is>
-          <t>!ITEM: EG31b | jid = 201</t>
+          <t>[EG32a$1*7.33] (t1_202);</t>
         </is>
       </c>
     </row>
     <row r="940">
       <c r="A940" t="inlineStr">
         <is>
-          <t>!Constrain slope to be equal to EG31a_1. Constrain tau$1 to be less than EG31a_1$1.</t>
+          <t>[EG32a$2*9.001] (t2_202);</t>
         </is>
       </c>
     </row>
     <row r="941">
       <c r="A941" t="inlineStr">
         <is>
-          <t>f BY EG31b*0.871 (a_199);</t>
-        </is>
-      </c>
-    </row>
-    <row r="942">
-      <c r="A942" t="inlineStr">
-        <is>
-          <t>[EG31b$1*-0.735] (t1_201);</t>
+          <t>[EG32a$3*11.798] (t3_202);</t>
+        </is>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" t="inlineStr">
+        <is>
+          <t>!ITEM: EG32b | jid = 203</t>
         </is>
       </c>
     </row>
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>!ITEM: EG32a | jid = 202</t>
+          <t>!constraint slope to EG32a. Constrain tau$1 to be a simplex between EG32a$1 and EG32a$3</t>
         </is>
       </c>
     </row>
     <row r="945">
       <c r="A945" t="inlineStr">
         <is>
-          <t>f BY EG32a*1.67 (a_202);</t>
+          <t>f BY EG32b*1.67 (a_202);</t>
         </is>
       </c>
     </row>
     <row r="946">
       <c r="A946" t="inlineStr">
         <is>
-          <t>[EG32a$1*7.33] (t1_202);</t>
-        </is>
-      </c>
-    </row>
-    <row r="947">
-      <c r="A947" t="inlineStr">
-        <is>
-          <t>[EG32a$2*9.001] (t2_202);</t>
+          <t>[EG32b$1*8.044] (t1_203);</t>
         </is>
       </c>
     </row>
     <row r="948">
       <c r="A948" t="inlineStr">
         <is>
-          <t>[EG32a$3*11.798] (t3_202);</t>
+          <t>!ITEM: EG33a | jid = 204</t>
+        </is>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" t="inlineStr">
+        <is>
+          <t>f BY EG33a*1.647 (a_204);</t>
         </is>
       </c>
     </row>
     <row r="950">
       <c r="A950" t="inlineStr">
         <is>
-          <t>!ITEM: EG32b | jid = 203</t>
+          <t>[EG33a$1*8.289] (t1_204);</t>
         </is>
       </c>
     </row>
     <row r="951">
       <c r="A951" t="inlineStr">
         <is>
-          <t>!constraint slope to EG32a. Constrain tau$1 to be a simplex between EG32a$1 and EG32a$3</t>
+          <t>[EG33a$2*9.885] (t2_204);</t>
         </is>
       </c>
     </row>
     <row r="952">
       <c r="A952" t="inlineStr">
         <is>
-          <t>f BY EG32b*1.67 (a_202);</t>
-        </is>
-      </c>
-    </row>
-    <row r="953">
-      <c r="A953" t="inlineStr">
-        <is>
-          <t>[EG32b$1*8.044] (t1_203);</t>
+          <t>[EG33a$3*12.487] (t3_204);</t>
+        </is>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" t="inlineStr">
+        <is>
+          <t>!ITEM: EG33b | jid = 205</t>
         </is>
       </c>
     </row>
     <row r="955">
       <c r="A955" t="inlineStr">
         <is>
-          <t>!ITEM: EG33a | jid = 204</t>
+          <t>!Constrain slope to EG32a. Constrain tau$1 to be a simplex between EG33a$1 and EG33a$2.</t>
         </is>
       </c>
     </row>
     <row r="956">
       <c r="A956" t="inlineStr">
         <is>
-          <t>f BY EG33a*1.647 (a_204);</t>
+          <t>f BY EG33b*1.67 (a_202);</t>
         </is>
       </c>
     </row>
     <row r="957">
       <c r="A957" t="inlineStr">
         <is>
-          <t>[EG33a$1*8.289] (t1_204);</t>
-        </is>
-      </c>
-    </row>
-    <row r="958">
-      <c r="A958" t="inlineStr">
-        <is>
-          <t>[EG33a$2*9.885] (t2_204);</t>
+          <t>[EG33b$1*8.544] (t1_205);</t>
         </is>
       </c>
     </row>
     <row r="959">
       <c r="A959" t="inlineStr">
         <is>
-          <t>[EG33a$3*12.487] (t3_204);</t>
+          <t>!ITEM: EG34a | jid = 206</t>
+        </is>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" t="inlineStr">
+        <is>
+          <t>f BY EG34a*0.755 (a_206);</t>
         </is>
       </c>
     </row>
     <row r="961">
       <c r="A961" t="inlineStr">
         <is>
-          <t>!ITEM: EG33b | jid = 205</t>
+          <t>[EG34a$1*-0.15] (t1_206);</t>
         </is>
       </c>
     </row>
     <row r="962">
       <c r="A962" t="inlineStr">
         <is>
-          <t>!Constrain slope to EG32a. Constrain tau$1 to be a simplex between EG33a$1 and EG33a$2.</t>
-        </is>
-      </c>
-    </row>
-    <row r="963">
-      <c r="A963" t="inlineStr">
-        <is>
-          <t>f BY EG33b*1.67 (a_202);</t>
+          <t>[EG34a$2*3.248] (t2_206);</t>
         </is>
       </c>
     </row>
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>[EG33b$1*8.544] (t1_205);</t>
+          <t>!ITEM: EG34b | jid = 207</t>
+        </is>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" t="inlineStr">
+        <is>
+          <t>!Constrain slope to EG34a. Constrain tau$1 to EG34a$2.</t>
         </is>
       </c>
     </row>
     <row r="966">
       <c r="A966" t="inlineStr">
         <is>
-          <t>!ITEM: EG34a | jid = 206</t>
+          <t>f BY EG34b*0.755 (a_206);</t>
         </is>
       </c>
     </row>
     <row r="967">
       <c r="A967" t="inlineStr">
         <is>
-          <t>f BY EG34a*0.755 (a_206);</t>
-        </is>
-      </c>
-    </row>
-    <row r="968">
-      <c r="A968" t="inlineStr">
-        <is>
-          <t>[EG34a$1*-0.15] (t1_206);</t>
+          <t>[EG34b$1*3.248] (t2_206);</t>
         </is>
       </c>
     </row>
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t>[EG34a$2*3.248] (t2_206);</t>
+          <t>!ITEM: EG35a | jid = 208</t>
+        </is>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" t="inlineStr">
+        <is>
+          <t>f BY EG35a*1.288 (a_208);</t>
         </is>
       </c>
     </row>
     <row r="971">
       <c r="A971" t="inlineStr">
         <is>
-          <t>!ITEM: EG34b | jid = 207</t>
-        </is>
-      </c>
-    </row>
-    <row r="972">
-      <c r="A972" t="inlineStr">
-        <is>
-          <t>!Constrain slope to EG34a. Constrain tau$1 to EG34a$2.</t>
+          <t>[EG35a$1*4.274] (t1_208);</t>
         </is>
       </c>
     </row>
     <row r="973">
       <c r="A973" t="inlineStr">
         <is>
-          <t>f BY EG34b*0.755 (a_206);</t>
+          <t>!ITEM: EG35b | jid = 209</t>
         </is>
       </c>
     </row>
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>[EG34b$1*3.248] (t2_206);</t>
+          <t>!Constrain slope to EG35a.</t>
+        </is>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" t="inlineStr">
+        <is>
+          <t>f BY EG35b*1.288 (a_208);</t>
         </is>
       </c>
     </row>
     <row r="976">
       <c r="A976" t="inlineStr">
         <is>
-          <t>!ITEM: EG35a | jid = 208</t>
-        </is>
-      </c>
-    </row>
-    <row r="977">
-      <c r="A977" t="inlineStr">
-        <is>
-          <t>f BY EG35a*1.288 (a_208);</t>
+          <t>[EG35b$1*3.039] (t1_209);</t>
         </is>
       </c>
     </row>
     <row r="978">
       <c r="A978" t="inlineStr">
         <is>
-          <t>[EG35a$1*4.274] (t1_208);</t>
+          <t>!ITEM: EG36a | jid = 210</t>
+        </is>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" t="inlineStr">
+        <is>
+          <t>f BY EG36a*1.045 (a_210);</t>
         </is>
       </c>
     </row>
     <row r="980">
       <c r="A980" t="inlineStr">
         <is>
-          <t>!ITEM: EG35b | jid = 209</t>
-        </is>
-      </c>
-    </row>
-    <row r="981">
-      <c r="A981" t="inlineStr">
-        <is>
-          <t>!Constrain slope to EG35a.</t>
+          <t>[EG36a$1*3.543] (t1_210);</t>
         </is>
       </c>
     </row>
     <row r="982">
       <c r="A982" t="inlineStr">
         <is>
-          <t>f BY EG35b*1.288 (a_208);</t>
+          <t>!ITEM: EG36b | jid = 211</t>
         </is>
       </c>
     </row>
     <row r="983">
       <c r="A983" t="inlineStr">
         <is>
-          <t>[EG35b$1*3.039] (t1_209);</t>
+          <t>!Constrain slope to EG36a</t>
+        </is>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" t="inlineStr">
+        <is>
+          <t>f BY EG36b*1.045 (a_210);</t>
         </is>
       </c>
     </row>
     <row r="985">
       <c r="A985" t="inlineStr">
         <is>
-          <t>!ITEM: EG36a | jid = 210</t>
-        </is>
-      </c>
-    </row>
-    <row r="986">
-      <c r="A986" t="inlineStr">
-        <is>
-          <t>f BY EG36a*1.045 (a_210);</t>
+          <t>[EG36b$1*3.052] (t1_211);</t>
         </is>
       </c>
     </row>
     <row r="987">
       <c r="A987" t="inlineStr">
         <is>
-          <t>[EG36a$1*3.543] (t1_210);</t>
+          <t>!ITEM: EG37_1 | jid = 212</t>
+        </is>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" t="inlineStr">
+        <is>
+          <t>f BY EG37_1*0.49 (a_212);</t>
         </is>
       </c>
     </row>
     <row r="989">
       <c r="A989" t="inlineStr">
         <is>
-          <t>!ITEM: EG36b | jid = 211</t>
+          <t>[EG37_1$1*-1.258] (t1_212);</t>
         </is>
       </c>
     </row>
     <row r="990">
       <c r="A990" t="inlineStr">
         <is>
-          <t>!Constrain slope to EG36a</t>
+          <t>[EG37_1$2*0.66] (t2_212);</t>
         </is>
       </c>
     </row>
     <row r="991">
       <c r="A991" t="inlineStr">
         <is>
-          <t>f BY EG36b*1.045 (a_210);</t>
+          <t>[EG37_1$3*1.411] (t3_212);</t>
         </is>
       </c>
     </row>
     <row r="992">
       <c r="A992" t="inlineStr">
         <is>
-          <t>[EG36b$1*3.052] (t1_211);</t>
+          <t>[EG37_1$4*3.597] (t4_212);</t>
         </is>
       </c>
     </row>
     <row r="994">
       <c r="A994" t="inlineStr">
         <is>
-          <t>!ITEM: EG37_1 | jid = 212</t>
+          <t>!ITEM: EG37_2 | jid = 213</t>
         </is>
       </c>
     </row>
     <row r="995">
       <c r="A995" t="inlineStr">
         <is>
-          <t>f BY EG37_1*0.49 (a_212);</t>
+          <t>!Constrain all to EG37_1</t>
         </is>
       </c>
     </row>
     <row r="996">
       <c r="A996" t="inlineStr">
         <is>
-          <t>[EG37_1$1*-1.258] (t1_212);</t>
+          <t>f BY EG37_2*0.49 (a_212);</t>
         </is>
       </c>
     </row>
     <row r="997">
       <c r="A997" t="inlineStr">
         <is>
-          <t>[EG37_1$2*0.66] (t2_212);</t>
+          <t>[EG37_2$1*-1.258] (t1_212);</t>
         </is>
       </c>
     </row>
     <row r="998">
       <c r="A998" t="inlineStr">
         <is>
-          <t>[EG37_1$3*1.411] (t3_212);</t>
+          <t>[EG37_2$2*0.66] (t2_212);</t>
         </is>
       </c>
     </row>
     <row r="999">
       <c r="A999" t="inlineStr">
         <is>
-          <t>[EG37_1$4*3.597] (t4_212);</t>
-        </is>
-      </c>
-    </row>
-    <row r="1001">
-      <c r="A1001" t="inlineStr">
-        <is>
-          <t>!ITEM: EG37_2 | jid = 213</t>
+          <t>[EG37_2$3*1.411] (t3_212);</t>
+        </is>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" t="inlineStr">
+        <is>
+          <t>[EG37_2$4*3.597] (t4_212);</t>
         </is>
       </c>
     </row>
     <row r="1002">
       <c r="A1002" t="inlineStr">
         <is>
-          <t>!Constrain all to EG37_1</t>
+          <t>!ITEM: EG38a | jid = 214</t>
         </is>
       </c>
     </row>
     <row r="1003">
       <c r="A1003" t="inlineStr">
         <is>
-          <t>f BY EG37_2*0.49 (a_212);</t>
+          <t>f BY EG38a*1.054 (a_214);</t>
         </is>
       </c>
     </row>
     <row r="1004">
       <c r="A1004" t="inlineStr">
         <is>
-          <t>[EG37_2$1*-1.258] (t1_212);</t>
+          <t>[EG38a$1*2.513] (t1_214);</t>
         </is>
       </c>
     </row>
     <row r="1005">
       <c r="A1005" t="inlineStr">
         <is>
-          <t>[EG37_2$2*0.66] (t2_212);</t>
+          <t>[EG38a$2*4.358] (t2_214);</t>
         </is>
       </c>
     </row>
     <row r="1006">
       <c r="A1006" t="inlineStr">
         <is>
-          <t>[EG37_2$3*1.411] (t3_212);</t>
+          <t>[EG38a$3*5.226] (t3_214);</t>
         </is>
       </c>
     </row>
     <row r="1007">
       <c r="A1007" t="inlineStr">
         <is>
-          <t>[EG37_2$4*3.597] (t4_212);</t>
+          <t>[EG38a$4*7.822] (t4_214);</t>
         </is>
       </c>
     </row>
     <row r="1009">
       <c r="A1009" t="inlineStr">
         <is>
-          <t>!ITEM: EG38a | jid = 214</t>
+          <t>!ITEM: EG38b | jid = 215</t>
         </is>
       </c>
     </row>
     <row r="1010">
       <c r="A1010" t="inlineStr">
         <is>
-          <t>f BY EG38a*1.054 (a_214);</t>
+          <t>!Constrain slope to EG38a. Constrain tau$1 to be a simplex between EG38a$1 and EG38a$4.</t>
         </is>
       </c>
     </row>
     <row r="1011">
       <c r="A1011" t="inlineStr">
         <is>
-          <t>[EG38a$1*2.513] (t1_214);</t>
+          <t>f BY EG38b*1.054 (a_214);</t>
         </is>
       </c>
     </row>
     <row r="1012">
       <c r="A1012" t="inlineStr">
         <is>
-          <t>[EG38a$2*4.358] (t2_214);</t>
-        </is>
-      </c>
-    </row>
-    <row r="1013">
-      <c r="A1013" t="inlineStr">
-        <is>
-          <t>[EG38a$3*5.226] (t3_214);</t>
+          <t>[EG38b$1*3.362] (t1_215);</t>
         </is>
       </c>
     </row>
     <row r="1014">
       <c r="A1014" t="inlineStr">
         <is>
-          <t>[EG38a$4*7.822] (t4_214);</t>
+          <t>!ITEM: EG38c | jid = 216</t>
+        </is>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" t="inlineStr">
+        <is>
+          <t>!Constrain slope to EG38a.</t>
         </is>
       </c>
     </row>
     <row r="1016">
       <c r="A1016" t="inlineStr">
         <is>
-          <t>!ITEM: EG38b | jid = 215</t>
+          <t>f BY EG38c*1.054 (a_214);</t>
         </is>
       </c>
     </row>
     <row r="1017">
       <c r="A1017" t="inlineStr">
         <is>
-          <t>!Constrain slope to EG38a. Constrain tau$1 to be a simplex between EG38a$1 and EG38a$4.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1018">
-      <c r="A1018" t="inlineStr">
-        <is>
-          <t>f BY EG38b*1.054 (a_214);</t>
+          <t>[EG38c$1*2.69] (t1_216);</t>
         </is>
       </c>
     </row>
     <row r="1019">
       <c r="A1019" t="inlineStr">
         <is>
-          <t>[EG38b$1*3.362] (t1_215);</t>
+          <t>!ITEM: EG39a | jid = 217</t>
+        </is>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020" t="inlineStr">
+        <is>
+          <t>f BY EG39a*0.586 (a_217);</t>
         </is>
       </c>
     </row>
     <row r="1021">
       <c r="A1021" t="inlineStr">
         <is>
-          <t>!ITEM: EG38c | jid = 216</t>
+          <t>[EG39a$1*-0.339] (t1_217);</t>
         </is>
       </c>
     </row>
     <row r="1022">
       <c r="A1022" t="inlineStr">
         <is>
-          <t>!Constrain slope to EG38a.</t>
+          <t>[EG39a$2*1.445] (t2_217);</t>
         </is>
       </c>
     </row>
     <row r="1023">
       <c r="A1023" t="inlineStr">
         <is>
-          <t>f BY EG38c*1.054 (a_214);</t>
+          <t>[EG39a$3*2.648] (t3_217);</t>
         </is>
       </c>
     </row>
     <row r="1024">
       <c r="A1024" t="inlineStr">
         <is>
-          <t>[EG38c$1*2.69] (t1_216);</t>
+          <t>[EG39a$4*5.985] (t4_217);</t>
         </is>
       </c>
     </row>
     <row r="1026">
       <c r="A1026" t="inlineStr">
         <is>
-          <t>!ITEM: EG39a | jid = 217</t>
+          <t>!ITEM: EG39b | jid = 218</t>
         </is>
       </c>
     </row>
     <row r="1027">
       <c r="A1027" t="inlineStr">
         <is>
-          <t>f BY EG39a*0.586 (a_217);</t>
+          <t>!Constrain slope to EG39a. Constrain tau$1 to be equal to EG39a$1. Constrain tau$4 to be equal to EG39a$4.</t>
         </is>
       </c>
     </row>
     <row r="1028">
       <c r="A1028" t="inlineStr">
         <is>
-          <t>[EG39a$1*-0.339] (t1_217);</t>
+          <t>f BY EG39b*0.586 (a_217);</t>
         </is>
       </c>
     </row>
     <row r="1029">
       <c r="A1029" t="inlineStr">
         <is>
-          <t>[EG39a$2*1.445] (t2_217);</t>
+          <t>[EG39b$1*-0.339] (t1_217);</t>
         </is>
       </c>
     </row>
     <row r="1030">
       <c r="A1030" t="inlineStr">
         <is>
-          <t>[EG39a$3*2.648] (t3_217);</t>
+          <t>[EG39b$2*2.129] (t2_218);</t>
         </is>
       </c>
     </row>
     <row r="1031">
       <c r="A1031" t="inlineStr">
         <is>
-          <t>[EG39a$4*5.985] (t4_217);</t>
-        </is>
-      </c>
-    </row>
-    <row r="1033">
-      <c r="A1033" t="inlineStr">
-        <is>
-          <t>!ITEM: EG39b | jid = 218</t>
+          <t>[EG39b$3*3.199] (t3_218);</t>
+        </is>
+      </c>
+    </row>
+    <row r="1032">
+      <c r="A1032" t="inlineStr">
+        <is>
+          <t>[EG39b$4*5.985] (t4_217);</t>
         </is>
       </c>
     </row>
     <row r="1034">
       <c r="A1034" t="inlineStr">
         <is>
-          <t>!Constrain slope to EG39a. Constrain tau$1 to be equal to EG39a$1. Constrain tau$4 to be equal to EG39a$4.</t>
+          <t>!ITEM: EG40_1 | jid = 219</t>
         </is>
       </c>
     </row>
     <row r="1035">
       <c r="A1035" t="inlineStr">
         <is>
-          <t>f BY EG39b*0.586 (a_217);</t>
+          <t>f BY EG40_1*0.512 (a_219);</t>
         </is>
       </c>
     </row>
     <row r="1036">
       <c r="A1036" t="inlineStr">
         <is>
-          <t>[EG39b$1*-0.339] (t1_217);</t>
+          <t>[EG40_1$1*-0.573] (t1_219);</t>
         </is>
       </c>
     </row>
     <row r="1037">
       <c r="A1037" t="inlineStr">
         <is>
-          <t>[EG39b$2*2.129] (t2_218);</t>
+          <t>[EG40_1$2*2.368] (t2_219);</t>
         </is>
       </c>
     </row>
     <row r="1038">
       <c r="A1038" t="inlineStr">
         <is>
-          <t>[EG39b$3*3.199] (t3_218);</t>
+          <t>[EG40_1$3*3.71] (t3_219);</t>
         </is>
       </c>
     </row>
     <row r="1039">
       <c r="A1039" t="inlineStr">
         <is>
-          <t>[EG39b$4*5.985] (t4_217);</t>
+          <t>[EG40_1$4*6.194] (t4_219);</t>
         </is>
       </c>
     </row>
     <row r="1041">
       <c r="A1041" t="inlineStr">
         <is>
-          <t>!ITEM: EG40_1 | jid = 219</t>
+          <t>!ITEM: EG40_2 | jid = 220</t>
         </is>
       </c>
     </row>
     <row r="1042">
       <c r="A1042" t="inlineStr">
         <is>
-          <t>f BY EG40_1*0.512 (a_219);</t>
+          <t>!Constrain all to EG40_1.</t>
         </is>
       </c>
     </row>
     <row r="1043">
       <c r="A1043" t="inlineStr">
         <is>
-          <t>[EG40_1$1*-0.573] (t1_219);</t>
+          <t>f BY EG40_2*0.512 (a_219);</t>
         </is>
       </c>
     </row>
     <row r="1044">
       <c r="A1044" t="inlineStr">
         <is>
-          <t>[EG40_1$2*2.368] (t2_219);</t>
+          <t>[EG40_2$1*-0.573] (t1_219);</t>
         </is>
       </c>
     </row>
     <row r="1045">
       <c r="A1045" t="inlineStr">
         <is>
-          <t>[EG40_1$3*3.71] (t3_219);</t>
+          <t>[EG40_2$2*2.368] (t2_219);</t>
         </is>
       </c>
     </row>
     <row r="1046">
       <c r="A1046" t="inlineStr">
         <is>
-          <t>[EG40_1$4*6.194] (t4_219);</t>
-        </is>
-      </c>
-    </row>
-    <row r="1048">
-      <c r="A1048" t="inlineStr">
-        <is>
-          <t>!ITEM: EG40_2 | jid = 220</t>
+          <t>[EG40_2$3*3.71] (t3_219);</t>
+        </is>
+      </c>
+    </row>
+    <row r="1047">
+      <c r="A1047" t="inlineStr">
+        <is>
+          <t>[EG40_2$4*6.194] (t4_219);</t>
         </is>
       </c>
     </row>
     <row r="1049">
       <c r="A1049" t="inlineStr">
         <is>
-          <t>!Constrain all to EG40_1.</t>
+          <t>!ITEM: EG41_1 | jid = 221</t>
         </is>
       </c>
     </row>
     <row r="1050">
       <c r="A1050" t="inlineStr">
         <is>
-          <t>f BY EG40_2*0.512 (a_219);</t>
+          <t>f BY EG41_1*0.028 (a_221);</t>
         </is>
       </c>
     </row>
     <row r="1051">
       <c r="A1051" t="inlineStr">
         <is>
-          <t>[EG40_2$1*-0.573] (t1_219);</t>
+          <t>[EG41_1$1*-4.133] (t1_221);</t>
         </is>
       </c>
     </row>
     <row r="1052">
       <c r="A1052" t="inlineStr">
         <is>
-          <t>[EG40_2$2*2.368] (t2_219);</t>
+          <t>[EG41_1$2*-1.53] (t2_221);</t>
         </is>
       </c>
     </row>
     <row r="1053">
       <c r="A1053" t="inlineStr">
         <is>
-          <t>[EG40_2$3*3.71] (t3_219);</t>
-        </is>
-      </c>
-    </row>
-    <row r="1054">
-      <c r="A1054" t="inlineStr">
-        <is>
-          <t>[EG40_2$4*6.194] (t4_219);</t>
+          <t>[EG41_1$3*1.028] (t3_221);</t>
+        </is>
+      </c>
+    </row>
+    <row r="1055">
+      <c r="A1055" t="inlineStr">
+        <is>
+          <t>!ITEM: EG41_2 | jid = 222</t>
         </is>
       </c>
     </row>
     <row r="1056">
       <c r="A1056" t="inlineStr">
         <is>
-          <t>!ITEM: EG41_1 | jid = 221</t>
+          <t>!Constrain slope to EG41_1. Constrain tau$1 to EG41_1$1. Constrain tau$4 to EG41_1$3</t>
         </is>
       </c>
     </row>
     <row r="1057">
       <c r="A1057" t="inlineStr">
         <is>
-          <t>f BY EG41_1*0.028 (a_221);</t>
+          <t>f BY EG41_2*0.028 (a_221);</t>
         </is>
       </c>
     </row>
     <row r="1058">
       <c r="A1058" t="inlineStr">
         <is>
-          <t>[EG41_1$1*-4.133] (t1_221);</t>
+          <t>[EG41_2$1*-4.133] (t1_221);</t>
         </is>
       </c>
     </row>
     <row r="1059">
       <c r="A1059" t="inlineStr">
         <is>
-          <t>[EG41_1$2*-1.53] (t2_221);</t>
+          <t>[EG41_2$2*-0.889] (t2_222);</t>
         </is>
       </c>
     </row>
     <row r="1060">
       <c r="A1060" t="inlineStr">
         <is>
-          <t>[EG41_1$3*1.028] (t3_221);</t>
-        </is>
-      </c>
-    </row>
-    <row r="1062">
-      <c r="A1062" t="inlineStr">
-        <is>
-          <t>!ITEM: EG41_2 | jid = 222</t>
+          <t>[EG41_2$3*-0.129] (t3_222);</t>
+        </is>
+      </c>
+    </row>
+    <row r="1061">
+      <c r="A1061" t="inlineStr">
+        <is>
+          <t>[EG41_2$4*1.028] (t3_221);</t>
         </is>
       </c>
     </row>
     <row r="1063">
       <c r="A1063" t="inlineStr">
         <is>
-          <t>!Constrain slope to EG41_1. Constrain tau$1 to EG41_1$1. Constrain tau$4 to EG41_1$3</t>
+          <t>!ITEM: EG42a | jid = 223</t>
         </is>
       </c>
     </row>
     <row r="1064">
       <c r="A1064" t="inlineStr">
         <is>
-          <t>f BY EG41_2*0.028 (a_221);</t>
+          <t>f BY EG42a*1.507 (a_223);</t>
         </is>
       </c>
     </row>
     <row r="1065">
       <c r="A1065" t="inlineStr">
         <is>
-          <t>[EG41_2$1*-4.133] (t1_221);</t>
+          <t>[EG42a$1*7.483] (t1_223);</t>
         </is>
       </c>
     </row>
     <row r="1066">
       <c r="A1066" t="inlineStr">
         <is>
-          <t>[EG41_2$2*-0.889] (t2_222);</t>
+          <t>[EG42a$2*8.645] (t2_223);</t>
         </is>
       </c>
     </row>
     <row r="1067">
       <c r="A1067" t="inlineStr">
         <is>
-          <t>[EG41_2$3*-0.129] (t3_222);</t>
-        </is>
-      </c>
-    </row>
-    <row r="1068">
-      <c r="A1068" t="inlineStr">
-        <is>
-          <t>[EG41_2$4*1.028] (t3_221);</t>
+          <t>[EG42a$3*11.414] (t3_223);</t>
+        </is>
+      </c>
+    </row>
+    <row r="1069">
+      <c r="A1069" t="inlineStr">
+        <is>
+          <t>!ITEM: EG42b | jid = 224</t>
         </is>
       </c>
     </row>
     <row r="1070">
       <c r="A1070" t="inlineStr">
         <is>
-          <t>!ITEM: EG42a | jid = 223</t>
+          <t>!Constrain slope to EG42a. Constrain tau$1 to be a simplex between EG42a$1 and EG42a$3.</t>
         </is>
       </c>
     </row>
     <row r="1071">
       <c r="A1071" t="inlineStr">
         <is>
-          <t>f BY EG42a*1.507 (a_223);</t>
+          <t>f BY EG42b*1.507 (a_223);</t>
         </is>
       </c>
     </row>
     <row r="1072">
       <c r="A1072" t="inlineStr">
         <is>
-          <t>[EG42a$1*7.483] (t1_223);</t>
-        </is>
-      </c>
-    </row>
-    <row r="1073">
-      <c r="A1073" t="inlineStr">
-        <is>
-          <t>[EG42a$2*8.645] (t2_223);</t>
+          <t>[EG42b$1*8.112] (t1_224);</t>
         </is>
       </c>
     </row>
     <row r="1074">
       <c r="A1074" t="inlineStr">
         <is>
-          <t>[EG42a$3*11.414] (t3_223);</t>
+          <t>!ITEM: EG42c | jid = 225</t>
+        </is>
+      </c>
+    </row>
+    <row r="1075">
+      <c r="A1075" t="inlineStr">
+        <is>
+          <t>!Constrain slope to EG42a. Constrain tau$1 to be equal to EG42a$1. Constrain tau$4 to be equal to EG42a$3.</t>
         </is>
       </c>
     </row>
     <row r="1076">
       <c r="A1076" t="inlineStr">
         <is>
-          <t>!ITEM: EG42b | jid = 224</t>
+          <t>f BY EG42c*1.507 (a_223);</t>
         </is>
       </c>
     </row>
     <row r="1077">
       <c r="A1077" t="inlineStr">
         <is>
-          <t>!Constrain slope to EG42a. Constrain tau$1 to be a simplex between EG42a$1 and EG42a$3.</t>
+          <t>[EG42c$1*7.483] (t1_223);</t>
         </is>
       </c>
     </row>
     <row r="1078">
       <c r="A1078" t="inlineStr">
         <is>
-          <t>f BY EG42b*1.507 (a_223);</t>
+          <t>[EG42c$2*8.933] (t2_225);</t>
         </is>
       </c>
     </row>
     <row r="1079">
       <c r="A1079" t="inlineStr">
         <is>
-          <t>[EG42b$1*8.112] (t1_224);</t>
-        </is>
-      </c>
-    </row>
-    <row r="1081">
-      <c r="A1081" t="inlineStr">
-        <is>
-          <t>!ITEM: EG42c | jid = 225</t>
+          <t>[EG42c$3*9.76] (t3_225);</t>
+        </is>
+      </c>
+    </row>
+    <row r="1080">
+      <c r="A1080" t="inlineStr">
+        <is>
+          <t>[EG42c$4*11.414] (t3_223);</t>
         </is>
       </c>
     </row>
     <row r="1082">
       <c r="A1082" t="inlineStr">
         <is>
-          <t>!Constrain slope to EG42a. Constrain tau$1 to be equal to EG42a$1. Constrain tau$4 to be equal to EG42a$3.</t>
+          <t>!ITEM: EG43a_1 | jid = 226</t>
         </is>
       </c>
     </row>
     <row r="1083">
       <c r="A1083" t="inlineStr">
         <is>
-          <t>f BY EG42c*1.507 (a_223);</t>
+          <t>f BY EG43a_1*1.319 (a_226);</t>
         </is>
       </c>
     </row>
     <row r="1084">
       <c r="A1084" t="inlineStr">
         <is>
-          <t>[EG42c$1*7.483] (t1_223);</t>
+          <t>[EG43a_1$1*3.5] (t1_226);</t>
         </is>
       </c>
     </row>
     <row r="1085">
       <c r="A1085" t="inlineStr">
         <is>
-          <t>[EG42c$2*8.933] (t2_225);</t>
+          <t>[EG43a_1$2*5.186] (t2_226);</t>
         </is>
       </c>
     </row>
     <row r="1086">
       <c r="A1086" t="inlineStr">
         <is>
-          <t>[EG42c$3*9.76] (t3_225);</t>
+          <t>[EG43a_1$3*5.983] (t3_226);</t>
         </is>
       </c>
     </row>
     <row r="1087">
       <c r="A1087" t="inlineStr">
         <is>
-          <t>[EG42c$4*11.414] (t3_223);</t>
+          <t>[EG43a_1$4*8.459] (t4_226);</t>
         </is>
       </c>
     </row>
     <row r="1089">
       <c r="A1089" t="inlineStr">
         <is>
-          <t>!ITEM: EG43a_1 | jid = 226</t>
+          <t>!ITEM: EG43a_2 | jid = 227</t>
         </is>
       </c>
     </row>
     <row r="1090">
       <c r="A1090" t="inlineStr">
         <is>
-          <t>f BY EG43a_1*1.319 (a_226);</t>
+          <t>!Constrain all to EG43a_1.</t>
         </is>
       </c>
     </row>
     <row r="1091">
       <c r="A1091" t="inlineStr">
         <is>
-          <t>[EG43a_1$1*3.5] (t1_226);</t>
+          <t>f BY EG43a_2*1.319 (a_226);</t>
         </is>
       </c>
     </row>
     <row r="1092">
       <c r="A1092" t="inlineStr">
         <is>
-          <t>[EG43a_1$2*5.186] (t2_226);</t>
+          <t>[EG43a_2$1*3.5] (t1_226);</t>
         </is>
       </c>
     </row>
     <row r="1093">
       <c r="A1093" t="inlineStr">
         <is>
-          <t>[EG43a_1$3*5.983] (t3_226);</t>
+          <t>[EG43a_2$2*5.186] (t2_226);</t>
         </is>
       </c>
     </row>
     <row r="1094">
       <c r="A1094" t="inlineStr">
         <is>
-          <t>[EG43a_1$4*8.459] (t4_226);</t>
-        </is>
-      </c>
-    </row>
-    <row r="1096">
-      <c r="A1096" t="inlineStr">
-        <is>
-          <t>!ITEM: EG43a_2 | jid = 227</t>
+          <t>[EG43a_2$3*5.983] (t3_226);</t>
+        </is>
+      </c>
+    </row>
+    <row r="1095">
+      <c r="A1095" t="inlineStr">
+        <is>
+          <t>[EG43a_2$4*8.459] (t4_226);</t>
         </is>
       </c>
     </row>
     <row r="1097">
       <c r="A1097" t="inlineStr">
         <is>
-          <t>!Constrain all to EG43a_1.</t>
+          <t>!ITEM: EG43b | jid = 228</t>
         </is>
       </c>
     </row>
     <row r="1098">
       <c r="A1098" t="inlineStr">
         <is>
-          <t>f BY EG43a_2*1.319 (a_226);</t>
+          <t>!Constrain slope to EG42a.</t>
         </is>
       </c>
     </row>
     <row r="1099">
       <c r="A1099" t="inlineStr">
         <is>
-          <t>[EG43a_2$1*3.5] (t1_226);</t>
+          <t>f BY EG43b*1.507 (a_223);</t>
         </is>
       </c>
     </row>
     <row r="1100">
       <c r="A1100" t="inlineStr">
         <is>
-          <t>[EG43a_2$2*5.186] (t2_226);</t>
-        </is>
-      </c>
-    </row>
-    <row r="1101">
-      <c r="A1101" t="inlineStr">
-        <is>
-          <t>[EG43a_2$3*5.983] (t3_226);</t>
+          <t>[EG43b$1*6.935] (t1_228);</t>
         </is>
       </c>
     </row>
     <row r="1102">
       <c r="A1102" t="inlineStr">
         <is>
-          <t>[EG43a_2$4*8.459] (t4_226);</t>
+          <t>!ITEM: EG44_1 | jid = 229</t>
+        </is>
+      </c>
+    </row>
+    <row r="1103">
+      <c r="A1103" t="inlineStr">
+        <is>
+          <t>f BY EG44_1*1.211 (a_229);</t>
         </is>
       </c>
     </row>
     <row r="1104">
       <c r="A1104" t="inlineStr">
         <is>
-          <t>!ITEM: EG43b | jid = 228</t>
-        </is>
-      </c>
-    </row>
-    <row r="1105">
-      <c r="A1105" t="inlineStr">
-        <is>
-          <t>!Constrain slope to EG42a.</t>
+          <t>[EG44_1$1*2.623] (t1_229);</t>
         </is>
       </c>
     </row>
     <row r="1106">
       <c r="A1106" t="inlineStr">
         <is>
-          <t>f BY EG43b*1.507 (a_223);</t>
+          <t>!ITEM: EG44_2 | jid = 230</t>
         </is>
       </c>
     </row>
     <row r="1107">
       <c r="A1107" t="inlineStr">
         <is>
-          <t>[EG43b$1*6.935] (t1_228);</t>
+          <t>!Constrain all to EG44_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1108">
+      <c r="A1108" t="inlineStr">
+        <is>
+          <t>f BY EG44_2*1.211 (a_229);</t>
         </is>
       </c>
     </row>
     <row r="1109">
       <c r="A1109" t="inlineStr">
         <is>
-          <t>!ITEM: EG44_1 | jid = 229</t>
-        </is>
-      </c>
-    </row>
-    <row r="1110">
-      <c r="A1110" t="inlineStr">
-        <is>
-          <t>f BY EG44_1*1.211 (a_229);</t>
+          <t>[EG44_2$1*2.623] (t1_229);</t>
         </is>
       </c>
     </row>
     <row r="1111">
       <c r="A1111" t="inlineStr">
         <is>
-          <t>[EG44_1$1*2.623] (t1_229);</t>
+          <t>!ITEM: EG45_1 | jid = 231</t>
+        </is>
+      </c>
+    </row>
+    <row r="1112">
+      <c r="A1112" t="inlineStr">
+        <is>
+          <t>f BY EG45_1*1.516 (a_231);</t>
         </is>
       </c>
     </row>
     <row r="1113">
       <c r="A1113" t="inlineStr">
         <is>
-          <t>!ITEM: EG44_2 | jid = 230</t>
+          <t>[EG45_1$1*6.1] (t1_231);</t>
         </is>
       </c>
     </row>
     <row r="1114">
       <c r="A1114" t="inlineStr">
         <is>
-          <t>!Constrain all to EG44_1</t>
+          <t>[EG45_1$2*7.955] (t2_231);</t>
         </is>
       </c>
     </row>
     <row r="1115">
       <c r="A1115" t="inlineStr">
         <is>
-          <t>f BY EG44_2*1.211 (a_229);</t>
+          <t>[EG45_1$3*8.713] (t3_231);</t>
         </is>
       </c>
     </row>
     <row r="1116">
       <c r="A1116" t="inlineStr">
         <is>
-          <t>[EG44_2$1*2.623] (t1_229);</t>
+          <t>[EG45_1$4*10.718] (t4_231);</t>
         </is>
       </c>
     </row>
     <row r="1118">
       <c r="A1118" t="inlineStr">
         <is>
-          <t>!ITEM: EG45_1 | jid = 231</t>
+          <t>!ITEM: EG45_2 | jid = 232</t>
         </is>
       </c>
     </row>
     <row r="1119">
       <c r="A1119" t="inlineStr">
         <is>
-          <t>f BY EG45_1*1.516 (a_231);</t>
+          <t>!Constrain all to EG45_1</t>
         </is>
       </c>
     </row>
     <row r="1120">
       <c r="A1120" t="inlineStr">
         <is>
-          <t>[EG45_1$1*6.1] (t1_231);</t>
+          <t>f BY EG45_2*1.516 (a_231);</t>
         </is>
       </c>
     </row>
     <row r="1121">
       <c r="A1121" t="inlineStr">
         <is>
-          <t>[EG45_1$2*7.955] (t2_231);</t>
+          <t>[EG45_2$1*6.1] (t1_231);</t>
         </is>
       </c>
     </row>
     <row r="1122">
       <c r="A1122" t="inlineStr">
         <is>
-          <t>[EG45_1$3*8.713] (t3_231);</t>
+          <t>[EG45_2$2*7.955] (t2_231);</t>
         </is>
       </c>
     </row>
     <row r="1123">
       <c r="A1123" t="inlineStr">
         <is>
-          <t>[EG45_1$4*10.718] (t4_231);</t>
-        </is>
-      </c>
-    </row>
-    <row r="1125">
-      <c r="A1125" t="inlineStr">
-        <is>
-          <t>!ITEM: EG45_2 | jid = 232</t>
+          <t>[EG45_2$3*8.713] (t3_231);</t>
+        </is>
+      </c>
+    </row>
+    <row r="1124">
+      <c r="A1124" t="inlineStr">
+        <is>
+          <t>[EG45_2$4*10.718] (t4_231);</t>
         </is>
       </c>
     </row>
     <row r="1126">
       <c r="A1126" t="inlineStr">
         <is>
-          <t>!Constrain all to EG45_1</t>
+          <t>!ITEM: EG46a_1 | jid = 233</t>
         </is>
       </c>
     </row>
     <row r="1127">
       <c r="A1127" t="inlineStr">
         <is>
-          <t>f BY EG45_2*1.516 (a_231);</t>
+          <t>f BY EG46a_1*1.855 (a_233);</t>
         </is>
       </c>
     </row>
     <row r="1128">
       <c r="A1128" t="inlineStr">
         <is>
-          <t>[EG45_2$1*6.1] (t1_231);</t>
-        </is>
-      </c>
-    </row>
-    <row r="1129">
-      <c r="A1129" t="inlineStr">
-        <is>
-          <t>[EG45_2$2*7.955] (t2_231);</t>
+          <t>[EG46a_1$1*-3.643] (t1_233);</t>
         </is>
       </c>
     </row>
     <row r="1130">
       <c r="A1130" t="inlineStr">
         <is>
-          <t>[EG45_2$3*8.713] (t3_231);</t>
+          <t>!ITEM: EG46a_2 | jid = 234</t>
         </is>
       </c>
     </row>
     <row r="1131">
       <c r="A1131" t="inlineStr">
         <is>
-          <t>[EG45_2$4*10.718] (t4_231);</t>
+          <t>!Constrain all to EG46a_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1132">
+      <c r="A1132" t="inlineStr">
+        <is>
+          <t>f BY EG46a_2*1.855 (a_233);</t>
         </is>
       </c>
     </row>
     <row r="1133">
       <c r="A1133" t="inlineStr">
         <is>
-          <t>!ITEM: EG46a_1 | jid = 233</t>
-        </is>
-      </c>
-    </row>
-    <row r="1134">
-      <c r="A1134" t="inlineStr">
-        <is>
-          <t>f BY EG46a_1*1.855 (a_233);</t>
+          <t>[EG46a_2$1*-3.643] (t1_233);</t>
         </is>
       </c>
     </row>
     <row r="1135">
       <c r="A1135" t="inlineStr">
         <is>
-          <t>[EG46a_1$1*-3.643] (t1_233);</t>
+          <t>!ITEM: EG46b | jid = 235</t>
+        </is>
+      </c>
+    </row>
+    <row r="1136">
+      <c r="A1136" t="inlineStr">
+        <is>
+          <t>!Constrain slope to EG46a_1. Constrain tau$1 to be less than EG46c$1.</t>
         </is>
       </c>
     </row>
     <row r="1137">
       <c r="A1137" t="inlineStr">
         <is>
-          <t>!ITEM: EG46a_2 | jid = 234</t>
+          <t>f BY EG46b*1.855 (a_233);</t>
         </is>
       </c>
     </row>
     <row r="1138">
       <c r="A1138" t="inlineStr">
         <is>
-          <t>!Constrain all to EG46a_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1139">
-      <c r="A1139" t="inlineStr">
-        <is>
-          <t>f BY EG46a_2*1.855 (a_233);</t>
+          <t>[EG46b$1*-8.037] (t1_235);</t>
         </is>
       </c>
     </row>
     <row r="1140">
       <c r="A1140" t="inlineStr">
         <is>
-          <t>[EG46a_2$1*-3.643] (t1_233);</t>
+          <t>!ITEM: EG46c | jid = 236</t>
+        </is>
+      </c>
+    </row>
+    <row r="1141">
+      <c r="A1141" t="inlineStr">
+        <is>
+          <t>!Constrain slope to EG46a_1.</t>
         </is>
       </c>
     </row>
     <row r="1142">
       <c r="A1142" t="inlineStr">
         <is>
-          <t>!ITEM: EG46b | jid = 235</t>
+          <t>f BY EG46c*1.855 (a_233);</t>
         </is>
       </c>
     </row>
     <row r="1143">
       <c r="A1143" t="inlineStr">
         <is>
-          <t>!Constrain slope to EG46a_1. Constrain tau$1 to be less than EG46c$1.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1144">
-      <c r="A1144" t="inlineStr">
-        <is>
-          <t>f BY EG46b*1.855 (a_233);</t>
+          <t>[EG46c$1*-4.224] (t1_236);</t>
         </is>
       </c>
     </row>
     <row r="1145">
       <c r="A1145" t="inlineStr">
         <is>
-          <t>[EG46b$1*-8.037] (t1_235);</t>
+          <t>!ITEM: EG46d | jid = 237</t>
+        </is>
+      </c>
+    </row>
+    <row r="1146">
+      <c r="A1146" t="inlineStr">
+        <is>
+          <t>!Constrain slope to EG46a_1. Constrain tau$1 to be less than EG46c$1.</t>
         </is>
       </c>
     </row>
     <row r="1147">
       <c r="A1147" t="inlineStr">
         <is>
-          <t>!ITEM: EG46c | jid = 236</t>
+          <t>f BY EG46d*1.855 (a_233);</t>
         </is>
       </c>
     </row>
     <row r="1148">
       <c r="A1148" t="inlineStr">
         <is>
-          <t>!Constrain slope to EG46a_1.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1149">
-      <c r="A1149" t="inlineStr">
-        <is>
-          <t>f BY EG46c*1.855 (a_233);</t>
+          <t>[EG46d$1*-4.534] (t1_237);</t>
         </is>
       </c>
     </row>
     <row r="1150">
       <c r="A1150" t="inlineStr">
         <is>
-          <t>[EG46c$1*-4.224] (t1_236);</t>
+          <t>!ITEM: EG47a | jid = 238</t>
+        </is>
+      </c>
+    </row>
+    <row r="1151">
+      <c r="A1151" t="inlineStr">
+        <is>
+          <t>f BY EG47a*3.418 (a_238);</t>
         </is>
       </c>
     </row>
     <row r="1152">
       <c r="A1152" t="inlineStr">
         <is>
-          <t>!ITEM: EG46d | jid = 237</t>
-        </is>
-      </c>
-    </row>
-    <row r="1153">
-      <c r="A1153" t="inlineStr">
-        <is>
-          <t>!Constrain slope to EG46a_1. Constrain tau$1 to be less than EG46c$1.</t>
+          <t>[EG47a$1*-0.077] (t1_238);</t>
         </is>
       </c>
     </row>
     <row r="1154">
       <c r="A1154" t="inlineStr">
         <is>
-          <t>f BY EG46d*1.855 (a_233);</t>
+          <t>!ITEM: EG47b | jid = 239</t>
         </is>
       </c>
     </row>
     <row r="1155">
       <c r="A1155" t="inlineStr">
         <is>
-          <t>[EG46d$1*-4.534] (t1_237);</t>
+          <t>!Constrain slope to EG47a. Constrain tau$1 to be less than EG47a$1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1156">
+      <c r="A1156" t="inlineStr">
+        <is>
+          <t>f BY EG47b*3.418 (a_238);</t>
         </is>
       </c>
     </row>
     <row r="1157">
       <c r="A1157" t="inlineStr">
         <is>
-          <t>!ITEM: EG47a | jid = 238</t>
-        </is>
-      </c>
-    </row>
-    <row r="1158">
-      <c r="A1158" t="inlineStr">
-        <is>
-          <t>f BY EG47a*3.418 (a_238);</t>
+          <t>[EG47b$1*-4.047] (t1_239);</t>
         </is>
       </c>
     </row>
     <row r="1159">
       <c r="A1159" t="inlineStr">
         <is>
-          <t>[EG47a$1*-0.077] (t1_238);</t>
+          <t>!ITEM: EG48_1 | jid = 240</t>
+        </is>
+      </c>
+    </row>
+    <row r="1160">
+      <c r="A1160" t="inlineStr">
+        <is>
+          <t>f BY EG48_1*1.244 (a_240);</t>
         </is>
       </c>
     </row>
     <row r="1161">
       <c r="A1161" t="inlineStr">
         <is>
-          <t>!ITEM: EG47b | jid = 239</t>
-        </is>
-      </c>
-    </row>
-    <row r="1162">
-      <c r="A1162" t="inlineStr">
-        <is>
-          <t>!Constrain slope to EG47a. Constrain tau$1 to be less than EG47a$1.</t>
+          <t>[EG48_1$1*3.382] (t1_240);</t>
         </is>
       </c>
     </row>
     <row r="1163">
       <c r="A1163" t="inlineStr">
         <is>
-          <t>f BY EG47b*3.418 (a_238);</t>
+          <t>!ITEM: EG48_2 | jid = 241</t>
         </is>
       </c>
     </row>
     <row r="1164">
       <c r="A1164" t="inlineStr">
         <is>
-          <t>[EG47b$1*-4.047] (t1_239);</t>
+          <t>!Constrain all to EG48_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1165">
+      <c r="A1165" t="inlineStr">
+        <is>
+          <t>f BY EG48_2*1.244 (a_240);</t>
         </is>
       </c>
     </row>
     <row r="1166">
       <c r="A1166" t="inlineStr">
         <is>
-          <t>!ITEM: EG48_1 | jid = 240</t>
-        </is>
-      </c>
-    </row>
-    <row r="1167">
-      <c r="A1167" t="inlineStr">
-        <is>
-          <t>f BY EG48_1*1.244 (a_240);</t>
+          <t>[EG48_2$1*3.382] (t1_240);</t>
         </is>
       </c>
     </row>
     <row r="1168">
       <c r="A1168" t="inlineStr">
         <is>
-          <t>[EG48_1$1*3.382] (t1_240);</t>
+          <t>!ITEM: EG49_1 | jid = 242</t>
+        </is>
+      </c>
+    </row>
+    <row r="1169">
+      <c r="A1169" t="inlineStr">
+        <is>
+          <t>f BY EG49_1*1.459 (a_242);</t>
         </is>
       </c>
     </row>
     <row r="1170">
       <c r="A1170" t="inlineStr">
         <is>
-          <t>!ITEM: EG48_2 | jid = 241</t>
-        </is>
-      </c>
-    </row>
-    <row r="1171">
-      <c r="A1171" t="inlineStr">
-        <is>
-          <t>!Constrain all to EG48_1</t>
+          <t>[EG49_1$1*-7.709] (t1_242);</t>
         </is>
       </c>
     </row>
     <row r="1172">
       <c r="A1172" t="inlineStr">
         <is>
-          <t>f BY EG48_2*1.244 (a_240);</t>
+          <t>!ITEM: EG49_2 | jid = 243</t>
         </is>
       </c>
     </row>
     <row r="1173">
       <c r="A1173" t="inlineStr">
         <is>
-          <t>[EG48_2$1*3.382] (t1_240);</t>
+          <t>!Constrain all to EG49_1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1174">
+      <c r="A1174" t="inlineStr">
+        <is>
+          <t>f BY EG49_2*1.459 (a_242);</t>
         </is>
       </c>
     </row>
     <row r="1175">
       <c r="A1175" t="inlineStr">
         <is>
-          <t>!ITEM: EG49_1 | jid = 242</t>
-        </is>
-      </c>
-    </row>
-    <row r="1176">
-      <c r="A1176" t="inlineStr">
-        <is>
-          <t>f BY EG49_1*1.459 (a_242);</t>
+          <t>[EG49_2$1*-7.709] (t1_242);</t>
         </is>
       </c>
     </row>
     <row r="1177">
       <c r="A1177" t="inlineStr">
         <is>
-          <t>[EG49_1$1*-7.709] (t1_242);</t>
+          <t>!ITEM: EG4a_1 | jid = 244</t>
+        </is>
+      </c>
+    </row>
+    <row r="1178">
+      <c r="A1178" t="inlineStr">
+        <is>
+          <t>f BY EG4a_1*2.183 (a_244);</t>
         </is>
       </c>
     </row>
     <row r="1179">
       <c r="A1179" t="inlineStr">
         <is>
-          <t>!ITEM: EG49_2 | jid = 243</t>
-        </is>
-      </c>
-    </row>
-    <row r="1180">
-      <c r="A1180" t="inlineStr">
-        <is>
-          <t>!Constrain all to EG49_1.</t>
+          <t>[EG4a_1$1*7.732] (t1_244);</t>
         </is>
       </c>
     </row>
     <row r="1181">
       <c r="A1181" t="inlineStr">
         <is>
-          <t>f BY EG49_2*1.459 (a_242);</t>
+          <t>!ITEM: EG4a_2 | jid = 245</t>
         </is>
       </c>
     </row>
     <row r="1182">
       <c r="A1182" t="inlineStr">
         <is>
-          <t>[EG49_2$1*-7.709] (t1_242);</t>
+          <t>!Constrain all to EG4a_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1183">
+      <c r="A1183" t="inlineStr">
+        <is>
+          <t>f BY EG4a_2*2.183 (a_244);</t>
         </is>
       </c>
     </row>
     <row r="1184">
       <c r="A1184" t="inlineStr">
         <is>
-          <t>!ITEM: EG4a_1 | jid = 244</t>
-        </is>
-      </c>
-    </row>
-    <row r="1185">
-      <c r="A1185" t="inlineStr">
-        <is>
-          <t>f BY EG4a_1*2.183 (a_244);</t>
+          <t>[EG4a_2$1*7.732] (t1_244);</t>
         </is>
       </c>
     </row>
     <row r="1186">
       <c r="A1186" t="inlineStr">
         <is>
-          <t>[EG4a_1$1*7.732] (t1_244);</t>
+          <t>!ITEM: EG4b_1 | jid = 246</t>
+        </is>
+      </c>
+    </row>
+    <row r="1187">
+      <c r="A1187" t="inlineStr">
+        <is>
+          <t>!Constrain slope to EG4a_1</t>
         </is>
       </c>
     </row>
     <row r="1188">
       <c r="A1188" t="inlineStr">
         <is>
-          <t>!ITEM: EG4a_2 | jid = 245</t>
+          <t>f BY EG4b_1*2.183 (a_244);</t>
         </is>
       </c>
     </row>
     <row r="1189">
       <c r="A1189" t="inlineStr">
         <is>
-          <t>!Constrain all to EG4a_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1190">
-      <c r="A1190" t="inlineStr">
-        <is>
-          <t>f BY EG4a_2*2.183 (a_244);</t>
+          <t>[EG4b_1$1*8.678] (t1_246);</t>
         </is>
       </c>
     </row>
     <row r="1191">
       <c r="A1191" t="inlineStr">
         <is>
-          <t>[EG4a_2$1*7.732] (t1_244);</t>
+          <t>!ITEM: EG4b_2 | jid = 247</t>
+        </is>
+      </c>
+    </row>
+    <row r="1192">
+      <c r="A1192" t="inlineStr">
+        <is>
+          <t>!Constrain slope to EG4a_1; Constrain tau$1 to EG4b_1$1</t>
         </is>
       </c>
     </row>
     <row r="1193">
       <c r="A1193" t="inlineStr">
         <is>
-          <t>!ITEM: EG4b_1 | jid = 246</t>
+          <t>f BY EG4b_2*2.183 (a_244);</t>
         </is>
       </c>
     </row>
     <row r="1194">
       <c r="A1194" t="inlineStr">
         <is>
-          <t>!Constrain slope to EG4a_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1195">
-      <c r="A1195" t="inlineStr">
-        <is>
-          <t>f BY EG4b_1*2.183 (a_244);</t>
+          <t>[EG4b_2$1*8.678] (t1_246);</t>
         </is>
       </c>
     </row>
     <row r="1196">
       <c r="A1196" t="inlineStr">
         <is>
-          <t>[EG4b_1$1*8.678] (t1_246);</t>
+          <t>!ITEM: EG50a | jid = 248</t>
+        </is>
+      </c>
+    </row>
+    <row r="1197">
+      <c r="A1197" t="inlineStr">
+        <is>
+          <t>f BY EG50a*1.354 (a_248);</t>
         </is>
       </c>
     </row>
     <row r="1198">
       <c r="A1198" t="inlineStr">
         <is>
-          <t>!ITEM: EG4b_2 | jid = 247</t>
-        </is>
-      </c>
-    </row>
-    <row r="1199">
-      <c r="A1199" t="inlineStr">
-        <is>
-          <t>!Constrain slope to EG4a_1; Constrain tau$1 to EG4b_1$1</t>
+          <t>[EG50a$1*2.041] (t1_248);</t>
         </is>
       </c>
     </row>
     <row r="1200">
       <c r="A1200" t="inlineStr">
         <is>
-          <t>f BY EG4b_2*2.183 (a_244);</t>
+          <t>!ITEM: EG50b | jid = 249</t>
         </is>
       </c>
     </row>
     <row r="1201">
       <c r="A1201" t="inlineStr">
         <is>
-          <t>[EG4b_2$1*8.678] (t1_246);</t>
+          <t>!Constrain slope to EG50a. Constrain tau$1 to be greater than EG50a$1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1202">
+      <c r="A1202" t="inlineStr">
+        <is>
+          <t>f BY EG50b*1.354 (a_248);</t>
         </is>
       </c>
     </row>
     <row r="1203">
       <c r="A1203" t="inlineStr">
         <is>
-          <t>!ITEM: EG50a | jid = 248</t>
-        </is>
-      </c>
-    </row>
-    <row r="1204">
-      <c r="A1204" t="inlineStr">
-        <is>
-          <t>f BY EG50a*1.354 (a_248);</t>
+          <t>[EG50b$1*2.748] (t1_249);</t>
         </is>
       </c>
     </row>
     <row r="1205">
       <c r="A1205" t="inlineStr">
         <is>
-          <t>[EG50a$1*2.041] (t1_248);</t>
+          <t>!ITEM: EG5a | jid = 250</t>
+        </is>
+      </c>
+    </row>
+    <row r="1206">
+      <c r="A1206" t="inlineStr">
+        <is>
+          <t>f BY EG5a*1.093 (a_250);</t>
         </is>
       </c>
     </row>
     <row r="1207">
       <c r="A1207" t="inlineStr">
         <is>
-          <t>!ITEM: EG50b | jid = 249</t>
+          <t>[EG5a$1*1.32] (t1_250);</t>
         </is>
       </c>
     </row>
     <row r="1208">
       <c r="A1208" t="inlineStr">
         <is>
-          <t>!Constrain slope to EG50a. Constrain tau$1 to be greater than EG50a$1</t>
+          <t>[EG5a$2*3.969] (t2_250);</t>
         </is>
       </c>
     </row>
     <row r="1209">
       <c r="A1209" t="inlineStr">
         <is>
-          <t>f BY EG50b*1.354 (a_248);</t>
+          <t>[EG5a$3*5.133] (t3_250);</t>
         </is>
       </c>
     </row>
     <row r="1210">
       <c r="A1210" t="inlineStr">
         <is>
-          <t>[EG50b$1*2.748] (t1_249);</t>
+          <t>[EG5a$4*7.872] (t4_250);</t>
         </is>
       </c>
     </row>
     <row r="1212">
       <c r="A1212" t="inlineStr">
         <is>
-          <t>!ITEM: EG5a | jid = 250</t>
+          <t>!ITEM: EG5b | jid = 251</t>
         </is>
       </c>
     </row>
     <row r="1213">
       <c r="A1213" t="inlineStr">
         <is>
-          <t>f BY EG5a*1.093 (a_250);</t>
+          <t>!Constrain slope to EG5a</t>
         </is>
       </c>
     </row>
     <row r="1214">
       <c r="A1214" t="inlineStr">
         <is>
-          <t>[EG5a$1*1.32] (t1_250);</t>
+          <t>f BY EG5b*1.093 (a_250);</t>
         </is>
       </c>
     </row>
     <row r="1215">
       <c r="A1215" t="inlineStr">
         <is>
-          <t>[EG5a$2*3.969] (t2_250);</t>
-        </is>
-      </c>
-    </row>
-    <row r="1216">
-      <c r="A1216" t="inlineStr">
-        <is>
-          <t>[EG5a$3*5.133] (t3_250);</t>
+          <t>[EG5b$1*3.563] (t1_251);</t>
         </is>
       </c>
     </row>
     <row r="1217">
       <c r="A1217" t="inlineStr">
         <is>
-          <t>[EG5a$4*7.872] (t4_250);</t>
+          <t>!ITEM: EG6_1 | jid = 252</t>
+        </is>
+      </c>
+    </row>
+    <row r="1218">
+      <c r="A1218" t="inlineStr">
+        <is>
+          <t>f BY EG6_1*0.72 (a_252);</t>
         </is>
       </c>
     </row>
     <row r="1219">
       <c r="A1219" t="inlineStr">
         <is>
-          <t>!ITEM: EG5b | jid = 251</t>
-        </is>
-      </c>
-    </row>
-    <row r="1220">
-      <c r="A1220" t="inlineStr">
-        <is>
-          <t>!Constrain slope to EG5a</t>
+          <t>[EG6_1$1*1.657] (t1_252);</t>
         </is>
       </c>
     </row>
     <row r="1221">
       <c r="A1221" t="inlineStr">
         <is>
-          <t>f BY EG5b*1.093 (a_250);</t>
+          <t>!ITEM: EG6_2 | jid = 253</t>
         </is>
       </c>
     </row>
     <row r="1222">
       <c r="A1222" t="inlineStr">
         <is>
-          <t>[EG5b$1*3.563] (t1_251);</t>
+          <t>!Constrain all to EG6_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1223">
+      <c r="A1223" t="inlineStr">
+        <is>
+          <t>f BY EG6_2*0.72 (a_252);</t>
         </is>
       </c>
     </row>
     <row r="1224">
       <c r="A1224" t="inlineStr">
         <is>
-          <t>!ITEM: EG6_1 | jid = 252</t>
-        </is>
-      </c>
-    </row>
-    <row r="1225">
-      <c r="A1225" t="inlineStr">
-        <is>
-          <t>f BY EG6_1*0.72 (a_252);</t>
+          <t>[EG6_2$1*1.657] (t1_252);</t>
         </is>
       </c>
     </row>
     <row r="1226">
       <c r="A1226" t="inlineStr">
         <is>
-          <t>[EG6_1$1*1.657] (t1_252);</t>
+          <t>!ITEM: EG7_1 | jid = 254</t>
+        </is>
+      </c>
+    </row>
+    <row r="1227">
+      <c r="A1227" t="inlineStr">
+        <is>
+          <t>f BY EG7_1*0.972 (a_254);</t>
         </is>
       </c>
     </row>
     <row r="1228">
       <c r="A1228" t="inlineStr">
         <is>
-          <t>!ITEM: EG6_2 | jid = 253</t>
-        </is>
-      </c>
-    </row>
-    <row r="1229">
-      <c r="A1229" t="inlineStr">
-        <is>
-          <t>!Constrain all to EG6_1</t>
+          <t>[EG7_1$1*-6.48] (t1_254);</t>
         </is>
       </c>
     </row>
     <row r="1230">
       <c r="A1230" t="inlineStr">
         <is>
-          <t>f BY EG6_2*0.72 (a_252);</t>
+          <t>!ITEM: EG7_2 | jid = 255</t>
         </is>
       </c>
     </row>
     <row r="1231">
       <c r="A1231" t="inlineStr">
         <is>
-          <t>[EG6_2$1*1.657] (t1_252);</t>
+          <t>!Constrain all to EG7_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1232">
+      <c r="A1232" t="inlineStr">
+        <is>
+          <t>f BY EG7_2*0.972 (a_254);</t>
         </is>
       </c>
     </row>
     <row r="1233">
       <c r="A1233" t="inlineStr">
         <is>
-          <t>!ITEM: EG7_1 | jid = 254</t>
-        </is>
-      </c>
-    </row>
-    <row r="1234">
-      <c r="A1234" t="inlineStr">
-        <is>
-          <t>f BY EG7_1*0.972 (a_254);</t>
+          <t>[EG7_2$1*-6.48] (t1_254);</t>
         </is>
       </c>
     </row>
     <row r="1235">
       <c r="A1235" t="inlineStr">
         <is>
-          <t>[EG7_1$1*-6.48] (t1_254);</t>
+          <t>!ITEM: EG8_1 | jid = 256</t>
+        </is>
+      </c>
+    </row>
+    <row r="1236">
+      <c r="A1236" t="inlineStr">
+        <is>
+          <t>f BY EG8_1*1.055 (a_256);</t>
         </is>
       </c>
     </row>
     <row r="1237">
       <c r="A1237" t="inlineStr">
         <is>
-          <t>!ITEM: EG7_2 | jid = 255</t>
-        </is>
-      </c>
-    </row>
-    <row r="1238">
-      <c r="A1238" t="inlineStr">
-        <is>
-          <t>!Constrain all to EG7_1</t>
+          <t>[EG8_1$1*-5.38] (t1_256);</t>
         </is>
       </c>
     </row>
     <row r="1239">
       <c r="A1239" t="inlineStr">
         <is>
-          <t>f BY EG7_2*0.972 (a_254);</t>
+          <t>!ITEM: EG8_2 | jid = 257</t>
         </is>
       </c>
     </row>
     <row r="1240">
       <c r="A1240" t="inlineStr">
         <is>
-          <t>[EG7_2$1*-6.48] (t1_254);</t>
+          <t>!Constrain all to EG8_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1241">
+      <c r="A1241" t="inlineStr">
+        <is>
+          <t>f BY EG8_2*1.055 (a_256);</t>
         </is>
       </c>
     </row>
     <row r="1242">
       <c r="A1242" t="inlineStr">
         <is>
-          <t>!ITEM: EG8_1 | jid = 256</t>
-        </is>
-      </c>
-    </row>
-    <row r="1243">
-      <c r="A1243" t="inlineStr">
-        <is>
-          <t>f BY EG8_1*1.055 (a_256);</t>
+          <t>[EG8_2$1*-5.38] (t1_256);</t>
         </is>
       </c>
     </row>
     <row r="1244">
       <c r="A1244" t="inlineStr">
         <is>
-          <t>[EG8_1$1*-5.38] (t1_256);</t>
+          <t>!ITEM: EG9a | jid = 258</t>
+        </is>
+      </c>
+    </row>
+    <row r="1245">
+      <c r="A1245" t="inlineStr">
+        <is>
+          <t>f BY EG9a*0.745 (a_258);</t>
         </is>
       </c>
     </row>
     <row r="1246">
       <c r="A1246" t="inlineStr">
         <is>
-          <t>!ITEM: EG8_2 | jid = 257</t>
-        </is>
-      </c>
-    </row>
-    <row r="1247">
-      <c r="A1247" t="inlineStr">
-        <is>
-          <t>!Constrain all to EG8_1</t>
+          <t>[EG9a$1*-0.635] (t1_258);</t>
         </is>
       </c>
     </row>
     <row r="1248">
       <c r="A1248" t="inlineStr">
         <is>
-          <t>f BY EG8_2*1.055 (a_256);</t>
+          <t>!ITEM: EG9b | jid = 259</t>
         </is>
       </c>
     </row>
     <row r="1249">
       <c r="A1249" t="inlineStr">
         <is>
-          <t>[EG8_2$1*-5.38] (t1_256);</t>
+          <t>!Constrain slope to EG9a</t>
+        </is>
+      </c>
+    </row>
+    <row r="1250">
+      <c r="A1250" t="inlineStr">
+        <is>
+          <t>f BY EG9b*0.745 (a_258);</t>
         </is>
       </c>
     </row>
     <row r="1251">
       <c r="A1251" t="inlineStr">
         <is>
-          <t>!ITEM: EG9a | jid = 258</t>
-        </is>
-      </c>
-    </row>
-    <row r="1252">
-      <c r="A1252" t="inlineStr">
-        <is>
-          <t>f BY EG9a*0.745 (a_258);</t>
+          <t>[EG9b$1*-0.634] (t1_259);</t>
         </is>
       </c>
     </row>
     <row r="1253">
       <c r="A1253" t="inlineStr">
         <is>
-          <t>[EG9a$1*-0.635] (t1_258);</t>
+          <t>!ITEM: NOM044 | jid = 261</t>
+        </is>
+      </c>
+    </row>
+    <row r="1254">
+      <c r="A1254" t="inlineStr">
+        <is>
+          <t>f BY NOM044* (a_261);</t>
         </is>
       </c>
     </row>
     <row r="1255">
       <c r="A1255" t="inlineStr">
         <is>
-          <t>!ITEM: EG9b | jid = 259</t>
-        </is>
-      </c>
-    </row>
-    <row r="1256">
-      <c r="A1256" t="inlineStr">
-        <is>
-          <t>!Constrain slope to EG9a</t>
+          <t>[NOM044$1*] (t1_261);</t>
         </is>
       </c>
     </row>
     <row r="1257">
       <c r="A1257" t="inlineStr">
         <is>
-          <t>f BY EG9b*0.745 (a_258);</t>
+          <t>!ITEM: NOM046X | jid = 263</t>
         </is>
       </c>
     </row>
     <row r="1258">
       <c r="A1258" t="inlineStr">
         <is>
-          <t>[EG9b$1*-0.634] (t1_259);</t>
+          <t>f BY NOM046X* (a_263);</t>
+        </is>
+      </c>
+    </row>
+    <row r="1259">
+      <c r="A1259" t="inlineStr">
+        <is>
+          <t>[NOM046X$1*] (t1_263);</t>
         </is>
       </c>
     </row>
     <row r="1260">
       <c r="A1260" t="inlineStr">
         <is>
-          <t>!ITEM: NOM044 | jid = 261</t>
+          <t>[NOM046X$2*] (t2_263);</t>
         </is>
       </c>
     </row>
     <row r="1261">
       <c r="A1261" t="inlineStr">
         <is>
-          <t>f BY NOM044* (a_261);</t>
+          <t>[NOM046X$3*] (t3_263);</t>
         </is>
       </c>
     </row>
     <row r="1262">
       <c r="A1262" t="inlineStr">
         <is>
-          <t>[NOM044$1*] (t1_261);</t>
-        </is>
-      </c>
-    </row>
-    <row r="1264">
-      <c r="A1264" t="inlineStr">
-        <is>
-          <t>!ITEM: NOM046X | jid = 263</t>
-        </is>
-      </c>
-    </row>
-    <row r="1265">
-      <c r="A1265" t="inlineStr">
-        <is>
-          <t>f BY NOM046X* (a_263);</t>
-        </is>
-      </c>
-    </row>
-    <row r="1266">
-      <c r="A1266" t="inlineStr">
-        <is>
-          <t>[NOM046X$1*] (t1_263);</t>
-        </is>
-      </c>
-    </row>
-    <row r="1267">
-      <c r="A1267" t="inlineStr">
-        <is>
-          <t>[NOM046X$2*] (t2_263);</t>
-        </is>
-      </c>
-    </row>
-    <row r="1268">
-      <c r="A1268" t="inlineStr">
-        <is>
-          <t>[NOM046X$3*] (t3_263);</t>
-        </is>
-      </c>
-    </row>
-    <row r="1269">
-      <c r="A1269" t="inlineStr">
-        <is>
           <t>[NOM046X$4*] (t4_263);</t>
         </is>
       </c>
     </row>
-    <row r="1270">
-      <c r="A1270" t="inlineStr">
+    <row r="1263">
+      <c r="A1263" t="inlineStr">
         <is>
           <t>[NOM046X$5*] (t5_263);</t>
         </is>

--- a/mplus/kidsights_syntax_FIXED.xlsx
+++ b/mplus/kidsights_syntax_FIXED.xlsx
@@ -353,7 +353,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A1263"/>
+  <dimension ref="A1:A1262"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -579,6795 +579,6802 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>!ITEM: AA201 | jid = 11</t>
+          <t>!ITEM: AA203 | jid = 13</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>f BY AA201* (a_11);</t>
+          <t>f BY AA203* (a_13);</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>[AA201$1*] (t1_11);</t>
+          <t>[AA203$1*] (t1_13);</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>!ITEM: AA202 | jid = 12</t>
+          <t>!ITEM: AA205 | jid = 14</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>f BY AA202*1.672 (a_12);</t>
+          <t>f BY AA205*1.992 (a_14);</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>[AA202$1*-13.396] (t1_12);</t>
+          <t>[AA205$1*5.024] (t1_14);</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>!ITEM: AA203 | jid = 13</t>
+          <t>!ITEM: AA21 | jid = 15</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>f BY AA203* (a_13);</t>
+          <t>f BY AA21*2.046 (a_15);</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>[AA203$1*] (t1_13);</t>
+          <t>[AA21$1*-1.319] (t1_15);</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>!ITEM: AA205 | jid = 14</t>
+          <t>!ITEM: AA24 | jid = 16</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>f BY AA205*1.992 (a_14);</t>
+          <t>f BY AA24*1.548 (a_16);</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>[AA205$1*5.024] (t1_14);</t>
+          <t>[AA24$1*1.212] (t1_16);</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>!ITEM: AA21 | jid = 15</t>
+          <t>!ITEM: AA26 | jid = 17</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>f BY AA21*2.046 (a_15);</t>
+          <t>f BY AA26*2.361 (a_17);</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>[AA21$1*-1.319] (t1_15);</t>
+          <t>[AA26$1*4.567] (t1_17);</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>!ITEM: AA24 | jid = 16</t>
+          <t>!ITEM: AA27 | jid = 18</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>f BY AA24*1.548 (a_16);</t>
+          <t>f BY AA27*1.567 (a_18);</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>[AA24$1*1.212] (t1_16);</t>
+          <t>[AA27$1*2.252] (t1_18);</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>!ITEM: AA26 | jid = 17</t>
+          <t>!ITEM: AA28 | jid = 19</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>f BY AA26*2.361 (a_17);</t>
+          <t>f BY AA28*1.332 (a_19);</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>[AA26$1*4.567] (t1_17);</t>
+          <t>[AA28$1*1.468] (t1_19);</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>!ITEM: AA27 | jid = 18</t>
+          <t>!ITEM: AA29 | jid = 20</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>f BY AA27*1.567 (a_18);</t>
+          <t>f BY AA29*2.176 (a_20);</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>[AA27$1*2.252] (t1_18);</t>
+          <t>[AA29$1*3.801] (t1_20);</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>!ITEM: AA28 | jid = 19</t>
+          <t>!ITEM: AA30 | jid = 21</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>f BY AA28*1.332 (a_19);</t>
+          <t>f BY AA30*2.358 (a_21);</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>[AA28$1*1.468] (t1_19);</t>
+          <t>[AA30$1*4.096] (t1_21);</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>!ITEM: AA29 | jid = 20</t>
+          <t>!ITEM: AA31 | jid = 22</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>f BY AA29*2.176 (a_20);</t>
+          <t>f BY AA31*1.045 (a_22);</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>[AA29$1*3.801] (t1_20);</t>
+          <t>[AA31$1*1.972] (t1_22);</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>!ITEM: AA30 | jid = 21</t>
+          <t>!ITEM: AA34 | jid = 23</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>f BY AA30*2.358 (a_21);</t>
+          <t>f BY AA34*0.926 (a_23);</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>[AA30$1*4.096] (t1_21);</t>
+          <t>[AA34$1*2.958] (t1_23);</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>!ITEM: AA31 | jid = 22</t>
+          <t>!ITEM: AA36 | jid = 24</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>f BY AA31*1.045 (a_22);</t>
+          <t>f BY AA36*2.462 (a_24);</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>[AA31$1*1.972] (t1_22);</t>
+          <t>[AA36$1*8.538] (t1_24);</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>!ITEM: AA34 | jid = 23</t>
+          <t>!ITEM: AA38 | jid = 25</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>f BY AA34*0.926 (a_23);</t>
+          <t>f BY AA38*1.349 (a_25);</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>[AA34$1*2.958] (t1_23);</t>
+          <t>[AA38$1*4.086] (t1_25);</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>!ITEM: AA36 | jid = 24</t>
+          <t>!ITEM: AA4 | jid = 26</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>f BY AA36*2.462 (a_24);</t>
+          <t>f BY AA4*0.272 (a_26);</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>[AA36$1*8.538] (t1_24);</t>
+          <t>[AA4$1*-3.625] (t1_26);</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>!ITEM: AA38 | jid = 25</t>
+          <t>!ITEM: AA41 | jid = 27</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>f BY AA38*1.349 (a_25);</t>
+          <t>f BY AA41*2.481 (a_27);</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>[AA38$1*4.086] (t1_25);</t>
+          <t>[AA41$1*8.584] (t1_27);</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>!ITEM: AA4 | jid = 26</t>
+          <t>!ITEM: AA43 | jid = 28</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>f BY AA4*0.272 (a_26);</t>
+          <t>f BY AA43*1.782 (a_28);</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>[AA4$1*-3.625] (t1_26);</t>
+          <t>[AA43$1*6.175] (t1_28);</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>!ITEM: AA41 | jid = 27</t>
+          <t>!ITEM: AA46 | jid = 29</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>f BY AA41*2.481 (a_27);</t>
+          <t>f BY AA46*1.013 (a_29);</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>[AA41$1*8.584] (t1_27);</t>
+          <t>[AA46$1*5.579] (t1_29);</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>!ITEM: AA43 | jid = 28</t>
+          <t>!ITEM: AA47 | jid = 30</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>f BY AA43*1.782 (a_28);</t>
+          <t>f BY AA47*2.698 (a_30);</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>[AA43$1*6.175] (t1_28);</t>
+          <t>[AA47$1*10.26] (t1_30);</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>!ITEM: AA46 | jid = 29</t>
+          <t>!ITEM: AA49 | jid = 31</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>f BY AA46*1.013 (a_29);</t>
+          <t>f BY AA49*2.152 (a_31);</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>[AA46$1*5.579] (t1_29);</t>
+          <t>[AA49$1*9.539] (t1_31);</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>!ITEM: AA47 | jid = 30</t>
+          <t>!ITEM: AA5 | jid = 32</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>f BY AA47*2.698 (a_30);</t>
+          <t>f BY AA5*1.431 (a_32);</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>[AA47$1*10.26] (t1_30);</t>
+          <t>[AA5$1*-9.044] (t1_32);</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>!ITEM: AA49 | jid = 31</t>
+          <t>!ITEM: AA50 | jid = 33</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>f BY AA49*2.152 (a_31);</t>
+          <t>f BY AA50*1.436 (a_33);</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>[AA49$1*9.539] (t1_31);</t>
+          <t>[AA50$1*-11.454] (t1_33);</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>!ITEM: AA5 | jid = 32</t>
+          <t>!ITEM: AA54 | jid = 34</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>f BY AA5*1.431 (a_32);</t>
+          <t>f BY AA54*0.453 (a_34);</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>[AA5$1*-9.044] (t1_32);</t>
+          <t>[AA54$1*-2.166] (t1_34);</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>!ITEM: AA50 | jid = 33</t>
+          <t>!ITEM: AA55 | jid = 35</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>f BY AA50*1.436 (a_33);</t>
+          <t>f BY AA55*1.418 (a_35);</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>[AA50$1*-11.454] (t1_33);</t>
+          <t>[AA55$1*5.185] (t1_35);</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>!ITEM: AA54 | jid = 34</t>
+          <t>!ITEM: AA56 | jid = 36</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>f BY AA54*0.453 (a_34);</t>
+          <t>f BY AA56*0.434 (a_36);</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>[AA54$1*-2.166] (t1_34);</t>
+          <t>[AA56$1*-0.096] (t1_36);</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>!ITEM: AA55 | jid = 35</t>
+          <t>!ITEM: AA57 | jid = 37</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>f BY AA55*1.418 (a_35);</t>
+          <t>f BY AA57*0.892 (a_37);</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>[AA55$1*5.185] (t1_35);</t>
+          <t>[AA57$1*1.403] (t1_37);</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>!ITEM: AA56 | jid = 36</t>
+          <t>!ITEM: AA6 | jid = 38</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>f BY AA56*0.434 (a_36);</t>
+          <t>f BY AA6*0.698 (a_38);</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>[AA56$1*-0.096] (t1_36);</t>
+          <t>[AA6$1*-5.951] (t1_38);</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>!ITEM: AA57 | jid = 37</t>
+          <t>!ITEM: AA60 | jid = 39</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>f BY AA57*0.892 (a_37);</t>
+          <t>f BY AA60*0.38 (a_39);</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>[AA57$1*1.403] (t1_37);</t>
+          <t>[AA60$1*-0.333] (t1_39);</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>!ITEM: AA6 | jid = 38</t>
+          <t>!ITEM: AA65 | jid = 40</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>f BY AA6*0.698 (a_38);</t>
+          <t>f BY AA65*1.027 (a_40);</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>[AA6$1*-5.951] (t1_38);</t>
+          <t>[AA65$1*1.436] (t1_40);</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>!ITEM: AA60 | jid = 39</t>
+          <t>!ITEM: AA68 | jid = 41</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>f BY AA60*0.38 (a_39);</t>
+          <t>f BY AA68*0.437 (a_41);</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>[AA60$1*-0.333] (t1_39);</t>
+          <t>[AA68$1*-0.738] (t1_41);</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>!ITEM: AA65 | jid = 40</t>
+          <t>!ITEM: AA69 | jid = 42</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>f BY AA65*1.027 (a_40);</t>
+          <t>f BY AA69*0.608 (a_42);</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>[AA65$1*1.436] (t1_40);</t>
+          <t>[AA69$1*1.01] (t1_42);</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>!ITEM: AA68 | jid = 41</t>
+          <t>!ITEM: AA7 | jid = 43</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>f BY AA68*0.437 (a_41);</t>
+          <t>f BY AA7*1.267 (a_43);</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>[AA68$1*-0.738] (t1_41);</t>
+          <t>[AA7$1*-10.123] (t1_43);</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>!ITEM: AA69 | jid = 42</t>
+          <t>!ITEM: AA71 | jid = 44</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>f BY AA69*0.608 (a_42);</t>
+          <t>f BY AA71*0.748 (a_44);</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>[AA69$1*1.01] (t1_42);</t>
+          <t>[AA71$1*3.373] (t1_44);</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>!ITEM: AA7 | jid = 43</t>
+          <t>!ITEM: AA72 | jid = 45</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>f BY AA7*1.267 (a_43);</t>
+          <t>f BY AA72*1.477 (a_45);</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>[AA7$1*-10.123] (t1_43);</t>
+          <t>[AA72$1*4.382] (t1_45);</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>!ITEM: AA71 | jid = 44</t>
+          <t>!ITEM: AA9 | jid = 46</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>f BY AA71*0.748 (a_44);</t>
+          <t>f BY AA9*1.049 (a_46);</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>[AA71$1*3.373] (t1_44);</t>
+          <t>[AA9$1*-5.137] (t1_46);</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>!ITEM: AA72 | jid = 45</t>
+          <t>!ITEM: BB201 | jid = 47</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>f BY AA72*1.477 (a_45);</t>
+          <t>f BY BB201*1.999 (a_47);</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>[AA72$1*4.382] (t1_45);</t>
+          <t>[BB201$1*3.889] (t1_47);</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>!ITEM: AA9 | jid = 46</t>
+          <t>!ITEM: BB5 | jid = 48</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>f BY AA9*1.049 (a_46);</t>
+          <t>f BY BB5*1.625 (a_48);</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>[AA9$1*-5.137] (t1_46);</t>
+          <t>[BB5$1*4.64] (t1_48);</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>!ITEM: BB201 | jid = 47</t>
+          <t>!ITEM: BB6 | jid = 49</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>f BY BB201*1.999 (a_47);</t>
+          <t>f BY BB6*1.071 (a_49);</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>[BB201$1*3.889] (t1_47);</t>
+          <t>[BB6$1*3.34] (t1_49);</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>!ITEM: BB5 | jid = 48</t>
+          <t>!ITEM: CC10 | jid = 50</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>f BY BB5*1.625 (a_48);</t>
+          <t>f BY CC10*0.548 (a_50);</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>[BB5$1*4.64] (t1_48);</t>
+          <t>[CC10$1*-6.62] (t1_50);</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>!ITEM: BB6 | jid = 49</t>
+          <t>!ITEM: CC11 | jid = 51</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>f BY BB6*1.071 (a_49);</t>
+          <t>f BY CC11*0.925 (a_51);</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>[BB6$1*3.34] (t1_49);</t>
+          <t>[CC11$1*-8.039] (t1_51);</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>!ITEM: CC10 | jid = 50</t>
+          <t>!ITEM: CC12 | jid = 52</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>f BY CC10*0.548 (a_50);</t>
+          <t>f BY CC12*0.724 (a_52);</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>[CC10$1*-6.62] (t1_50);</t>
+          <t>[CC12$1*-8.266] (t1_52);</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>!ITEM: CC11 | jid = 51</t>
+          <t>!ITEM: CC13 | jid = 53</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>f BY CC11*0.925 (a_51);</t>
+          <t>f BY CC13*0.412 (a_53);</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>[CC11$1*-8.039] (t1_51);</t>
+          <t>[CC13$1*-5.67] (t1_53);</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>!ITEM: CC12 | jid = 52</t>
+          <t>!ITEM: CC14 | jid = 54</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>f BY CC12*0.724 (a_52);</t>
+          <t>f BY CC14*0.556 (a_54);</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>[CC12$1*-8.266] (t1_52);</t>
+          <t>[CC14$1*-5.799] (t1_54);</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>!ITEM: CC13 | jid = 53</t>
+          <t>!ITEM: CC15 | jid = 55</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>f BY CC13*0.412 (a_53);</t>
+          <t>f BY CC15*0.593 (a_55);</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>[CC13$1*-5.67] (t1_53);</t>
+          <t>[CC15$1*-6.17] (t1_55);</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>!ITEM: CC14 | jid = 54</t>
+          <t>!ITEM: CC16 | jid = 56</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>f BY CC14*0.556 (a_54);</t>
+          <t>f BY CC16*0.6 (a_56);</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>[CC14$1*-5.799] (t1_54);</t>
+          <t>[CC16$1*-5.89] (t1_56);</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>!ITEM: CC15 | jid = 55</t>
+          <t>!ITEM: CC17 | jid = 57</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>f BY CC15*0.593 (a_55);</t>
+          <t>f BY CC17*0.563 (a_57);</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>[CC15$1*-6.17] (t1_55);</t>
+          <t>[CC17$1*-6.989] (t1_57);</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>!ITEM: CC16 | jid = 56</t>
+          <t>!ITEM: CC18 | jid = 58</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>f BY CC16*0.6 (a_56);</t>
+          <t>f BY CC18*1.151 (a_58);</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>[CC16$1*-5.89] (t1_56);</t>
+          <t>[CC18$1*-10.294] (t1_58);</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>!ITEM: CC17 | jid = 57</t>
+          <t>!ITEM: CC19 | jid = 59</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>f BY CC17*0.563 (a_57);</t>
+          <t>f BY CC19*0.673 (a_59);</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>[CC17$1*-6.989] (t1_57);</t>
+          <t>[CC19$1*-7.23] (t1_59);</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>!ITEM: CC18 | jid = 58</t>
+          <t>!ITEM: CC20 | jid = 60</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>f BY CC18*1.151 (a_58);</t>
+          <t>f BY CC20*1.071 (a_60);</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>[CC18$1*-10.294] (t1_58);</t>
+          <t>[CC20$1*-8.636] (t1_60);</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>!ITEM: CC19 | jid = 59</t>
+          <t>!ITEM: CC21 | jid = 61</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>f BY CC19*0.673 (a_59);</t>
+          <t>f BY CC21*0.857 (a_61);</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>[CC19$1*-7.23] (t1_59);</t>
+          <t>[CC21$1*-4.564] (t1_61);</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>!ITEM: CC20 | jid = 60</t>
+          <t>!ITEM: CC25 | jid = 62</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>f BY CC20*1.071 (a_60);</t>
+          <t>f BY CC25*1.03 (a_62);</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>[CC20$1*-8.636] (t1_60);</t>
+          <t>[CC25$1*-6.953] (t1_62);</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>!ITEM: CC21 | jid = 61</t>
+          <t>!ITEM: CC26 | jid = 63</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>f BY CC21*0.857 (a_61);</t>
+          <t>f BY CC26*1.333 (a_63);</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>[CC21$1*-4.564] (t1_61);</t>
+          <t>[CC26$1*-10.582] (t1_63);</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>!ITEM: CC25 | jid = 62</t>
+          <t>!ITEM: CC27 | jid = 64</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>f BY CC25*1.03 (a_62);</t>
+          <t>f BY CC27*1.276 (a_64);</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>[CC25$1*-6.953] (t1_62);</t>
+          <t>[CC27$1*-7.326] (t1_64);</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>!ITEM: CC26 | jid = 63</t>
+          <t>!ITEM: CC28 | jid = 65</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>f BY CC26*1.333 (a_63);</t>
+          <t>f BY CC28*1.547 (a_65);</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>[CC26$1*-10.582] (t1_63);</t>
+          <t>[CC28$1*-5.646] (t1_65);</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>!ITEM: CC27 | jid = 64</t>
+          <t>!ITEM: CC29 | jid = 66</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>f BY CC27*1.276 (a_64);</t>
+          <t>f BY CC29*1.125 (a_66);</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>[CC27$1*-7.326] (t1_64);</t>
+          <t>[CC29$1*-7.744] (t1_66);</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>!ITEM: CC28 | jid = 65</t>
+          <t>!ITEM: CC30 | jid = 67</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>f BY CC28*1.547 (a_65);</t>
+          <t>f BY CC30*1.874 (a_67);</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>[CC28$1*-5.646] (t1_65);</t>
+          <t>[CC30$1*-7.348] (t1_67);</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>!ITEM: CC29 | jid = 66</t>
+          <t>!ITEM: CC31 | jid = 68</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>f BY CC29*1.125 (a_66);</t>
+          <t>f BY CC31*1.658 (a_68);</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>[CC29$1*-7.744] (t1_66);</t>
+          <t>[CC31$1*-6.188] (t1_68);</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>!ITEM: CC30 | jid = 67</t>
+          <t>!ITEM: CC32 | jid = 69</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>f BY CC30*1.874 (a_67);</t>
+          <t>f BY CC32*1.245 (a_69);</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>[CC30$1*-7.348] (t1_67);</t>
+          <t>[CC32$1*-5.985] (t1_69);</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>!ITEM: CC31 | jid = 68</t>
+          <t>!ITEM: CC33 | jid = 70</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>f BY CC31*1.658 (a_68);</t>
+          <t>f BY CC33*0.95 (a_70);</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>[CC31$1*-6.188] (t1_68);</t>
+          <t>[CC33$1*-5.908] (t1_70);</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>!ITEM: CC32 | jid = 69</t>
+          <t>!ITEM: CC34 | jid = 71</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>f BY CC32*1.245 (a_69);</t>
+          <t>f BY CC34*1.218 (a_71);</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>[CC32$1*-5.985] (t1_69);</t>
+          <t>[CC34$1*-4.856] (t1_71);</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>!ITEM: CC33 | jid = 70</t>
+          <t>!ITEM: CC35 | jid = 72</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>f BY CC33*0.95 (a_70);</t>
+          <t>f BY CC35*2.122 (a_72);</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>[CC33$1*-5.908] (t1_70);</t>
+          <t>[CC35$1*-7.34] (t1_72);</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>!ITEM: CC34 | jid = 71</t>
+          <t>!ITEM: CC36 | jid = 73</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>f BY CC34*1.218 (a_71);</t>
+          <t>f BY CC36*1.368 (a_73);</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>[CC34$1*-4.856] (t1_71);</t>
+          <t>[CC36$1*-4.245] (t1_73);</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>!ITEM: CC35 | jid = 72</t>
+          <t>!ITEM: CC37 | jid = 74</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>f BY CC35*2.122 (a_72);</t>
+          <t>f BY CC37*2.073 (a_74);</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>[CC35$1*-7.34] (t1_72);</t>
+          <t>[CC37$1*-6.878] (t1_74);</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>!ITEM: CC36 | jid = 73</t>
+          <t>!ITEM: CC39 | jid = 75</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>f BY CC36*1.368 (a_73);</t>
+          <t>f BY CC39*3.946 (a_75);</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>[CC36$1*-4.245] (t1_73);</t>
+          <t>[CC39$1*-6.703] (t1_75);</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>!ITEM: CC37 | jid = 74</t>
+          <t>!ITEM: CC4 | jid = 76</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>f BY CC37*2.073 (a_74);</t>
+          <t>f BY CC4*1.042 (a_76);</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>[CC37$1*-6.878] (t1_74);</t>
+          <t>[CC4$1*-10.897] (t1_76);</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>!ITEM: CC39 | jid = 75</t>
+          <t>!ITEM: CC40 | jid = 77</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>f BY CC39*3.946 (a_75);</t>
+          <t>f BY CC40*3.684 (a_77);</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>[CC39$1*-6.703] (t1_75);</t>
+          <t>[CC40$1*-4.648] (t1_77);</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>!ITEM: CC4 | jid = 76</t>
+          <t>!ITEM: CC41 | jid = 78</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>f BY CC4*1.042 (a_76);</t>
+          <t>f BY CC41*0.978 (a_78);</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>[CC4$1*-10.897] (t1_76);</t>
+          <t>[CC41$1*-2.239] (t1_78);</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>!ITEM: CC40 | jid = 77</t>
+          <t>!ITEM: CC42 | jid = 79</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>f BY CC40*3.684 (a_77);</t>
+          <t>f BY CC42*2.494 (a_79);</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>[CC40$1*-4.648] (t1_77);</t>
+          <t>[CC42$1*-1.617] (t1_79);</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>!ITEM: CC41 | jid = 78</t>
+          <t>!ITEM: CC43 | jid = 80</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>f BY CC41*0.978 (a_78);</t>
+          <t>f BY CC43*1.661 (a_80);</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>[CC41$1*-2.239] (t1_78);</t>
+          <t>[CC43$1*-0.808] (t1_80);</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>!ITEM: CC42 | jid = 79</t>
+          <t>!ITEM: CC45 | jid = 81</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>f BY CC42*2.494 (a_79);</t>
+          <t>f BY CC45*2.927 (a_81);</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>[CC42$1*-1.617] (t1_79);</t>
+          <t>[CC45$1*0.288] (t1_81);</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>!ITEM: CC43 | jid = 80</t>
+          <t>!ITEM: CC46 | jid = 82</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>f BY CC43*1.661 (a_80);</t>
+          <t>f BY CC46*2.58 (a_82);</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>[CC43$1*-0.808] (t1_80);</t>
+          <t>[CC46$1*0.44] (t1_82);</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>!ITEM: CC45 | jid = 81</t>
+          <t>!ITEM: CC48 | jid = 83</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>f BY CC45*2.927 (a_81);</t>
+          <t>f BY CC48*2.971 (a_83);</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>[CC45$1*0.288] (t1_81);</t>
+          <t>[CC48$1*0.547] (t1_83);</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>!ITEM: CC46 | jid = 82</t>
+          <t>!ITEM: CC5 | jid = 84</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>f BY CC46*2.58 (a_82);</t>
+          <t>f BY CC5*1.073 (a_84);</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>[CC46$1*0.44] (t1_82);</t>
+          <t>[CC5$1*-11.634] (t1_84);</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>!ITEM: CC48 | jid = 83</t>
+          <t>!ITEM: CC50 | jid = 85</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>f BY CC48*2.971 (a_83);</t>
+          <t>f BY CC50*1.661 (a_85);</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>[CC48$1*0.547] (t1_83);</t>
+          <t>[CC50$1*-0.228] (t1_85);</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>!ITEM: CC5 | jid = 84</t>
+          <t>!ITEM: CC51 | jid = 86</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>f BY CC5*1.073 (a_84);</t>
+          <t>f BY CC51*1.593 (a_86);</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>[CC5$1*-11.634] (t1_84);</t>
+          <t>[CC51$1*-0.417] (t1_86);</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>!ITEM: CC50 | jid = 85</t>
+          <t>!ITEM: CC52 | jid = 87</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>f BY CC50*1.661 (a_85);</t>
+          <t>f BY CC52*1.699 (a_87);</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>[CC50$1*-0.228] (t1_85);</t>
+          <t>[CC52$1*0.56] (t1_87);</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>!ITEM: CC51 | jid = 86</t>
+          <t>!ITEM: CC53 | jid = 88</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>f BY CC51*1.593 (a_86);</t>
+          <t>f BY CC53*0.926 (a_88);</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>[CC51$1*-0.417] (t1_86);</t>
+          <t>[CC53$1*1.5] (t1_88);</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>!ITEM: CC52 | jid = 87</t>
+          <t>!ITEM: CC54 | jid = 89</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>f BY CC52*1.699 (a_87);</t>
+          <t>f BY CC54*1.315 (a_89);</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>[CC52$1*0.56] (t1_87);</t>
+          <t>[CC54$1*0.524] (t1_89);</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>!ITEM: CC53 | jid = 88</t>
+          <t>!ITEM: CC56 | jid = 90</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>f BY CC53*0.926 (a_88);</t>
+          <t>f BY CC56*2.142 (a_90);</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>[CC53$1*1.5] (t1_88);</t>
+          <t>[CC56$1*1.406] (t1_90);</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>!ITEM: CC54 | jid = 89</t>
+          <t>!ITEM: CC6 | jid = 91</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>f BY CC54*1.315 (a_89);</t>
+          <t>f BY CC6*0.6 (a_91);</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>[CC54$1*0.524] (t1_89);</t>
+          <t>[CC6$1*-7.551] (t1_91);</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>!ITEM: CC56 | jid = 90</t>
+          <t>!ITEM: CC60 | jid = 92</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>f BY CC56*2.142 (a_90);</t>
+          <t>f BY CC60*0.515 (a_92);</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>[CC56$1*1.406] (t1_90);</t>
+          <t>[CC60$1*-2.481] (t1_92);</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>!ITEM: CC6 | jid = 91</t>
+          <t>!ITEM: CC61 | jid = 93</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>f BY CC6*0.6 (a_91);</t>
+          <t>f BY CC61*1.808 (a_93);</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>[CC6$1*-7.551] (t1_91);</t>
+          <t>[CC61$1*2.452] (t1_93);</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>!ITEM: CC60 | jid = 92</t>
+          <t>!ITEM: CC62 | jid = 94</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>f BY CC60*0.515 (a_92);</t>
+          <t>f BY CC62*1.111 (a_94);</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>[CC60$1*-2.481] (t1_92);</t>
+          <t>[CC62$1*-0.172] (t1_94);</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>!ITEM: CC61 | jid = 93</t>
+          <t>!ITEM: CC64 | jid = 95</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>f BY CC61*1.808 (a_93);</t>
+          <t>f BY CC64*1.344 (a_95);</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>[CC61$1*2.452] (t1_93);</t>
+          <t>[CC64$1*2.888] (t1_95);</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>!ITEM: CC62 | jid = 94</t>
+          <t>!ITEM: CC65 | jid = 96</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>f BY CC62*1.111 (a_94);</t>
+          <t>f BY CC65*1.406 (a_96);</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>[CC62$1*-0.172] (t1_94);</t>
+          <t>[CC65$1*6.455] (t1_96);</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>!ITEM: CC64 | jid = 95</t>
+          <t>!ITEM: CC66 | jid = 97</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>f BY CC64*1.344 (a_95);</t>
+          <t>f BY CC66*2.212 (a_97);</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>[CC64$1*2.888] (t1_95);</t>
+          <t>[CC66$1*3.883] (t1_97);</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>!ITEM: CC65 | jid = 96</t>
+          <t>!ITEM: CC67 | jid = 98</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>f BY CC65*1.406 (a_96);</t>
+          <t>f BY CC67*1.566 (a_98);</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>[CC65$1*6.455] (t1_96);</t>
+          <t>[CC67$1*4.988] (t1_98);</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>!ITEM: CC66 | jid = 97</t>
+          <t>!ITEM: CC68 | jid = 99</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>f BY CC66*2.212 (a_97);</t>
+          <t>f BY CC68*0.862 (a_99);</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>[CC66$1*3.883] (t1_97);</t>
+          <t>[CC68$1*-0.181] (t1_99);</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>!ITEM: CC67 | jid = 98</t>
+          <t>!ITEM: CC69 | jid = 100</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>f BY CC67*1.566 (a_98);</t>
+          <t>f BY CC69*1.154 (a_100);</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>[CC67$1*4.988] (t1_98);</t>
+          <t>[CC69$1*1.577] (t1_100);</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>!ITEM: CC68 | jid = 99</t>
+          <t>!ITEM: CC71 | jid = 101</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>f BY CC68*0.862 (a_99);</t>
+          <t>f BY CC71*2.151 (a_101);</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>[CC68$1*-0.181] (t1_99);</t>
+          <t>[CC71$1*2.876] (t1_101);</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>!ITEM: CC69 | jid = 100</t>
+          <t>!ITEM: CC72 | jid = 102</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>f BY CC69*1.154 (a_100);</t>
+          <t>!early_learning</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>[CC69$1*1.577] (t1_100);</t>
-        </is>
-      </c>
-    </row>
-    <row r="403">
-      <c r="A403" t="inlineStr">
-        <is>
-          <t>!ITEM: CC71 | jid = 101</t>
+          <t>f BY CC72*1.659 (a_102);</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>[CC72$1*3.885] (t1_102);</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>f BY CC71*2.151 (a_101);</t>
+          <t>!ITEM: CC74 | jid = 103</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>[CC71$1*2.876] (t1_101);</t>
-        </is>
-      </c>
-    </row>
-    <row r="407">
-      <c r="A407" t="inlineStr">
-        <is>
-          <t>!ITEM: CC72 | jid = 102</t>
+          <t>f BY CC74*2.112 (a_103);</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>[CC74$1*4.735] (t1_103);</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>!early_learning</t>
+          <t>!ITEM: CC75 | jid = 104</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>f BY CC72*1.659 (a_102);</t>
+          <t>f BY CC75*2.065 (a_104);</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>[CC72$1*3.885] (t1_102);</t>
+          <t>[CC75$1*5.684] (t1_104);</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>!ITEM: CC74 | jid = 103</t>
+          <t>!ITEM: CC76 | jid = 105</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>f BY CC74*2.112 (a_103);</t>
+          <t>f BY CC76*1.417 (a_105);</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>[CC74$1*4.735] (t1_103);</t>
+          <t>[CC76$1*4.307] (t1_105);</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>!ITEM: CC75 | jid = 104</t>
+          <t>!ITEM: CC78 | jid = 106</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>f BY CC75*2.065 (a_104);</t>
+          <t>f BY CC78*2.67 (a_106);</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>[CC75$1*5.684] (t1_104);</t>
+          <t>[CC78$1*8.572] (t1_106);</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>!ITEM: CC76 | jid = 105</t>
+          <t>!ITEM: CC79y | jid = 107</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>f BY CC76*1.417 (a_105);</t>
+          <t>f BY CC79y*1.665 (a_107);</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>[CC76$1*4.307] (t1_105);</t>
+          <t>[CC79y$1*5.119] (t1_107);</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>!ITEM: CC78 | jid = 106</t>
+          <t>!ITEM: CC8 | jid = 108</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>f BY CC78*2.67 (a_106);</t>
+          <t>f BY CC8*1.656 (a_108);</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>[CC78$1*8.572] (t1_106);</t>
+          <t>[CC8$1*-14.955] (t1_108);</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>!ITEM: CC79y | jid = 107</t>
+          <t>!ITEM: CC80 | jid = 109</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>f BY CC79y*1.665 (a_107);</t>
+          <t>f BY CC80*0.75 (a_109);</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>[CC79y$1*5.119] (t1_107);</t>
+          <t>[CC80$1*2.338] (t1_109);</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>!ITEM: CC8 | jid = 108</t>
+          <t>!ITEM: CC83 | jid = 110</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>f BY CC8*1.656 (a_108);</t>
+          <t>f BY CC83*1.567 (a_110);</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>[CC8$1*-14.955] (t1_108);</t>
+          <t>[CC83$1*4.415] (t1_110);</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>!ITEM: CC80 | jid = 109</t>
+          <t>!ITEM: CC84 | jid = 111</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>f BY CC80*0.75 (a_109);</t>
+          <t>f BY CC84*1.248 (a_111);</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>[CC80$1*2.338] (t1_109);</t>
+          <t>[CC84$1*6.116] (t1_111);</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>!ITEM: CC83 | jid = 110</t>
+          <t>!ITEM: CC85 | jid = 112</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>f BY CC83*1.567 (a_110);</t>
+          <t>f BY CC85*0.864 (a_112);</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>[CC83$1*4.415] (t1_110);</t>
+          <t>[CC85$1*1.252] (t1_112);</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>!ITEM: CC84 | jid = 111</t>
+          <t>!ITEM: CC87 | jid = 113</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>f BY CC84*1.248 (a_111);</t>
+          <t>f BY CC87*1.516 (a_113);</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>[CC84$1*6.116] (t1_111);</t>
+          <t>[CC87$1*6.646] (t1_113);</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>!ITEM: CC85 | jid = 112</t>
+          <t>!ITEM: CC89 | jid = 114</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>f BY CC85*0.864 (a_112);</t>
+          <t>f BY CC89*0.892 (a_114);</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>[CC85$1*1.252] (t1_112);</t>
+          <t>[CC89$1*2.057] (t1_114);</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>!ITEM: CC87 | jid = 113</t>
+          <t>!ITEM: CC9 | jid = 115</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>f BY CC87*1.516 (a_113);</t>
+          <t>f BY CC9*1.408 (a_115);</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>[CC87$1*6.646] (t1_113);</t>
+          <t>[CC9$1*-15.252] (t1_115);</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>!ITEM: CC89 | jid = 114</t>
+          <t>!ITEM: DD10 | jid = 116</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>f BY CC89*0.892 (a_114);</t>
+          <t>f BY DD10*1.748 (a_116);</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>[CC89$1*2.057] (t1_114);</t>
+          <t>[DD10$1*6.304] (t1_116);</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>!ITEM: CC9 | jid = 115</t>
+          <t>!ITEM: DD103 | jid = 117</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>f BY CC9*1.408 (a_115);</t>
+          <t>f BY DD103*0.986 (a_117);</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>[CC9$1*-15.252] (t1_115);</t>
+          <t>[DD103$1*-0.024] (t1_117);</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>[DD103$2*2.468] (t2_117);</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>!ITEM: DD10 | jid = 116</t>
+          <t>[DD103$3*3.75] (t3_117);</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>f BY DD10*1.748 (a_116);</t>
-        </is>
-      </c>
-    </row>
-    <row r="466">
-      <c r="A466" t="inlineStr">
-        <is>
-          <t>[DD10$1*6.304] (t1_116);</t>
+          <t>[DD103$4*6.795] (t4_117);</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>!ITEM: DD15 | jid = 118</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>!ITEM: DD103 | jid = 117</t>
+          <t>f BY DD15*1.158 (a_118);</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>f BY DD103*0.986 (a_117);</t>
-        </is>
-      </c>
-    </row>
-    <row r="470">
-      <c r="A470" t="inlineStr">
-        <is>
-          <t>[DD103$1*-0.024] (t1_117);</t>
+          <t>[DD15$1*5.261] (t1_118);</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>[DD103$2*2.468] (t2_117);</t>
+          <t>!ITEM: DD16 | jid = 119</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>[DD103$3*3.75] (t3_117);</t>
+          <t>f BY DD16*1.662 (a_119);</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>[DD103$4*6.795] (t4_117);</t>
+          <t>[DD16$1*6.05] (t1_119);</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>!ITEM: DD15 | jid = 118</t>
+          <t>!ITEM: DD19 | jid = 120</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>f BY DD15*1.158 (a_118);</t>
+          <t>f BY DD19*1.184 (a_120);</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>[DD15$1*5.261] (t1_118);</t>
+          <t>[DD19$1*6.829] (t1_120);</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>[DD19$2*8.048] (t2_120);</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>!ITEM: DD16 | jid = 119</t>
+          <t>[DD19$3*8.823] (t3_120);</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>f BY DD16*1.662 (a_119);</t>
-        </is>
-      </c>
-    </row>
-    <row r="481">
-      <c r="A481" t="inlineStr">
-        <is>
-          <t>[DD16$1*6.05] (t1_119);</t>
+          <t>[DD19$4*10.503] (t4_120);</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>!ITEM: DD201 | jid = 121</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>!ITEM: DD19 | jid = 120</t>
+          <t>f BY DD201*0.837 (a_121);</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>f BY DD19*1.184 (a_120);</t>
-        </is>
-      </c>
-    </row>
-    <row r="485">
-      <c r="A485" t="inlineStr">
-        <is>
-          <t>[DD19$1*6.829] (t1_120);</t>
+          <t>[DD201$1*-0.631] (t1_121);</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>[DD19$2*8.048] (t2_120);</t>
+          <t>!ITEM: DD203 | jid = 122</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>[DD19$3*8.823] (t3_120);</t>
+          <t>f BY DD203*1.228 (a_122);</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>[DD19$4*10.503] (t4_120);</t>
+          <t>[DD203$1*1.436] (t1_122);</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>!ITEM: DD201 | jid = 121</t>
+          <t>!ITEM: DD205 | jid = 123</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>f BY DD201*0.837 (a_121);</t>
+          <t>f BY DD205*1.551 (a_123);</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>[DD201$1*-0.631] (t1_121);</t>
+          <t>[DD205$1*5.998] (t1_123);</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>[DD205$2*7.615] (t2_123);</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>!ITEM: DD203 | jid = 122</t>
+          <t>[DD205$3*8.231] (t3_123);</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>f BY DD203*1.228 (a_122);</t>
-        </is>
-      </c>
-    </row>
-    <row r="496">
-      <c r="A496" t="inlineStr">
-        <is>
-          <t>[DD203$1*1.436] (t1_122);</t>
+          <t>[DD205$4*10.104] (t4_123);</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>!ITEM: DD207 | jid = 124</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>!ITEM: DD205 | jid = 123</t>
+          <t>f BY DD207*0.753 (a_124);</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>f BY DD205*1.551 (a_123);</t>
+          <t>[DD207$1*1.367] (t1_124);</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>[DD205$1*5.998] (t1_123);</t>
+          <t>[DD207$2*3.328] (t2_124);</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>[DD205$2*7.615] (t2_123);</t>
-        </is>
-      </c>
-    </row>
-    <row r="502">
-      <c r="A502" t="inlineStr">
-        <is>
-          <t>[DD205$3*8.231] (t3_123);</t>
+          <t>[DD207$3*6.1] (t3_124);</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>[DD205$4*10.104] (t4_123);</t>
+          <t>!ITEM: DD221 | jid = 125</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>f BY DD221*0.745 (a_125);</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>!ITEM: DD207 | jid = 124</t>
+          <t>[DD221$1*0.479] (t1_125);</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>f BY DD207*0.753 (a_124);</t>
-        </is>
-      </c>
-    </row>
-    <row r="507">
-      <c r="A507" t="inlineStr">
-        <is>
-          <t>[DD207$1*1.367] (t1_124);</t>
+          <t>[DD221$2*2.76] (t2_125);</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>[DD207$2*3.328] (t2_124);</t>
+          <t>!ITEM: DD25 | jid = 126</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>[DD207$3*6.1] (t3_124);</t>
+          <t>f BY DD25*0.243 (a_126);</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>[DD25$1*-1.961] (t1_126);</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>!ITEM: DD221 | jid = 125</t>
+          <t>[DD25$2*-0.245] (t2_126);</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>f BY DD221*0.745 (a_125);</t>
+          <t>[DD25$3*1.171] (t3_126);</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>[DD221$1*0.479] (t1_125);</t>
-        </is>
-      </c>
-    </row>
-    <row r="514">
-      <c r="A514" t="inlineStr">
-        <is>
-          <t>[DD221$2*2.76] (t2_125);</t>
+          <t>[DD25$4*2.897] (t4_126);</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>!ITEM: DD299 | jid = 127</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>!ITEM: DD25 | jid = 126</t>
+          <t>f BY DD299*0.581 (a_127);</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>f BY DD25*0.243 (a_126);</t>
+          <t>[DD299$1*0.108] (t1_127);</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>[DD25$1*-1.961] (t1_126);</t>
+          <t>[DD299$2*1.726] (t2_127);</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>[DD25$2*-0.245] (t2_126);</t>
+          <t>[DD299$3*3.013] (t3_127);</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>[DD25$3*1.171] (t3_126);</t>
-        </is>
-      </c>
-    </row>
-    <row r="521">
-      <c r="A521" t="inlineStr">
-        <is>
-          <t>[DD25$4*2.897] (t4_126);</t>
+          <t>[DD299$4*6.863] (t4_127);</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>!ITEM: DD30 | jid = 128</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>!ITEM: DD299 | jid = 127</t>
+          <t>f BY DD30*1.005 (a_128);</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>f BY DD299*0.581 (a_127);</t>
-        </is>
-      </c>
-    </row>
-    <row r="525">
-      <c r="A525" t="inlineStr">
-        <is>
-          <t>[DD299$1*0.108] (t1_127);</t>
+          <t>[DD30$1*1.785] (t1_128);</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>[DD299$2*1.726] (t2_127);</t>
+          <t>!ITEM: DD32 | jid = 129</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>[DD299$3*3.013] (t3_127);</t>
+          <t>f BY DD32*0.984 (a_129);</t>
         </is>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>[DD299$4*6.863] (t4_127);</t>
+          <t>[DD32$1*1.763] (t1_129);</t>
         </is>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>!ITEM: DD30 | jid = 128</t>
+          <t>!ITEM: DD36 | jid = 130</t>
         </is>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>f BY DD30*1.005 (a_128);</t>
+          <t>f BY DD36*0.669 (a_130);</t>
         </is>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>[DD30$1*1.785] (t1_128);</t>
+          <t>[DD36$1*1.324] (t1_130);</t>
         </is>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>!ITEM: DD32 | jid = 129</t>
+          <t>!ITEM: DD39 | jid = 131</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>f BY DD32*0.984 (a_129);</t>
+          <t>f BY DD39*0.746 (a_131);</t>
         </is>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>[DD32$1*1.763] (t1_129);</t>
+          <t>[DD39$1*1.888] (t1_131);</t>
         </is>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>!ITEM: DD36 | jid = 130</t>
+          <t>!ITEM: DD44 | jid = 132</t>
         </is>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>f BY DD36*0.669 (a_130);</t>
+          <t>f BY DD44*0.45 (a_132);</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>[DD36$1*1.324] (t1_130);</t>
+          <t>[DD44$1*-2.192] (t1_132);</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>[DD44$2*0.619] (t2_132);</t>
         </is>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>!ITEM: DD39 | jid = 131</t>
+          <t>[DD44$3*1.769] (t3_132);</t>
         </is>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>f BY DD39*0.746 (a_131);</t>
-        </is>
-      </c>
-    </row>
-    <row r="544">
-      <c r="A544" t="inlineStr">
-        <is>
-          <t>[DD39$1*1.888] (t1_131);</t>
+          <t>[DD44$4*4.947] (t4_132);</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>!ITEM: EG1_1 | jid = 133</t>
         </is>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>!ITEM: DD44 | jid = 132</t>
+          <t>f BY EG1_1*1.619 (a_133);</t>
         </is>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>f BY DD44*0.45 (a_132);</t>
-        </is>
-      </c>
-    </row>
-    <row r="548">
-      <c r="A548" t="inlineStr">
-        <is>
-          <t>[DD44$1*-2.192] (t1_132);</t>
+          <t>[EG1_1$1*1.63] (t1_133);</t>
         </is>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>[DD44$2*0.619] (t2_132);</t>
+          <t>!ITEM: EG1_2 | jid = 134</t>
         </is>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>[DD44$3*1.769] (t3_132);</t>
+          <t>!Constrain all to EG1_1</t>
         </is>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>[DD44$4*4.947] (t4_132);</t>
-        </is>
-      </c>
-    </row>
-    <row r="553">
-      <c r="A553" t="inlineStr">
-        <is>
-          <t>!ITEM: EG1_1 | jid = 133</t>
+          <t>f BY EG1_2*1.619 (a_133);</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>[EG1_2$1*1.63] (t1_133);</t>
         </is>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>f BY EG1_1*1.619 (a_133);</t>
+          <t>!ITEM: EG10a | jid = 135</t>
         </is>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>[EG1_1$1*1.63] (t1_133);</t>
-        </is>
-      </c>
-    </row>
-    <row r="557">
-      <c r="A557" t="inlineStr">
-        <is>
-          <t>!ITEM: EG1_2 | jid = 134</t>
+          <t>f BY EG10a*1.071 (a_135);</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>[EG10a$1*0.027] (t1_135);</t>
         </is>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>!Constrain all to EG1_1</t>
+          <t>!ITEM: EG10b | jid = 136</t>
         </is>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>f BY EG1_2*1.619 (a_133);</t>
+          <t>!Constrain slope to EG10a</t>
         </is>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>[EG1_2$1*1.63] (t1_133);</t>
-        </is>
-      </c>
-    </row>
-    <row r="562">
-      <c r="A562" t="inlineStr">
-        <is>
-          <t>!ITEM: EG10a | jid = 135</t>
+          <t>f BY EG10b*1.071 (a_135);</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>[EG10b$1*2.727] (t1_136);</t>
         </is>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>f BY EG10a*1.071 (a_135);</t>
+          <t>!ITEM: EG11_1 | jid = 137</t>
         </is>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>[EG10a$1*0.027] (t1_135);</t>
-        </is>
-      </c>
-    </row>
-    <row r="566">
-      <c r="A566" t="inlineStr">
-        <is>
-          <t>!ITEM: EG10b | jid = 136</t>
+          <t>f BY EG11_1*1.363 (a_137);</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>[EG11_1$1*2.488] (t1_137);</t>
         </is>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>!Constrain slope to EG10a</t>
+          <t>!ITEM: EG11_2 | jid = 138</t>
         </is>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>f BY EG10b*1.071 (a_135);</t>
+          <t>!Constrain all to EG11_1</t>
         </is>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>[EG10b$1*2.727] (t1_136);</t>
-        </is>
-      </c>
-    </row>
-    <row r="571">
-      <c r="A571" t="inlineStr">
-        <is>
-          <t>!ITEM: EG11_1 | jid = 137</t>
+          <t>f BY EG11_2*1.363 (a_137);</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>[EG11_2$1*2.488] (t1_137);</t>
         </is>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>f BY EG11_1*1.363 (a_137);</t>
+          <t>!ITEM: EG12a | jid = 139</t>
         </is>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>[EG11_1$1*2.488] (t1_137);</t>
-        </is>
-      </c>
-    </row>
-    <row r="575">
-      <c r="A575" t="inlineStr">
-        <is>
-          <t>!ITEM: EG11_2 | jid = 138</t>
+          <t>f BY EG12a*1.656 (a_139);</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>[EG12a$1*3.735] (t1_139);</t>
         </is>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>!Constrain all to EG11_1</t>
+          <t>!ITEM: EG12b | jid = 140</t>
         </is>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>f BY EG11_2*1.363 (a_137);</t>
+          <t>!Constrain slope to EG12a</t>
         </is>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>[EG11_2$1*2.488] (t1_137);</t>
+          <t>f BY EG12b*1.656 (a_139);</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>[EG12b$1*3.819] (t1_140);</t>
         </is>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>!ITEM: EG12a | jid = 139</t>
-        </is>
-      </c>
-    </row>
-    <row r="581">
-      <c r="A581" t="inlineStr">
-        <is>
-          <t>f BY EG12a*1.656 (a_139);</t>
+          <t>[EG12b$2*6.276] (t2_140);</t>
         </is>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>[EG12a$1*3.735] (t1_139);</t>
+          <t>!ITEM: EG13a | jid = 141</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>f BY EG13a*2.353 (a_141);</t>
         </is>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>!ITEM: EG12b | jid = 140</t>
-        </is>
-      </c>
-    </row>
-    <row r="585">
-      <c r="A585" t="inlineStr">
-        <is>
-          <t>!Constrain slope to EG12a</t>
+          <t>[EG13a$1*9.73] (t1_141);</t>
         </is>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>f BY EG12b*1.656 (a_139);</t>
+          <t>!ITEM: EG13b | jid = 142</t>
         </is>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>[EG12b$1*3.819] (t1_140);</t>
+          <t>!Constrain slope to EG13a. Constrain tau$1 to be greater than EG13a$1</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>f BY EG13b*2.353 (a_141);</t>
         </is>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>!ITEM: EG13a | jid = 141</t>
-        </is>
-      </c>
-    </row>
-    <row r="590">
-      <c r="A590" t="inlineStr">
-        <is>
-          <t>f BY EG13a*2.353 (a_141);</t>
+          <t>[EG13b$1*11.424] (t1_142);</t>
         </is>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>[EG13a$1*9.73] (t1_141);</t>
+          <t>!ITEM: EG14a | jid = 143</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>f BY EG14a*1.728 (a_143);</t>
         </is>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>!ITEM: EG13b | jid = 142</t>
-        </is>
-      </c>
-    </row>
-    <row r="594">
-      <c r="A594" t="inlineStr">
-        <is>
-          <t>!Constrain slope to EG13a. Constrain tau$1 to be greater than EG13a$1</t>
+          <t>[EG14a$1*7.358] (t1_143);</t>
         </is>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>f BY EG13b*2.353 (a_141);</t>
+          <t>!ITEM: EG14b | jid = 144</t>
         </is>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>[EG13b$1*11.424] (t1_142);</t>
+          <t>!Constrain slope to EG14a</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>f BY EG14b*1.728 (a_143);</t>
         </is>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>!ITEM: EG14a | jid = 143</t>
-        </is>
-      </c>
-    </row>
-    <row r="599">
-      <c r="A599" t="inlineStr">
-        <is>
-          <t>f BY EG14a*1.728 (a_143);</t>
+          <t>[EG14b$1*7.559] (t1_144);</t>
         </is>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>[EG14a$1*7.358] (t1_143);</t>
+          <t>!ITEM: EG15_1 | jid = 145</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>f BY EG15_1*1.214 (a_145);</t>
         </is>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>!ITEM: EG14b | jid = 144</t>
+          <t>[EG15_1$1*3.996] (t1_145);</t>
         </is>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>!Constrain slope to EG14a</t>
+          <t>[EG15_1$2*5.736] (t2_145);</t>
         </is>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>f BY EG14b*1.728 (a_143);</t>
+          <t>[EG15_1$3*6.351] (t3_145);</t>
         </is>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>[EG14b$1*7.559] (t1_144);</t>
+          <t>[EG15_1$4*8.215] (t4_145);</t>
         </is>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>!ITEM: EG15_1 | jid = 145</t>
+          <t>!ITEM: EG15_2 | jid = 146</t>
         </is>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>f BY EG15_1*1.214 (a_145);</t>
+          <t>!Constrain all to EG15_1</t>
         </is>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>[EG15_1$1*3.996] (t1_145);</t>
+          <t>f BY EG15_2*1.214 (a_145);</t>
         </is>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>[EG15_1$2*5.736] (t2_145);</t>
+          <t>[EG15_2$1*3.996] (t1_145);</t>
         </is>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>[EG15_1$3*6.351] (t3_145);</t>
+          <t>[EG15_2$2*5.736] (t2_145);</t>
         </is>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>[EG15_1$4*8.215] (t4_145);</t>
-        </is>
-      </c>
-    </row>
-    <row r="614">
-      <c r="A614" t="inlineStr">
-        <is>
-          <t>!ITEM: EG15_2 | jid = 146</t>
+          <t>[EG15_2$3*6.351] (t3_145);</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>[EG15_2$4*8.215] (t4_145);</t>
         </is>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>!Constrain all to EG15_1</t>
+          <t>!ITEM: EG16a_1 | jid = 147</t>
         </is>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>f BY EG15_2*1.214 (a_145);</t>
+          <t>f BY EG16a_1*0.694 (a_147);</t>
         </is>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>[EG15_2$1*3.996] (t1_145);</t>
+          <t>[EG16a_1$1*-1.086] (t1_147);</t>
         </is>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>[EG15_2$2*5.736] (t2_145);</t>
+          <t>[EG16a_1$2*1.084] (t2_147);</t>
         </is>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>[EG15_2$3*6.351] (t3_145);</t>
+          <t>[EG16a_1$3*2.044] (t3_147);</t>
         </is>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>[EG15_2$4*8.215] (t4_145);</t>
+          <t>[EG16a_1$4*5.093] (t4_147);</t>
         </is>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>!ITEM: EG16a_1 | jid = 147</t>
+          <t>!ITEM: EG16a_2 | jid = 148</t>
         </is>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>f BY EG16a_1*0.694 (a_147);</t>
+          <t>!Constrain all to EG16a_1</t>
         </is>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>[EG16a_1$1*-1.086] (t1_147);</t>
+          <t>f BY EG16a_2*0.694 (a_147);</t>
         </is>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>[EG16a_1$2*1.084] (t2_147);</t>
+          <t>[EG16a_2$1*-1.086] (t1_147);</t>
         </is>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>[EG16a_1$3*2.044] (t3_147);</t>
+          <t>[EG16a_2$2*1.084] (t2_147);</t>
         </is>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>[EG16a_1$4*5.093] (t4_147);</t>
-        </is>
-      </c>
-    </row>
-    <row r="629">
-      <c r="A629" t="inlineStr">
-        <is>
-          <t>!ITEM: EG16a_2 | jid = 148</t>
+          <t>[EG16a_2$3*2.044] (t3_147);</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>[EG16a_2$4*5.093] (t4_147);</t>
         </is>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>!Constrain all to EG16a_1</t>
+          <t>!ITEM: EG16b | jid = 149</t>
         </is>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>f BY EG16a_2*0.694 (a_147);</t>
+          <t>!Constrain slope to EG16a_1</t>
         </is>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>[EG16a_2$1*-1.086] (t1_147);</t>
+          <t>f BY EG16b*0.694 (a_147);</t>
         </is>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>[EG16a_2$2*1.084] (t2_147);</t>
-        </is>
-      </c>
-    </row>
-    <row r="634">
-      <c r="A634" t="inlineStr">
-        <is>
-          <t>[EG16a_2$3*2.044] (t3_147);</t>
+          <t>[EG16b$1*0.227] (t1_149);</t>
         </is>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>[EG16a_2$4*5.093] (t4_147);</t>
+          <t>!ITEM: EG16c | jid = 150</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>!Constrain slope to EG16a_1.</t>
         </is>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>!ITEM: EG16b | jid = 149</t>
+          <t>f BY EG16c*0.694 (a_147);</t>
         </is>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>!Constrain slope to EG16a_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="639">
-      <c r="A639" t="inlineStr">
-        <is>
-          <t>f BY EG16b*0.694 (a_147);</t>
+          <t>[EG16c$1*0.619] (t1_150);</t>
         </is>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>[EG16b$1*0.227] (t1_149);</t>
+          <t>!ITEM: EG17a | jid = 151</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>f BY EG17a*0.891 (a_151);</t>
         </is>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>!ITEM: EG16c | jid = 150</t>
+          <t>[EG17a$1*0.594] (t1_151);</t>
         </is>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>!Constrain slope to EG16a_1.</t>
+          <t>[EG17a$2*3.369] (t2_151);</t>
         </is>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>f BY EG16c*0.694 (a_147);</t>
+          <t>[EG17a$3*5.077] (t3_151);</t>
         </is>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>[EG16c$1*0.619] (t1_150);</t>
+          <t>[EG17a$4*8.436] (t4_151);</t>
         </is>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>!ITEM: EG17a | jid = 151</t>
+          <t>!ITEM: EG17b | jid = 152</t>
         </is>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>f BY EG17a*0.891 (a_151);</t>
+          <t>!Constrain slope to to be equal to EG17a. Constrain tau$1 to be less than EG17a$1.</t>
         </is>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>[EG17a$1*0.594] (t1_151);</t>
+          <t>f BY EG17b*0.891 (a_151);</t>
         </is>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>[EG17a$2*3.369] (t2_151);</t>
-        </is>
-      </c>
-    </row>
-    <row r="651">
-      <c r="A651" t="inlineStr">
-        <is>
-          <t>[EG17a$3*5.077] (t3_151);</t>
+          <t>[EG17b$1*2.204] (t1_152);</t>
         </is>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>[EG17a$4*8.436] (t4_151);</t>
+          <t>!ITEM: EG18a | jid = 153</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>f BY EG18a*0.753 (a_153);</t>
         </is>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>!ITEM: EG17b | jid = 152</t>
+          <t>[EG18a$1*0.029] (t1_153);</t>
         </is>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>!Constrain slope to to be equal to EG17a. Constrain tau$1 to be less than EG17a$1.</t>
+          <t>[EG18a$2*2.433] (t2_153);</t>
         </is>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>f BY EG17b*0.891 (a_151);</t>
+          <t>[EG18a$3*3.857] (t3_153);</t>
         </is>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>[EG17b$1*2.204] (t1_152);</t>
+          <t>[EG18a$4*6.786] (t4_153);</t>
         </is>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>!ITEM: EG18a | jid = 153</t>
+          <t>!ITEM: EG18b | jid = 154</t>
         </is>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>f BY EG18a*0.753 (a_153);</t>
+          <t>!Constrain slope to EG18a</t>
         </is>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>[EG18a$1*0.029] (t1_153);</t>
+          <t>f BY EG18b*0.753 (a_153);</t>
         </is>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>[EG18a$2*2.433] (t2_153);</t>
-        </is>
-      </c>
-    </row>
-    <row r="663">
-      <c r="A663" t="inlineStr">
-        <is>
-          <t>[EG18a$3*3.857] (t3_153);</t>
+          <t>[EG18b$1*1.625] (t1_154);</t>
         </is>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>[EG18a$4*6.786] (t4_153);</t>
+          <t>!ITEM: EG19_b | jid = 155</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>!Constrain slope to EG19a_1</t>
         </is>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>!ITEM: EG18b | jid = 154</t>
+          <t>f BY EG19_b*1.984 (a_156);</t>
         </is>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>!Constrain slope to EG18a</t>
-        </is>
-      </c>
-    </row>
-    <row r="668">
-      <c r="A668" t="inlineStr">
-        <is>
-          <t>f BY EG18b*0.753 (a_153);</t>
+          <t>[EG19_b$1*7.242] (t1_155);</t>
         </is>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>[EG18b$1*1.625] (t1_154);</t>
+          <t>!ITEM: EG19a_1 | jid = 156</t>
+        </is>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>f BY EG19a_1*1.984 (a_156);</t>
         </is>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>!ITEM: EG19_b | jid = 155</t>
-        </is>
-      </c>
-    </row>
-    <row r="672">
-      <c r="A672" t="inlineStr">
-        <is>
-          <t>!Constrain slope to EG19a_1</t>
+          <t>[EG19a_1$1*5.955] (t1_156);</t>
         </is>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>f BY EG19_b*1.984 (a_156);</t>
+          <t>!ITEM: EG19a_2 | jid = 157</t>
         </is>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>[EG19_b$1*7.242] (t1_155);</t>
+          <t>!Constrain all to EG19a_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>f BY EG19a_2*1.984 (a_156);</t>
         </is>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>!ITEM: EG19a_1 | jid = 156</t>
-        </is>
-      </c>
-    </row>
-    <row r="677">
-      <c r="A677" t="inlineStr">
-        <is>
-          <t>f BY EG19a_1*1.984 (a_156);</t>
+          <t>[EG19a_2$1*5.955] (t1_156);</t>
         </is>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>[EG19a_1$1*5.955] (t1_156);</t>
+          <t>!ITEM: EG19a_3 | jid = 158</t>
+        </is>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>!Constrain all to EG19a_1</t>
         </is>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>!ITEM: EG19a_2 | jid = 157</t>
+          <t>f BY EG19a_3*1.984 (a_156);</t>
         </is>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>!Constrain all to EG19a_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="682">
-      <c r="A682" t="inlineStr">
-        <is>
-          <t>f BY EG19a_2*1.984 (a_156);</t>
+          <t>[EG19a_3$1*5.955] (t1_156);</t>
         </is>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>[EG19a_2$1*5.955] (t1_156);</t>
+          <t>!ITEM: EG19a_4 | jid = 159</t>
+        </is>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>!Constrain all to EG19a_1</t>
         </is>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>!ITEM: EG19a_3 | jid = 158</t>
+          <t>f BY EG19a_4*1.984 (a_156);</t>
         </is>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>!Constrain all to EG19a_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="687">
-      <c r="A687" t="inlineStr">
-        <is>
-          <t>f BY EG19a_3*1.984 (a_156);</t>
+          <t>[EG19a_4$1*5.955] (t1_156);</t>
         </is>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>[EG19a_3$1*5.955] (t1_156);</t>
+          <t>!ITEM: EG2_1 | jid = 160</t>
+        </is>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>f BY EG2_1*1.518 (a_160);</t>
         </is>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>!ITEM: EG19a_4 | jid = 159</t>
-        </is>
-      </c>
-    </row>
-    <row r="691">
-      <c r="A691" t="inlineStr">
-        <is>
-          <t>!Constrain all to EG19a_1</t>
+          <t>[EG2_1$1*3.39] (t1_160);</t>
         </is>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>f BY EG19a_4*1.984 (a_156);</t>
+          <t>!ITEM: EG2_2 | jid = 161</t>
         </is>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>[EG19a_4$1*5.955] (t1_156);</t>
+          <t>!Constrain all to EG2_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>f BY EG2_2*1.518 (a_160);</t>
         </is>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>!ITEM: EG2_1 | jid = 160</t>
-        </is>
-      </c>
-    </row>
-    <row r="696">
-      <c r="A696" t="inlineStr">
-        <is>
-          <t>f BY EG2_1*1.518 (a_160);</t>
+          <t>[EG2_2$1*3.39] (t1_160);</t>
         </is>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>[EG2_1$1*3.39] (t1_160);</t>
+          <t>!ITEM: EG20a | jid = 162</t>
+        </is>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>f BY EG20a*1.303 (a_162);</t>
         </is>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>!ITEM: EG2_2 | jid = 161</t>
+          <t>[EG20a$1*3.49] (t1_162);</t>
         </is>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>!Constrain all to EG2_1</t>
+          <t>[EG20a$2*4.917] (t2_162);</t>
         </is>
       </c>
     </row>
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>f BY EG2_2*1.518 (a_160);</t>
+          <t>[EG20a$3*8.322] (t3_162);</t>
         </is>
       </c>
     </row>
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>[EG2_2$1*3.39] (t1_160);</t>
+          <t>[EG20a$4*9.628] (t4_162);</t>
         </is>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>!ITEM: EG20a | jid = 162</t>
+          <t>!ITEM: EG20b_1 | jid = 163</t>
         </is>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>f BY EG20a*1.303 (a_162);</t>
+          <t>!Constrain slope to EG20a. Constrain tau$1 to EG20a$1. Constrain tau$2 to EG20a$2. Constrain tau$4 to EG20a$3. Constrain tau$5 to EG20a$4</t>
         </is>
       </c>
     </row>
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>[EG20a$1*3.49] (t1_162);</t>
+          <t>f BY EG20b_1*1.303 (a_162);</t>
         </is>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>[EG20a$2*4.917] (t2_162);</t>
+          <t>[EG20b_1$1*3.49] (t1_162);</t>
         </is>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>[EG20a$3*8.322] (t3_162);</t>
+          <t>[EG20b_1$2*4.917] (t2_162);</t>
         </is>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>[EG20a$4*9.628] (t4_162);</t>
+          <t>[EG20b_1$3*7.088] (t3_163);</t>
+        </is>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>[EG20b_1$4*8.322] (t3_162);</t>
         </is>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>!ITEM: EG20b_1 | jid = 163</t>
-        </is>
-      </c>
-    </row>
-    <row r="712">
-      <c r="A712" t="inlineStr">
-        <is>
-          <t>!Constrain slope to EG20a. Constrain tau$1 to EG20a$1. Constrain tau$2 to EG20a$2. Constrain tau$4 to EG20a$3. Constrain tau$5 to EG20a$4</t>
+          <t>[EG20b_1$5*9.628] (t4_162);</t>
         </is>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>f BY EG20b_1*1.303 (a_162);</t>
+          <t>!ITEM: EG20b_2 | jid = 164</t>
         </is>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>[EG20b_1$1*3.49] (t1_162);</t>
+          <t>!Constrain slope to EG20a. Constrain tau$1 to EG20a$1. Constrain tau$2 to EG20a$2. Constrain tau$4 to EG20a$3. Constrain tau$5 to EG20a$4</t>
         </is>
       </c>
     </row>
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>[EG20b_1$2*4.917] (t2_162);</t>
+          <t>f BY EG20b_2*1.303 (a_162);</t>
         </is>
       </c>
     </row>
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>[EG20b_1$3*7.088] (t3_163);</t>
+          <t>[EG20b_2$1*3.49] (t1_162);</t>
         </is>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>[EG20b_1$4*8.322] (t3_162);</t>
+          <t>[EG20b_2$2*4.917] (t2_162);</t>
         </is>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>[EG20b_1$5*9.628] (t4_162);</t>
+          <t>[EG20b_2$3*6.608] (t3_164);</t>
+        </is>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>[EG20b_2$4*8.322] (t3_162);</t>
         </is>
       </c>
     </row>
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>!ITEM: EG20b_2 | jid = 164</t>
-        </is>
-      </c>
-    </row>
-    <row r="721">
-      <c r="A721" t="inlineStr">
-        <is>
-          <t>!Constrain slope to EG20a. Constrain tau$1 to EG20a$1. Constrain tau$2 to EG20a$2. Constrain tau$4 to EG20a$3. Constrain tau$5 to EG20a$4</t>
+          <t>[EG20b_2$5*9.628] (t4_162);</t>
         </is>
       </c>
     </row>
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>f BY EG20b_2*1.303 (a_162);</t>
+          <t>!ITEM: EG20c | jid = 165</t>
         </is>
       </c>
     </row>
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>[EG20b_2$1*3.49] (t1_162);</t>
+          <t>!Constrain slope to EG20a. Constrain tau$1 to EG20a$2.</t>
         </is>
       </c>
     </row>
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>[EG20b_2$2*4.917] (t2_162);</t>
+          <t>f BY EG20c*1.303 (a_162);</t>
         </is>
       </c>
     </row>
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>[EG20b_2$3*6.608] (t3_164);</t>
-        </is>
-      </c>
-    </row>
-    <row r="726">
-      <c r="A726" t="inlineStr">
-        <is>
-          <t>[EG20b_2$4*8.322] (t3_162);</t>
+          <t>[EG20c$1*4.917] (t2_162);</t>
         </is>
       </c>
     </row>
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>[EG20b_2$5*9.628] (t4_162);</t>
+          <t>!ITEM: EG20d | jid = 166</t>
+        </is>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>!Constrain slope to EG20a. Constrain tau$1 to EG20a$1</t>
         </is>
       </c>
     </row>
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>!ITEM: EG20c | jid = 165</t>
+          <t>f BY EG20d*1.303 (a_162);</t>
         </is>
       </c>
     </row>
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>!Constrain slope to EG20a. Constrain tau$1 to EG20a$2.</t>
-        </is>
-      </c>
-    </row>
-    <row r="731">
-      <c r="A731" t="inlineStr">
-        <is>
-          <t>f BY EG20c*1.303 (a_162);</t>
+          <t>[EG20d$1*3.49] (t1_162);</t>
         </is>
       </c>
     </row>
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>[EG20c$1*4.917] (t2_162);</t>
+          <t>!ITEM: EG20e_1 | jid = 167</t>
+        </is>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>!Constrain slope to EG20a. Constrain tau$1 to be less than EG20a$1.</t>
         </is>
       </c>
     </row>
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>!ITEM: EG20d | jid = 166</t>
+          <t>f BY EG20e_1*1.303 (a_162);</t>
         </is>
       </c>
     </row>
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>!Constrain slope to EG20a. Constrain tau$1 to EG20a$1</t>
-        </is>
-      </c>
-    </row>
-    <row r="736">
-      <c r="A736" t="inlineStr">
-        <is>
-          <t>f BY EG20d*1.303 (a_162);</t>
+          <t>[EG20e_1$1*4.544] (t1_167);</t>
         </is>
       </c>
     </row>
     <row r="737">
       <c r="A737" t="inlineStr">
         <is>
-          <t>[EG20d$1*3.49] (t1_162);</t>
+          <t>!ITEM: EG20e_2 | jid = 168</t>
+        </is>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>!Constrain slope to EG20a. Constrain tau$1 to be equal to EG20e_1$1.</t>
         </is>
       </c>
     </row>
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>!ITEM: EG20e_1 | jid = 167</t>
+          <t>f BY EG20e_2*1.303 (a_162);</t>
         </is>
       </c>
     </row>
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
-          <t>!Constrain slope to EG20a. Constrain tau$1 to be less than EG20a$1.</t>
-        </is>
-      </c>
-    </row>
-    <row r="741">
-      <c r="A741" t="inlineStr">
-        <is>
-          <t>f BY EG20e_1*1.303 (a_162);</t>
+          <t>[EG20e_2$1*4.544] (t1_167);</t>
         </is>
       </c>
     </row>
     <row r="742">
       <c r="A742" t="inlineStr">
         <is>
-          <t>[EG20e_1$1*4.544] (t1_167);</t>
+          <t>!ITEM: EG21a | jid = 169</t>
+        </is>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="inlineStr">
+        <is>
+          <t>f BY EG21a*1.351 (a_169);</t>
         </is>
       </c>
     </row>
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>!ITEM: EG20e_2 | jid = 168</t>
+          <t>[EG21a$1*5.293] (t1_169);</t>
         </is>
       </c>
     </row>
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t>!Constrain slope to EG20a. Constrain tau$1 to be equal to EG20e_1$1.</t>
+          <t>[EG21a$2*6.624] (t2_169);</t>
         </is>
       </c>
     </row>
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>f BY EG20e_2*1.303 (a_162);</t>
+          <t>[EG21a$3*7.122] (t3_169);</t>
         </is>
       </c>
     </row>
     <row r="747">
       <c r="A747" t="inlineStr">
         <is>
-          <t>[EG20e_2$1*4.544] (t1_167);</t>
+          <t>[EG21a$4*8.37] (t4_169);</t>
         </is>
       </c>
     </row>
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>!ITEM: EG21a | jid = 169</t>
+          <t>!ITEM: EG21b | jid = 170</t>
         </is>
       </c>
     </row>
     <row r="750">
       <c r="A750" t="inlineStr">
         <is>
-          <t>f BY EG21a*1.351 (a_169);</t>
+          <t>!Constrain slope to EG21a. Constrain tau$1 to be a simplex  between EG21a$1 and EG21a$4</t>
         </is>
       </c>
     </row>
     <row r="751">
       <c r="A751" t="inlineStr">
         <is>
-          <t>[EG21a$1*5.293] (t1_169);</t>
+          <t>f BY EG21b*1.351 (a_169);</t>
         </is>
       </c>
     </row>
     <row r="752">
       <c r="A752" t="inlineStr">
         <is>
-          <t>[EG21a$2*6.624] (t2_169);</t>
-        </is>
-      </c>
-    </row>
-    <row r="753">
-      <c r="A753" t="inlineStr">
-        <is>
-          <t>[EG21a$3*7.122] (t3_169);</t>
+          <t>[EG21b$1*5.785] (t1_170);</t>
         </is>
       </c>
     </row>
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>[EG21a$4*8.37] (t4_169);</t>
+          <t>!ITEM: EG22_1 | jid = 171</t>
+        </is>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="inlineStr">
+        <is>
+          <t>f BY EG22_1*1.558 (a_171);</t>
         </is>
       </c>
     </row>
     <row r="756">
       <c r="A756" t="inlineStr">
         <is>
-          <t>!ITEM: EG21b | jid = 170</t>
+          <t>[EG22_1$1*8.518] (t1_171);</t>
         </is>
       </c>
     </row>
     <row r="757">
       <c r="A757" t="inlineStr">
         <is>
-          <t>!Constrain slope to EG21a. Constrain tau$1 to be a simplex  between EG21a$1 and EG21a$4</t>
+          <t>[EG22_1$2*10.009] (t2_171);</t>
         </is>
       </c>
     </row>
     <row r="758">
       <c r="A758" t="inlineStr">
         <is>
-          <t>f BY EG21b*1.351 (a_169);</t>
+          <t>[EG22_1$3*10.617] (t3_171);</t>
         </is>
       </c>
     </row>
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>[EG21b$1*5.785] (t1_170);</t>
+          <t>[EG22_1$4*12.268] (t4_171);</t>
         </is>
       </c>
     </row>
     <row r="761">
       <c r="A761" t="inlineStr">
         <is>
-          <t>!ITEM: EG22_1 | jid = 171</t>
+          <t>!ITEM: EG22_2 | jid = 172</t>
         </is>
       </c>
     </row>
     <row r="762">
       <c r="A762" t="inlineStr">
         <is>
-          <t>f BY EG22_1*1.558 (a_171);</t>
+          <t>!Constrain all to EG22_1</t>
         </is>
       </c>
     </row>
     <row r="763">
       <c r="A763" t="inlineStr">
         <is>
-          <t>[EG22_1$1*8.518] (t1_171);</t>
+          <t>f BY EG22_2*1.558 (a_171);</t>
         </is>
       </c>
     </row>
     <row r="764">
       <c r="A764" t="inlineStr">
         <is>
-          <t>[EG22_1$2*10.009] (t2_171);</t>
+          <t>[EG22_2$1*8.518] (t1_171);</t>
         </is>
       </c>
     </row>
     <row r="765">
       <c r="A765" t="inlineStr">
         <is>
-          <t>[EG22_1$3*10.617] (t3_171);</t>
+          <t>[EG22_2$2*10.009] (t2_171);</t>
         </is>
       </c>
     </row>
     <row r="766">
       <c r="A766" t="inlineStr">
         <is>
-          <t>[EG22_1$4*12.268] (t4_171);</t>
-        </is>
-      </c>
-    </row>
-    <row r="768">
-      <c r="A768" t="inlineStr">
-        <is>
-          <t>!ITEM: EG22_2 | jid = 172</t>
+          <t>[EG22_2$3*10.617] (t3_171);</t>
+        </is>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="inlineStr">
+        <is>
+          <t>[EG22_2$4*12.268] (t4_171);</t>
         </is>
       </c>
     </row>
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>!Constrain all to EG22_1</t>
+          <t>!ITEM: EG23a | jid = 173</t>
         </is>
       </c>
     </row>
     <row r="770">
       <c r="A770" t="inlineStr">
         <is>
-          <t>f BY EG22_2*1.558 (a_171);</t>
+          <t>f BY EG23a*0.673 (a_173);</t>
         </is>
       </c>
     </row>
     <row r="771">
       <c r="A771" t="inlineStr">
         <is>
-          <t>[EG22_2$1*8.518] (t1_171);</t>
+          <t>[EG23a$1*-1.553] (t1_173);</t>
         </is>
       </c>
     </row>
     <row r="772">
       <c r="A772" t="inlineStr">
         <is>
-          <t>[EG22_2$2*10.009] (t2_171);</t>
+          <t>[EG23a$2*1.956] (t2_173);</t>
         </is>
       </c>
     </row>
     <row r="773">
       <c r="A773" t="inlineStr">
         <is>
-          <t>[EG22_2$3*10.617] (t3_171);</t>
+          <t>[EG23a$3*3.357] (t3_173);</t>
         </is>
       </c>
     </row>
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>[EG22_2$4*12.268] (t4_171);</t>
+          <t>[EG23a$4*6.12] (t4_173);</t>
         </is>
       </c>
     </row>
     <row r="776">
       <c r="A776" t="inlineStr">
         <is>
-          <t>!ITEM: EG23a | jid = 173</t>
+          <t>!ITEM: EG23b | jid = 174</t>
         </is>
       </c>
     </row>
     <row r="777">
       <c r="A777" t="inlineStr">
         <is>
-          <t>f BY EG23a*0.673 (a_173);</t>
+          <t>!Constrain slope to EG23a. Constrain tau$1 to be a simplex between EG23a$1 and EG23a$4</t>
         </is>
       </c>
     </row>
     <row r="778">
       <c r="A778" t="inlineStr">
         <is>
-          <t>[EG23a$1*-1.553] (t1_173);</t>
+          <t>f BY EG23b*0.673 (a_173);</t>
         </is>
       </c>
     </row>
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>[EG23a$2*1.956] (t2_173);</t>
-        </is>
-      </c>
-    </row>
-    <row r="780">
-      <c r="A780" t="inlineStr">
-        <is>
-          <t>[EG23a$3*3.357] (t3_173);</t>
+          <t>[EG23b$1*-0.326] (t1_174);</t>
         </is>
       </c>
     </row>
     <row r="781">
       <c r="A781" t="inlineStr">
         <is>
-          <t>[EG23a$4*6.12] (t4_173);</t>
+          <t>!ITEM: EG24a | jid = 175</t>
+        </is>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="inlineStr">
+        <is>
+          <t>f BY EG24a*0.482 (a_175);</t>
         </is>
       </c>
     </row>
     <row r="783">
       <c r="A783" t="inlineStr">
         <is>
-          <t>!ITEM: EG23b | jid = 174</t>
+          <t>[EG24a$1*-0.821] (t1_175);</t>
         </is>
       </c>
     </row>
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t>!Constrain slope to EG23a. Constrain tau$1 to be a simplex between EG23a$1 and EG23a$4</t>
+          <t>[EG24a$2*1.048] (t2_175);</t>
         </is>
       </c>
     </row>
     <row r="785">
       <c r="A785" t="inlineStr">
         <is>
-          <t>f BY EG23b*0.673 (a_173);</t>
+          <t>[EG24a$3*2.266] (t3_175);</t>
         </is>
       </c>
     </row>
     <row r="786">
       <c r="A786" t="inlineStr">
         <is>
-          <t>[EG23b$1*-0.326] (t1_174);</t>
+          <t>[EG24a$4*5.575] (t4_175);</t>
         </is>
       </c>
     </row>
     <row r="788">
       <c r="A788" t="inlineStr">
         <is>
-          <t>!ITEM: EG24a | jid = 175</t>
+          <t>!ITEM: EG24b | jid = 176</t>
         </is>
       </c>
     </row>
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>f BY EG24a*0.482 (a_175);</t>
+          <t>!Constrain slope to EG24a</t>
         </is>
       </c>
     </row>
     <row r="790">
       <c r="A790" t="inlineStr">
         <is>
-          <t>[EG24a$1*-0.821] (t1_175);</t>
+          <t>f BY EG24b*0.482 (a_175);</t>
+        </is>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="inlineStr">
+        <is>
+          <t>[EG24b$1*-1.241] (t1_176);</t>
         </is>
       </c>
     </row>
     <row r="792">
       <c r="A792" t="inlineStr">
         <is>
-          <t>!ITEM: EG24b | jid = 176</t>
+          <t>[EG24b$2*0.557] (t2_176);</t>
         </is>
       </c>
     </row>
     <row r="793">
       <c r="A793" t="inlineStr">
         <is>
-          <t>!Constrain slope to EG24a</t>
+          <t>[EG24b$3*1.646] (t3_176);</t>
         </is>
       </c>
     </row>
     <row r="794">
       <c r="A794" t="inlineStr">
         <is>
-          <t>f BY EG24b*0.482 (a_175);</t>
-        </is>
-      </c>
-    </row>
-    <row r="795">
-      <c r="A795" t="inlineStr">
-        <is>
-          <t>[EG24b$1*-1.241] (t1_176);</t>
+          <t>[EG24b$4*5.732] (t4_176);</t>
         </is>
       </c>
     </row>
     <row r="796">
       <c r="A796" t="inlineStr">
         <is>
-          <t>[EG24b$2*0.557] (t2_176);</t>
+          <t>!ITEM: EG25a | jid = 177</t>
         </is>
       </c>
     </row>
     <row r="797">
       <c r="A797" t="inlineStr">
         <is>
-          <t>[EG24b$3*1.646] (t3_176);</t>
+          <t>f BY EG25a*0.369 (a_177);</t>
         </is>
       </c>
     </row>
     <row r="798">
       <c r="A798" t="inlineStr">
         <is>
-          <t>[EG24b$4*5.732] (t4_176);</t>
+          <t>[EG25a$1*-1.983] (t1_177);</t>
+        </is>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="inlineStr">
+        <is>
+          <t>[EG25a$2*0.273] (t2_177);</t>
         </is>
       </c>
     </row>
     <row r="800">
       <c r="A800" t="inlineStr">
         <is>
-          <t>!ITEM: EG25a | jid = 177</t>
+          <t>[EG25a$3*1.509] (t3_177);</t>
         </is>
       </c>
     </row>
     <row r="801">
       <c r="A801" t="inlineStr">
         <is>
-          <t>f BY EG25a*0.369 (a_177);</t>
-        </is>
-      </c>
-    </row>
-    <row r="802">
-      <c r="A802" t="inlineStr">
-        <is>
-          <t>[EG25a$1*-1.983] (t1_177);</t>
+          <t>[EG25a$4*4.337] (t4_177);</t>
         </is>
       </c>
     </row>
     <row r="803">
       <c r="A803" t="inlineStr">
         <is>
-          <t>[EG25a$2*0.273] (t2_177);</t>
+          <t>!ITEM: EG25b | jid = 178</t>
         </is>
       </c>
     </row>
     <row r="804">
       <c r="A804" t="inlineStr">
         <is>
-          <t>[EG25a$3*1.509] (t3_177);</t>
+          <t>!Constrain slope to EG25a</t>
         </is>
       </c>
     </row>
     <row r="805">
       <c r="A805" t="inlineStr">
         <is>
-          <t>[EG25a$4*4.337] (t4_177);</t>
-        </is>
-      </c>
-    </row>
-    <row r="807">
-      <c r="A807" t="inlineStr">
-        <is>
-          <t>!ITEM: EG25b | jid = 178</t>
+          <t>f BY EG25b*0.369 (a_177);</t>
+        </is>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="inlineStr">
+        <is>
+          <t>[EG25b$1*0.613] (t1_178);</t>
         </is>
       </c>
     </row>
     <row r="808">
       <c r="A808" t="inlineStr">
         <is>
-          <t>!Constrain slope to EG25a</t>
+          <t>!ITEM: EG26a | jid = 179</t>
         </is>
       </c>
     </row>
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>f BY EG25b*0.369 (a_177);</t>
+          <t>f BY EG26a*0.003 (a_179);</t>
         </is>
       </c>
     </row>
     <row r="810">
       <c r="A810" t="inlineStr">
         <is>
-          <t>[EG25b$1*0.613] (t1_178);</t>
+          <t>[EG26a$1*-4.328] (t1_179);</t>
+        </is>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="inlineStr">
+        <is>
+          <t>[EG26a$2*-3.041] (t2_179);</t>
         </is>
       </c>
     </row>
     <row r="812">
       <c r="A812" t="inlineStr">
         <is>
-          <t>!ITEM: EG26a | jid = 179</t>
+          <t>[EG26a$3*-1.972] (t3_179);</t>
         </is>
       </c>
     </row>
     <row r="813">
       <c r="A813" t="inlineStr">
         <is>
-          <t>f BY EG26a*0.003 (a_179);</t>
-        </is>
-      </c>
-    </row>
-    <row r="814">
-      <c r="A814" t="inlineStr">
-        <is>
-          <t>[EG26a$1*-4.328] (t1_179);</t>
+          <t>[EG26a$4*0.848] (t4_179);</t>
+        </is>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="inlineStr">
+        <is>
+          <t>!ITEM: EG26b | jid = 180</t>
         </is>
       </c>
     </row>
     <row r="816">
       <c r="A816" t="inlineStr">
         <is>
-          <t>!ITEM: EG26b | jid = 180</t>
+          <t>!Constrain slope to EG26a</t>
         </is>
       </c>
     </row>
     <row r="817">
       <c r="A817" t="inlineStr">
         <is>
-          <t>!Constrain slope to EG26a</t>
+          <t>f BY EG26b*0.003 (a_179);</t>
         </is>
       </c>
     </row>
     <row r="818">
       <c r="A818" t="inlineStr">
         <is>
-          <t>f BY EG26b*0.003 (a_179);</t>
+          <t>[EG26b$1*-1.714] (t1_180);</t>
         </is>
       </c>
     </row>
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>[EG26b$1*-1.714] (t1_180);</t>
+          <t>[EG26b$2*0.845] (t2_180);</t>
         </is>
       </c>
     </row>
     <row r="820">
       <c r="A820" t="inlineStr">
         <is>
-          <t>[EG26b$2*0.845] (t2_180);</t>
+          <t>[EG26b$3*1.843] (t3_180);</t>
         </is>
       </c>
     </row>
     <row r="821">
       <c r="A821" t="inlineStr">
         <is>
-          <t>[EG26b$3*1.843] (t3_180);</t>
-        </is>
-      </c>
-    </row>
-    <row r="822">
-      <c r="A822" t="inlineStr">
-        <is>
           <t>[EG26b$4*3.161] (t4_180);</t>
+        </is>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="inlineStr">
+        <is>
+          <t>!ITEM: EG27a | jid = 181</t>
         </is>
       </c>
     </row>
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>!ITEM: EG27a | jid = 181</t>
+          <t>f BY EG27a*1.415 (a_181);</t>
         </is>
       </c>
     </row>
     <row r="825">
       <c r="A825" t="inlineStr">
         <is>
-          <t>f BY EG27a*1.415 (a_181);</t>
+          <t>[EG27a$1*3.171] (t1_181);</t>
         </is>
       </c>
     </row>
     <row r="826">
       <c r="A826" t="inlineStr">
         <is>
-          <t>[EG27a$1*3.171] (t1_181);</t>
+          <t>[EG27a$2*4.909] (t2_181);</t>
         </is>
       </c>
     </row>
     <row r="827">
       <c r="A827" t="inlineStr">
         <is>
-          <t>[EG27a$2*4.909] (t2_181);</t>
+          <t>[EG27a$3*5.584] (t3_181);</t>
         </is>
       </c>
     </row>
     <row r="828">
       <c r="A828" t="inlineStr">
         <is>
-          <t>[EG27a$3*5.584] (t3_181);</t>
-        </is>
-      </c>
-    </row>
-    <row r="829">
-      <c r="A829" t="inlineStr">
-        <is>
           <t>[EG27a$4*7.553] (t4_181);</t>
+        </is>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="inlineStr">
+        <is>
+          <t>!ITEM: EG27b_1 | jid = 182</t>
         </is>
       </c>
     </row>
     <row r="831">
       <c r="A831" t="inlineStr">
         <is>
-          <t>!ITEM: EG27b_1 | jid = 182</t>
+          <t>!Constrain slope to EG27a. Constrain tau$1 to be between EG27a$1 and EG27a$4</t>
         </is>
       </c>
     </row>
     <row r="832">
       <c r="A832" t="inlineStr">
         <is>
-          <t>!Constrain slope to EG27a. Constrain tau$1 to be between EG27a$1 and EG27a$4</t>
+          <t>f BY EG27b_1*1.415 (a_181);</t>
         </is>
       </c>
     </row>
     <row r="833">
       <c r="A833" t="inlineStr">
         <is>
-          <t>f BY EG27b_1*1.415 (a_181);</t>
-        </is>
-      </c>
-    </row>
-    <row r="834">
-      <c r="A834" t="inlineStr">
-        <is>
           <t>[EG27b_1$1*4.563] (t1_182);</t>
+        </is>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="inlineStr">
+        <is>
+          <t>!ITEM: EG27b_2 | jid = 183</t>
         </is>
       </c>
     </row>
     <row r="836">
       <c r="A836" t="inlineStr">
         <is>
-          <t>!ITEM: EG27b_2 | jid = 183</t>
+          <t>!Constrain slope to EG27a. Constrain tau$1 to be EG27b_1$1</t>
         </is>
       </c>
     </row>
     <row r="837">
       <c r="A837" t="inlineStr">
         <is>
-          <t>!Constrain slope to EG27a. Constrain tau$1 to be EG27b_1$1</t>
+          <t>f BY EG27b_2*1.415 (a_181);</t>
         </is>
       </c>
     </row>
     <row r="838">
       <c r="A838" t="inlineStr">
         <is>
-          <t>f BY EG27b_2*1.415 (a_181);</t>
-        </is>
-      </c>
-    </row>
-    <row r="839">
-      <c r="A839" t="inlineStr">
-        <is>
           <t>[EG27b_2$1*4.563] (t1_182);</t>
+        </is>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" t="inlineStr">
+        <is>
+          <t>!ITEM: EG27b_3 | jid = 184</t>
         </is>
       </c>
     </row>
     <row r="841">
       <c r="A841" t="inlineStr">
         <is>
-          <t>!ITEM: EG27b_3 | jid = 184</t>
+          <t>!Constrain slope to EG27a. Constrain tau$1 to be EG27b_1$1</t>
         </is>
       </c>
     </row>
     <row r="842">
       <c r="A842" t="inlineStr">
         <is>
-          <t>!Constrain slope to EG27a. Constrain tau$1 to be EG27b_1$1</t>
+          <t>f BY EG27b_3*1.415 (a_181);</t>
         </is>
       </c>
     </row>
     <row r="843">
       <c r="A843" t="inlineStr">
         <is>
-          <t>f BY EG27b_3*1.415 (a_181);</t>
-        </is>
-      </c>
-    </row>
-    <row r="844">
-      <c r="A844" t="inlineStr">
-        <is>
           <t>[EG27b_3$1*4.563] (t1_182);</t>
+        </is>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="inlineStr">
+        <is>
+          <t>!ITEM: EG28a | jid = 185</t>
         </is>
       </c>
     </row>
     <row r="846">
       <c r="A846" t="inlineStr">
         <is>
-          <t>!ITEM: EG28a | jid = 185</t>
+          <t>f BY EG28a*1.788 (a_185);</t>
         </is>
       </c>
     </row>
     <row r="847">
       <c r="A847" t="inlineStr">
         <is>
-          <t>f BY EG28a*1.788 (a_185);</t>
+          <t>[EG28a$1*9.819] (t1_185);</t>
         </is>
       </c>
     </row>
     <row r="848">
       <c r="A848" t="inlineStr">
         <is>
-          <t>[EG28a$1*9.819] (t1_185);</t>
+          <t>[EG28a$2*10.731] (t2_185);</t>
         </is>
       </c>
     </row>
     <row r="849">
       <c r="A849" t="inlineStr">
         <is>
-          <t>[EG28a$2*10.731] (t2_185);</t>
+          <t>[EG28a$3*11.081] (t3_185);</t>
         </is>
       </c>
     </row>
     <row r="850">
       <c r="A850" t="inlineStr">
         <is>
-          <t>[EG28a$3*11.081] (t3_185);</t>
-        </is>
-      </c>
-    </row>
-    <row r="851">
-      <c r="A851" t="inlineStr">
-        <is>
           <t>[EG28a$4*11.881] (t4_185);</t>
+        </is>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="inlineStr">
+        <is>
+          <t>!ITEM: EG28b | jid = 186</t>
         </is>
       </c>
     </row>
     <row r="853">
       <c r="A853" t="inlineStr">
         <is>
-          <t>!ITEM: EG28b | jid = 186</t>
+          <t>!Constrain slope to EG28a. Constrain tau$1 to be equal to a simplex between EG28a$1 and EG28a$4</t>
         </is>
       </c>
     </row>
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t>!Constrain slope to EG28a. Constrain tau$1 to be equal to a simplex between EG28a$1 and EG28a$4</t>
+          <t>f BY EG28b*1.788 (a_185);</t>
         </is>
       </c>
     </row>
     <row r="855">
       <c r="A855" t="inlineStr">
         <is>
-          <t>f BY EG28b*1.788 (a_185);</t>
-        </is>
-      </c>
-    </row>
-    <row r="856">
-      <c r="A856" t="inlineStr">
-        <is>
           <t>[EG28b$1*10.149] (t1_186);</t>
+        </is>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="inlineStr">
+        <is>
+          <t>!ITEM: EG28c | jid = 187</t>
         </is>
       </c>
     </row>
     <row r="858">
       <c r="A858" t="inlineStr">
         <is>
-          <t>!ITEM: EG28c | jid = 187</t>
+          <t>!Constrain slope to EG28a. Constrain tau$1 to be equal to a simplex between EG28a$1 and EG28a$4</t>
         </is>
       </c>
     </row>
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t>!Constrain slope to EG28a. Constrain tau$1 to be equal to a simplex between EG28a$1 and EG28a$4</t>
+          <t>f BY EG28c*1.788 (a_185);</t>
         </is>
       </c>
     </row>
     <row r="860">
       <c r="A860" t="inlineStr">
         <is>
-          <t>f BY EG28c*1.788 (a_185);</t>
-        </is>
-      </c>
-    </row>
-    <row r="861">
-      <c r="A861" t="inlineStr">
-        <is>
           <t>[EG28c$1*10.149] (t1_187);</t>
+        </is>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="inlineStr">
+        <is>
+          <t>!ITEM: EG29a | jid = 188</t>
         </is>
       </c>
     </row>
     <row r="863">
       <c r="A863" t="inlineStr">
         <is>
-          <t>!ITEM: EG29a | jid = 188</t>
+          <t>f BY EG29a*1.201 (a_188);</t>
         </is>
       </c>
     </row>
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t>f BY EG29a*1.201 (a_188);</t>
+          <t>[EG29a$1*3.849] (t1_188);</t>
         </is>
       </c>
     </row>
     <row r="865">
       <c r="A865" t="inlineStr">
         <is>
-          <t>[EG29a$1*3.849] (t1_188);</t>
+          <t>[EG29a$2*6.025] (t2_188);</t>
         </is>
       </c>
     </row>
     <row r="866">
       <c r="A866" t="inlineStr">
         <is>
-          <t>[EG29a$2*6.025] (t2_188);</t>
+          <t>[EG29a$3*6.622] (t3_188);</t>
         </is>
       </c>
     </row>
     <row r="867">
       <c r="A867" t="inlineStr">
         <is>
-          <t>[EG29a$3*6.622] (t3_188);</t>
-        </is>
-      </c>
-    </row>
-    <row r="868">
-      <c r="A868" t="inlineStr">
-        <is>
           <t>[EG29a$4*7.938] (t4_188);</t>
+        </is>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="inlineStr">
+        <is>
+          <t>!ITEM: EG29b | jid = 189</t>
         </is>
       </c>
     </row>
     <row r="870">
       <c r="A870" t="inlineStr">
         <is>
-          <t>!ITEM: EG29b | jid = 189</t>
+          <t>!Constrain slope to EG29a. Constrain tau$1 to be equal to EG29a$1. Constrain tau$2  to be equal to EG29a$3. Constrain tau$3 to be equal to EG29a$4</t>
         </is>
       </c>
     </row>
     <row r="871">
       <c r="A871" t="inlineStr">
         <is>
-          <t>!Constrain slope to EG29a. Constrain tau$1 to be equal to EG29a$1. Constrain tau$2  to be equal to EG29a$3. Constrain tau$3 to be equal to EG29a$4</t>
+          <t>f BY EG29b*1.201 (a_188);</t>
         </is>
       </c>
     </row>
     <row r="872">
       <c r="A872" t="inlineStr">
         <is>
-          <t>f BY EG29b*1.201 (a_188);</t>
+          <t>[EG29b$1*3.849] (t1_188);</t>
         </is>
       </c>
     </row>
     <row r="873">
       <c r="A873" t="inlineStr">
         <is>
-          <t>[EG29b$1*3.849] (t1_188);</t>
+          <t>[EG29b$2*6.622] (t3_188);</t>
         </is>
       </c>
     </row>
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t>[EG29b$2*6.622] (t3_188);</t>
-        </is>
-      </c>
-    </row>
-    <row r="875">
-      <c r="A875" t="inlineStr">
-        <is>
           <t>[EG29b$3*7.938] (t4_188);</t>
+        </is>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="inlineStr">
+        <is>
+          <t>!ITEM: EG29c | jid = 190</t>
         </is>
       </c>
     </row>
     <row r="877">
       <c r="A877" t="inlineStr">
         <is>
-          <t>!ITEM: EG29c | jid = 190</t>
+          <t>!Constrain slope to EG29a. Constrain tau$1 to be equal to EG29a$1.</t>
         </is>
       </c>
     </row>
     <row r="878">
       <c r="A878" t="inlineStr">
         <is>
-          <t>!Constrain slope to EG29a. Constrain tau$1 to be equal to EG29a$1.</t>
+          <t>f BY EG29c*1.201 (a_188);</t>
         </is>
       </c>
     </row>
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t>f BY EG29c*1.201 (a_188);</t>
-        </is>
-      </c>
-    </row>
-    <row r="880">
-      <c r="A880" t="inlineStr">
-        <is>
           <t>[EG29c$1*3.849] (t1_188);</t>
+        </is>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="inlineStr">
+        <is>
+          <t>!ITEM: EG3_1 | jid = 191</t>
         </is>
       </c>
     </row>
     <row r="882">
       <c r="A882" t="inlineStr">
         <is>
-          <t>!ITEM: EG3_1 | jid = 191</t>
+          <t>f BY EG3_1*2.08 (a_191);</t>
         </is>
       </c>
     </row>
     <row r="883">
       <c r="A883" t="inlineStr">
         <is>
-          <t>f BY EG3_1*2.08 (a_191);</t>
-        </is>
-      </c>
-    </row>
-    <row r="884">
-      <c r="A884" t="inlineStr">
-        <is>
           <t>[EG3_1$1*6.773] (t1_191);</t>
+        </is>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="inlineStr">
+        <is>
+          <t>!ITEM: EG3_2 | jid = 192</t>
         </is>
       </c>
     </row>
     <row r="886">
       <c r="A886" t="inlineStr">
         <is>
-          <t>!ITEM: EG3_2 | jid = 192</t>
+          <t>!Constrain all to EG3_1</t>
         </is>
       </c>
     </row>
     <row r="887">
       <c r="A887" t="inlineStr">
         <is>
-          <t>!Constrain all to EG3_1</t>
+          <t>f BY EG3_2*2.08 (a_191);</t>
         </is>
       </c>
     </row>
     <row r="888">
       <c r="A888" t="inlineStr">
         <is>
-          <t>f BY EG3_2*2.08 (a_191);</t>
-        </is>
-      </c>
-    </row>
-    <row r="889">
-      <c r="A889" t="inlineStr">
-        <is>
           <t>[EG3_2$1*6.773] (t1_191);</t>
+        </is>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="inlineStr">
+        <is>
+          <t>!ITEM: EG30a | jid = 193</t>
         </is>
       </c>
     </row>
     <row r="891">
       <c r="A891" t="inlineStr">
         <is>
-          <t>!ITEM: EG30a | jid = 193</t>
+          <t>!Constrain slope to EG27a</t>
         </is>
       </c>
     </row>
     <row r="892">
       <c r="A892" t="inlineStr">
         <is>
-          <t>!Constrain slope to EG27a</t>
+          <t>f BY EG30a*1.415 (a_181);</t>
         </is>
       </c>
     </row>
     <row r="893">
       <c r="A893" t="inlineStr">
         <is>
-          <t>f BY EG30a*1.415 (a_181);</t>
+          <t>[EG30a$1*4.104] (t1_193);</t>
         </is>
       </c>
     </row>
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t>[EG30a$1*4.104] (t1_193);</t>
+          <t>[EG30a$2*6.105] (t2_193);</t>
         </is>
       </c>
     </row>
     <row r="895">
       <c r="A895" t="inlineStr">
         <is>
-          <t>[EG30a$2*6.105] (t2_193);</t>
-        </is>
-      </c>
-    </row>
-    <row r="896">
-      <c r="A896" t="inlineStr">
-        <is>
           <t>[EG30a$3*9.71] (t3_193);</t>
+        </is>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" t="inlineStr">
+        <is>
+          <t>!ITEM: EG30b | jid = 194</t>
         </is>
       </c>
     </row>
     <row r="898">
       <c r="A898" t="inlineStr">
         <is>
-          <t>!ITEM: EG30b | jid = 194</t>
+          <t>!Constrain slope to EG30a. Constrain tau$1 to be a simplex between EG30a$1 and EG30a$3</t>
         </is>
       </c>
     </row>
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>!Constrain slope to EG30a. Constrain tau$1 to be a simplex between EG30a$1 and EG30a$3</t>
+          <t>f BY EG30b*1.406 (a_193);</t>
         </is>
       </c>
     </row>
     <row r="900">
       <c r="A900" t="inlineStr">
         <is>
-          <t>f BY EG30b*1.406 (a_193);</t>
-        </is>
-      </c>
-    </row>
-    <row r="901">
-      <c r="A901" t="inlineStr">
-        <is>
           <t>[EG30b$1*5.001] (t1_194);</t>
+        </is>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="inlineStr">
+        <is>
+          <t>!ITEM: EG30c | jid = 195</t>
         </is>
       </c>
     </row>
     <row r="903">
       <c r="A903" t="inlineStr">
         <is>
-          <t>!ITEM: EG30c | jid = 195</t>
+          <t>!Constrain slope to EG27a. Constrain tau$1 to between EG30a$1 and EG30a$3</t>
         </is>
       </c>
     </row>
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t>!Constrain slope to EG27a. Constrain tau$1 to between EG30a$1 and EG30a$3</t>
+          <t>f BY EG30c*1.415 (a_181);</t>
         </is>
       </c>
     </row>
     <row r="905">
       <c r="A905" t="inlineStr">
         <is>
-          <t>f BY EG30c*1.415 (a_181);</t>
-        </is>
-      </c>
-    </row>
-    <row r="906">
-      <c r="A906" t="inlineStr">
-        <is>
           <t>[EG30c$1*5.93] (t1_195);</t>
+        </is>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="inlineStr">
+        <is>
+          <t>!ITEM: EG30d | jid = 196</t>
         </is>
       </c>
     </row>
     <row r="908">
       <c r="A908" t="inlineStr">
         <is>
-          <t>!ITEM: EG30d | jid = 196</t>
+          <t>!Constrain slope to EG27a</t>
         </is>
       </c>
     </row>
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t>!Constrain slope to EG27a</t>
+          <t>f BY EG30d*1.415 (a_181);</t>
         </is>
       </c>
     </row>
     <row r="910">
       <c r="A910" t="inlineStr">
         <is>
-          <t>f BY EG30d*1.415 (a_181);</t>
-        </is>
-      </c>
-    </row>
-    <row r="911">
-      <c r="A911" t="inlineStr">
-        <is>
           <t>[EG30d$1*7.232] (t1_196);</t>
+        </is>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="inlineStr">
+        <is>
+          <t>!ITEM: EG30e | jid = 197</t>
         </is>
       </c>
     </row>
     <row r="913">
       <c r="A913" t="inlineStr">
         <is>
-          <t>!ITEM: EG30e | jid = 197</t>
+          <t>!Constrain slope to EG27a</t>
         </is>
       </c>
     </row>
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t>!Constrain slope to EG27a</t>
+          <t>f BY EG30e*1.415 (a_181);</t>
         </is>
       </c>
     </row>
     <row r="915">
       <c r="A915" t="inlineStr">
         <is>
-          <t>f BY EG30e*1.415 (a_181);</t>
-        </is>
-      </c>
-    </row>
-    <row r="916">
-      <c r="A916" t="inlineStr">
-        <is>
           <t>[EG30e$1*7.029] (t1_197);</t>
+        </is>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" t="inlineStr">
+        <is>
+          <t>!ITEM: EG30f | jid = 198</t>
         </is>
       </c>
     </row>
     <row r="918">
       <c r="A918" t="inlineStr">
         <is>
-          <t>!ITEM: EG30f | jid = 198</t>
+          <t>!Constrain slope to EG27a</t>
         </is>
       </c>
     </row>
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t>!Constrain slope to EG27a</t>
+          <t>f BY EG30f*1.415 (a_181);</t>
         </is>
       </c>
     </row>
     <row r="920">
       <c r="A920" t="inlineStr">
         <is>
-          <t>f BY EG30f*1.415 (a_181);</t>
-        </is>
-      </c>
-    </row>
-    <row r="921">
-      <c r="A921" t="inlineStr">
-        <is>
           <t>[EG30f$1*4.776] (t1_198);</t>
+        </is>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="inlineStr">
+        <is>
+          <t>!ITEM: EG31a_1 | jid = 199</t>
         </is>
       </c>
     </row>
     <row r="923">
       <c r="A923" t="inlineStr">
         <is>
-          <t>!ITEM: EG31a_1 | jid = 199</t>
+          <t>f BY EG31a_1*0.871 (a_199);</t>
         </is>
       </c>
     </row>
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>f BY EG31a_1*0.871 (a_199);</t>
-        </is>
-      </c>
-    </row>
-    <row r="925">
-      <c r="A925" t="inlineStr">
-        <is>
           <t>[EG31a_1$1*0.754] (t1_199);</t>
+        </is>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="inlineStr">
+        <is>
+          <t>!ITEM: EG31a_2 | jid = 200</t>
         </is>
       </c>
     </row>
     <row r="927">
       <c r="A927" t="inlineStr">
         <is>
-          <t>!ITEM: EG31a_2 | jid = 200</t>
+          <t>!Constrain all to EG31a_1.</t>
         </is>
       </c>
     </row>
     <row r="928">
       <c r="A928" t="inlineStr">
         <is>
-          <t>!Constrain all to EG31a_1.</t>
+          <t>f BY EG31a_2*0.871 (a_199);</t>
         </is>
       </c>
     </row>
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t>f BY EG31a_2*0.871 (a_199);</t>
-        </is>
-      </c>
-    </row>
-    <row r="930">
-      <c r="A930" t="inlineStr">
-        <is>
           <t>[EG31a_2$1*0.754] (t1_199);</t>
+        </is>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" t="inlineStr">
+        <is>
+          <t>!ITEM: EG31b | jid = 201</t>
         </is>
       </c>
     </row>
     <row r="932">
       <c r="A932" t="inlineStr">
         <is>
-          <t>!ITEM: EG31b | jid = 201</t>
+          <t>!Constrain slope to be equal to EG31a_1. Constrain tau$1 to be less than EG31a_1$1.</t>
         </is>
       </c>
     </row>
     <row r="933">
       <c r="A933" t="inlineStr">
         <is>
-          <t>!Constrain slope to be equal to EG31a_1. Constrain tau$1 to be less than EG31a_1$1.</t>
+          <t>f BY EG31b*0.871 (a_199);</t>
         </is>
       </c>
     </row>
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>f BY EG31b*0.871 (a_199);</t>
-        </is>
-      </c>
-    </row>
-    <row r="935">
-      <c r="A935" t="inlineStr">
-        <is>
           <t>[EG31b$1*-0.735] (t1_201);</t>
+        </is>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" t="inlineStr">
+        <is>
+          <t>!ITEM: EG32a | jid = 202</t>
         </is>
       </c>
     </row>
     <row r="937">
       <c r="A937" t="inlineStr">
         <is>
-          <t>!ITEM: EG32a | jid = 202</t>
+          <t>f BY EG32a*1.67 (a_202);</t>
         </is>
       </c>
     </row>
     <row r="938">
       <c r="A938" t="inlineStr">
         <is>
-          <t>f BY EG32a*1.67 (a_202);</t>
+          <t>[EG32a$1*7.33] (t1_202);</t>
         </is>
       </c>
     </row>
     <row r="939">
       <c r="A939" t="inlineStr">
         <is>
-          <t>[EG32a$1*7.33] (t1_202);</t>
+          <t>[EG32a$2*9.001] (t2_202);</t>
         </is>
       </c>
     </row>
     <row r="940">
       <c r="A940" t="inlineStr">
         <is>
-          <t>[EG32a$2*9.001] (t2_202);</t>
-        </is>
-      </c>
-    </row>
-    <row r="941">
-      <c r="A941" t="inlineStr">
-        <is>
           <t>[EG32a$3*11.798] (t3_202);</t>
+        </is>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" t="inlineStr">
+        <is>
+          <t>!ITEM: EG32b | jid = 203</t>
         </is>
       </c>
     </row>
     <row r="943">
       <c r="A943" t="inlineStr">
         <is>
-          <t>!ITEM: EG32b | jid = 203</t>
+          <t>!constraint slope to EG32a. Constrain tau$1 to be a simplex between EG32a$1 and EG32a$3</t>
         </is>
       </c>
     </row>
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>!constraint slope to EG32a. Constrain tau$1 to be a simplex between EG32a$1 and EG32a$3</t>
+          <t>f BY EG32b*1.67 (a_202);</t>
         </is>
       </c>
     </row>
     <row r="945">
       <c r="A945" t="inlineStr">
         <is>
-          <t>f BY EG32b*1.67 (a_202);</t>
-        </is>
-      </c>
-    </row>
-    <row r="946">
-      <c r="A946" t="inlineStr">
-        <is>
           <t>[EG32b$1*8.044] (t1_203);</t>
+        </is>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" t="inlineStr">
+        <is>
+          <t>!ITEM: EG33a | jid = 204</t>
         </is>
       </c>
     </row>
     <row r="948">
       <c r="A948" t="inlineStr">
         <is>
-          <t>!ITEM: EG33a | jid = 204</t>
+          <t>f BY EG33a*1.647 (a_204);</t>
         </is>
       </c>
     </row>
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>f BY EG33a*1.647 (a_204);</t>
+          <t>[EG33a$1*8.289] (t1_204);</t>
         </is>
       </c>
     </row>
     <row r="950">
       <c r="A950" t="inlineStr">
         <is>
-          <t>[EG33a$1*8.289] (t1_204);</t>
+          <t>[EG33a$2*9.885] (t2_204);</t>
         </is>
       </c>
     </row>
     <row r="951">
       <c r="A951" t="inlineStr">
         <is>
-          <t>[EG33a$2*9.885] (t2_204);</t>
-        </is>
-      </c>
-    </row>
-    <row r="952">
-      <c r="A952" t="inlineStr">
-        <is>
           <t>[EG33a$3*12.487] (t3_204);</t>
+        </is>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" t="inlineStr">
+        <is>
+          <t>!ITEM: EG33b | jid = 205</t>
         </is>
       </c>
     </row>
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t>!ITEM: EG33b | jid = 205</t>
+          <t>!Constrain slope to EG32a. Constrain tau$1 to be a simplex between EG33a$1 and EG33a$2.</t>
         </is>
       </c>
     </row>
     <row r="955">
       <c r="A955" t="inlineStr">
         <is>
-          <t>!Constrain slope to EG32a. Constrain tau$1 to be a simplex between EG33a$1 and EG33a$2.</t>
+          <t>f BY EG33b*1.67 (a_202);</t>
         </is>
       </c>
     </row>
     <row r="956">
       <c r="A956" t="inlineStr">
         <is>
-          <t>f BY EG33b*1.67 (a_202);</t>
-        </is>
-      </c>
-    </row>
-    <row r="957">
-      <c r="A957" t="inlineStr">
-        <is>
           <t>[EG33b$1*8.544] (t1_205);</t>
+        </is>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" t="inlineStr">
+        <is>
+          <t>!ITEM: EG34a | jid = 206</t>
         </is>
       </c>
     </row>
     <row r="959">
       <c r="A959" t="inlineStr">
         <is>
-          <t>!ITEM: EG34a | jid = 206</t>
+          <t>f BY EG34a*0.755 (a_206);</t>
         </is>
       </c>
     </row>
     <row r="960">
       <c r="A960" t="inlineStr">
         <is>
-          <t>f BY EG34a*0.755 (a_206);</t>
+          <t>[EG34a$1*-0.15] (t1_206);</t>
         </is>
       </c>
     </row>
     <row r="961">
       <c r="A961" t="inlineStr">
         <is>
-          <t>[EG34a$1*-0.15] (t1_206);</t>
-        </is>
-      </c>
-    </row>
-    <row r="962">
-      <c r="A962" t="inlineStr">
-        <is>
           <t>[EG34a$2*3.248] (t2_206);</t>
+        </is>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" t="inlineStr">
+        <is>
+          <t>!ITEM: EG34b | jid = 207</t>
         </is>
       </c>
     </row>
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>!ITEM: EG34b | jid = 207</t>
+          <t>!Constrain slope to EG34a. Constrain tau$1 to EG34a$2.</t>
         </is>
       </c>
     </row>
     <row r="965">
       <c r="A965" t="inlineStr">
         <is>
-          <t>!Constrain slope to EG34a. Constrain tau$1 to EG34a$2.</t>
+          <t>f BY EG34b*0.755 (a_206);</t>
         </is>
       </c>
     </row>
     <row r="966">
       <c r="A966" t="inlineStr">
         <is>
-          <t>f BY EG34b*0.755 (a_206);</t>
-        </is>
-      </c>
-    </row>
-    <row r="967">
-      <c r="A967" t="inlineStr">
-        <is>
           <t>[EG34b$1*3.248] (t2_206);</t>
+        </is>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" t="inlineStr">
+        <is>
+          <t>!ITEM: EG35a | jid = 208</t>
         </is>
       </c>
     </row>
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t>!ITEM: EG35a | jid = 208</t>
+          <t>f BY EG35a*1.288 (a_208);</t>
         </is>
       </c>
     </row>
     <row r="970">
       <c r="A970" t="inlineStr">
         <is>
-          <t>f BY EG35a*1.288 (a_208);</t>
-        </is>
-      </c>
-    </row>
-    <row r="971">
-      <c r="A971" t="inlineStr">
-        <is>
           <t>[EG35a$1*4.274] (t1_208);</t>
+        </is>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" t="inlineStr">
+        <is>
+          <t>!ITEM: EG35b | jid = 209</t>
         </is>
       </c>
     </row>
     <row r="973">
       <c r="A973" t="inlineStr">
         <is>
-          <t>!ITEM: EG35b | jid = 209</t>
+          <t>!Constrain slope to EG35a.</t>
         </is>
       </c>
     </row>
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>!Constrain slope to EG35a.</t>
+          <t>f BY EG35b*1.288 (a_208);</t>
         </is>
       </c>
     </row>
     <row r="975">
       <c r="A975" t="inlineStr">
         <is>
-          <t>f BY EG35b*1.288 (a_208);</t>
-        </is>
-      </c>
-    </row>
-    <row r="976">
-      <c r="A976" t="inlineStr">
-        <is>
           <t>[EG35b$1*3.039] (t1_209);</t>
+        </is>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" t="inlineStr">
+        <is>
+          <t>!ITEM: EG36a | jid = 210</t>
         </is>
       </c>
     </row>
     <row r="978">
       <c r="A978" t="inlineStr">
         <is>
-          <t>!ITEM: EG36a | jid = 210</t>
+          <t>f BY EG36a*1.045 (a_210);</t>
         </is>
       </c>
     </row>
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t>f BY EG36a*1.045 (a_210);</t>
-        </is>
-      </c>
-    </row>
-    <row r="980">
-      <c r="A980" t="inlineStr">
-        <is>
           <t>[EG36a$1*3.543] (t1_210);</t>
+        </is>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" t="inlineStr">
+        <is>
+          <t>!ITEM: EG36b | jid = 211</t>
         </is>
       </c>
     </row>
     <row r="982">
       <c r="A982" t="inlineStr">
         <is>
-          <t>!ITEM: EG36b | jid = 211</t>
+          <t>!Constrain slope to EG36a</t>
         </is>
       </c>
     </row>
     <row r="983">
       <c r="A983" t="inlineStr">
         <is>
-          <t>!Constrain slope to EG36a</t>
+          <t>f BY EG36b*1.045 (a_210);</t>
         </is>
       </c>
     </row>
     <row r="984">
       <c r="A984" t="inlineStr">
         <is>
-          <t>f BY EG36b*1.045 (a_210);</t>
-        </is>
-      </c>
-    </row>
-    <row r="985">
-      <c r="A985" t="inlineStr">
-        <is>
           <t>[EG36b$1*3.052] (t1_211);</t>
+        </is>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" t="inlineStr">
+        <is>
+          <t>!ITEM: EG37_1 | jid = 212</t>
         </is>
       </c>
     </row>
     <row r="987">
       <c r="A987" t="inlineStr">
         <is>
-          <t>!ITEM: EG37_1 | jid = 212</t>
+          <t>f BY EG37_1*0.49 (a_212);</t>
         </is>
       </c>
     </row>
     <row r="988">
       <c r="A988" t="inlineStr">
         <is>
-          <t>f BY EG37_1*0.49 (a_212);</t>
+          <t>[EG37_1$1*-1.258] (t1_212);</t>
         </is>
       </c>
     </row>
     <row r="989">
       <c r="A989" t="inlineStr">
         <is>
-          <t>[EG37_1$1*-1.258] (t1_212);</t>
+          <t>[EG37_1$2*0.66] (t2_212);</t>
         </is>
       </c>
     </row>
     <row r="990">
       <c r="A990" t="inlineStr">
         <is>
-          <t>[EG37_1$2*0.66] (t2_212);</t>
+          <t>[EG37_1$3*1.411] (t3_212);</t>
         </is>
       </c>
     </row>
     <row r="991">
       <c r="A991" t="inlineStr">
         <is>
-          <t>[EG37_1$3*1.411] (t3_212);</t>
-        </is>
-      </c>
-    </row>
-    <row r="992">
-      <c r="A992" t="inlineStr">
-        <is>
           <t>[EG37_1$4*3.597] (t4_212);</t>
+        </is>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" t="inlineStr">
+        <is>
+          <t>!ITEM: EG37_2 | jid = 213</t>
         </is>
       </c>
     </row>
     <row r="994">
       <c r="A994" t="inlineStr">
         <is>
-          <t>!ITEM: EG37_2 | jid = 213</t>
+          <t>!Constrain all to EG37_1</t>
         </is>
       </c>
     </row>
     <row r="995">
       <c r="A995" t="inlineStr">
         <is>
-          <t>!Constrain all to EG37_1</t>
+          <t>f BY EG37_2*0.49 (a_212);</t>
         </is>
       </c>
     </row>
     <row r="996">
       <c r="A996" t="inlineStr">
         <is>
-          <t>f BY EG37_2*0.49 (a_212);</t>
+          <t>[EG37_2$1*-1.258] (t1_212);</t>
         </is>
       </c>
     </row>
     <row r="997">
       <c r="A997" t="inlineStr">
         <is>
-          <t>[EG37_2$1*-1.258] (t1_212);</t>
+          <t>[EG37_2$2*0.66] (t2_212);</t>
         </is>
       </c>
     </row>
     <row r="998">
       <c r="A998" t="inlineStr">
         <is>
-          <t>[EG37_2$2*0.66] (t2_212);</t>
+          <t>[EG37_2$3*1.411] (t3_212);</t>
         </is>
       </c>
     </row>
     <row r="999">
       <c r="A999" t="inlineStr">
         <is>
-          <t>[EG37_2$3*1.411] (t3_212);</t>
-        </is>
-      </c>
-    </row>
-    <row r="1000">
-      <c r="A1000" t="inlineStr">
-        <is>
           <t>[EG37_2$4*3.597] (t4_212);</t>
+        </is>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" t="inlineStr">
+        <is>
+          <t>!ITEM: EG38a | jid = 214</t>
         </is>
       </c>
     </row>
     <row r="1002">
       <c r="A1002" t="inlineStr">
         <is>
-          <t>!ITEM: EG38a | jid = 214</t>
+          <t>f BY EG38a*1.054 (a_214);</t>
         </is>
       </c>
     </row>
     <row r="1003">
       <c r="A1003" t="inlineStr">
         <is>
-          <t>f BY EG38a*1.054 (a_214);</t>
+          <t>[EG38a$1*2.513] (t1_214);</t>
         </is>
       </c>
     </row>
     <row r="1004">
       <c r="A1004" t="inlineStr">
         <is>
-          <t>[EG38a$1*2.513] (t1_214);</t>
+          <t>[EG38a$2*4.358] (t2_214);</t>
         </is>
       </c>
     </row>
     <row r="1005">
       <c r="A1005" t="inlineStr">
         <is>
-          <t>[EG38a$2*4.358] (t2_214);</t>
+          <t>[EG38a$3*5.226] (t3_214);</t>
         </is>
       </c>
     </row>
     <row r="1006">
       <c r="A1006" t="inlineStr">
         <is>
-          <t>[EG38a$3*5.226] (t3_214);</t>
-        </is>
-      </c>
-    </row>
-    <row r="1007">
-      <c r="A1007" t="inlineStr">
-        <is>
           <t>[EG38a$4*7.822] (t4_214);</t>
+        </is>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="A1008" t="inlineStr">
+        <is>
+          <t>!ITEM: EG38b | jid = 215</t>
         </is>
       </c>
     </row>
     <row r="1009">
       <c r="A1009" t="inlineStr">
         <is>
-          <t>!ITEM: EG38b | jid = 215</t>
+          <t>!Constrain slope to EG38a. Constrain tau$1 to be a simplex between EG38a$1 and EG38a$4.</t>
         </is>
       </c>
     </row>
     <row r="1010">
       <c r="A1010" t="inlineStr">
         <is>
-          <t>!Constrain slope to EG38a. Constrain tau$1 to be a simplex between EG38a$1 and EG38a$4.</t>
+          <t>f BY EG38b*1.054 (a_214);</t>
         </is>
       </c>
     </row>
     <row r="1011">
       <c r="A1011" t="inlineStr">
         <is>
-          <t>f BY EG38b*1.054 (a_214);</t>
-        </is>
-      </c>
-    </row>
-    <row r="1012">
-      <c r="A1012" t="inlineStr">
-        <is>
           <t>[EG38b$1*3.362] (t1_215);</t>
+        </is>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013" t="inlineStr">
+        <is>
+          <t>!ITEM: EG38c | jid = 216</t>
         </is>
       </c>
     </row>
     <row r="1014">
       <c r="A1014" t="inlineStr">
         <is>
-          <t>!ITEM: EG38c | jid = 216</t>
+          <t>!Constrain slope to EG38a.</t>
         </is>
       </c>
     </row>
     <row r="1015">
       <c r="A1015" t="inlineStr">
         <is>
-          <t>!Constrain slope to EG38a.</t>
+          <t>f BY EG38c*1.054 (a_214);</t>
         </is>
       </c>
     </row>
     <row r="1016">
       <c r="A1016" t="inlineStr">
         <is>
-          <t>f BY EG38c*1.054 (a_214);</t>
-        </is>
-      </c>
-    </row>
-    <row r="1017">
-      <c r="A1017" t="inlineStr">
-        <is>
           <t>[EG38c$1*2.69] (t1_216);</t>
+        </is>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" t="inlineStr">
+        <is>
+          <t>!ITEM: EG39a | jid = 217</t>
         </is>
       </c>
     </row>
     <row r="1019">
       <c r="A1019" t="inlineStr">
         <is>
-          <t>!ITEM: EG39a | jid = 217</t>
+          <t>f BY EG39a*0.586 (a_217);</t>
         </is>
       </c>
     </row>
     <row r="1020">
       <c r="A1020" t="inlineStr">
         <is>
-          <t>f BY EG39a*0.586 (a_217);</t>
+          <t>[EG39a$1*-0.339] (t1_217);</t>
         </is>
       </c>
     </row>
     <row r="1021">
       <c r="A1021" t="inlineStr">
         <is>
-          <t>[EG39a$1*-0.339] (t1_217);</t>
+          <t>[EG39a$2*1.445] (t2_217);</t>
         </is>
       </c>
     </row>
     <row r="1022">
       <c r="A1022" t="inlineStr">
         <is>
-          <t>[EG39a$2*1.445] (t2_217);</t>
+          <t>[EG39a$3*2.648] (t3_217);</t>
         </is>
       </c>
     </row>
     <row r="1023">
       <c r="A1023" t="inlineStr">
         <is>
-          <t>[EG39a$3*2.648] (t3_217);</t>
-        </is>
-      </c>
-    </row>
-    <row r="1024">
-      <c r="A1024" t="inlineStr">
-        <is>
           <t>[EG39a$4*5.985] (t4_217);</t>
+        </is>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" t="inlineStr">
+        <is>
+          <t>!ITEM: EG39b | jid = 218</t>
         </is>
       </c>
     </row>
     <row r="1026">
       <c r="A1026" t="inlineStr">
         <is>
-          <t>!ITEM: EG39b | jid = 218</t>
+          <t>!Constrain slope to EG39a. Constrain tau$1 to be equal to EG39a$1. Constrain tau$4 to be equal to EG39a$4.</t>
         </is>
       </c>
     </row>
     <row r="1027">
       <c r="A1027" t="inlineStr">
         <is>
-          <t>!Constrain slope to EG39a. Constrain tau$1 to be equal to EG39a$1. Constrain tau$4 to be equal to EG39a$4.</t>
+          <t>f BY EG39b*0.586 (a_217);</t>
         </is>
       </c>
     </row>
     <row r="1028">
       <c r="A1028" t="inlineStr">
         <is>
-          <t>f BY EG39b*0.586 (a_217);</t>
+          <t>[EG39b$1*-0.339] (t1_217);</t>
         </is>
       </c>
     </row>
     <row r="1029">
       <c r="A1029" t="inlineStr">
         <is>
-          <t>[EG39b$1*-0.339] (t1_217);</t>
+          <t>[EG39b$2*2.129] (t2_218);</t>
         </is>
       </c>
     </row>
     <row r="1030">
       <c r="A1030" t="inlineStr">
         <is>
-          <t>[EG39b$2*2.129] (t2_218);</t>
+          <t>[EG39b$3*3.199] (t3_218);</t>
         </is>
       </c>
     </row>
     <row r="1031">
       <c r="A1031" t="inlineStr">
         <is>
-          <t>[EG39b$3*3.199] (t3_218);</t>
-        </is>
-      </c>
-    </row>
-    <row r="1032">
-      <c r="A1032" t="inlineStr">
-        <is>
           <t>[EG39b$4*5.985] (t4_217);</t>
+        </is>
+      </c>
+    </row>
+    <row r="1033">
+      <c r="A1033" t="inlineStr">
+        <is>
+          <t>!ITEM: EG40_1 | jid = 219</t>
         </is>
       </c>
     </row>
     <row r="1034">
       <c r="A1034" t="inlineStr">
         <is>
-          <t>!ITEM: EG40_1 | jid = 219</t>
+          <t>f BY EG40_1*0.512 (a_219);</t>
         </is>
       </c>
     </row>
     <row r="1035">
       <c r="A1035" t="inlineStr">
         <is>
-          <t>f BY EG40_1*0.512 (a_219);</t>
+          <t>[EG40_1$1*-0.573] (t1_219);</t>
         </is>
       </c>
     </row>
     <row r="1036">
       <c r="A1036" t="inlineStr">
         <is>
-          <t>[EG40_1$1*-0.573] (t1_219);</t>
+          <t>[EG40_1$2*2.368] (t2_219);</t>
         </is>
       </c>
     </row>
     <row r="1037">
       <c r="A1037" t="inlineStr">
         <is>
-          <t>[EG40_1$2*2.368] (t2_219);</t>
+          <t>[EG40_1$3*3.71] (t3_219);</t>
         </is>
       </c>
     </row>
     <row r="1038">
       <c r="A1038" t="inlineStr">
         <is>
-          <t>[EG40_1$3*3.71] (t3_219);</t>
-        </is>
-      </c>
-    </row>
-    <row r="1039">
-      <c r="A1039" t="inlineStr">
-        <is>
           <t>[EG40_1$4*6.194] (t4_219);</t>
+        </is>
+      </c>
+    </row>
+    <row r="1040">
+      <c r="A1040" t="inlineStr">
+        <is>
+          <t>!ITEM: EG40_2 | jid = 220</t>
         </is>
       </c>
     </row>
     <row r="1041">
       <c r="A1041" t="inlineStr">
         <is>
-          <t>!ITEM: EG40_2 | jid = 220</t>
+          <t>!Constrain all to EG40_1.</t>
         </is>
       </c>
     </row>
     <row r="1042">
       <c r="A1042" t="inlineStr">
         <is>
-          <t>!Constrain all to EG40_1.</t>
+          <t>f BY EG40_2*0.512 (a_219);</t>
         </is>
       </c>
     </row>
     <row r="1043">
       <c r="A1043" t="inlineStr">
         <is>
-          <t>f BY EG40_2*0.512 (a_219);</t>
+          <t>[EG40_2$1*-0.573] (t1_219);</t>
         </is>
       </c>
     </row>
     <row r="1044">
       <c r="A1044" t="inlineStr">
         <is>
-          <t>[EG40_2$1*-0.573] (t1_219);</t>
+          <t>[EG40_2$2*2.368] (t2_219);</t>
         </is>
       </c>
     </row>
     <row r="1045">
       <c r="A1045" t="inlineStr">
         <is>
-          <t>[EG40_2$2*2.368] (t2_219);</t>
+          <t>[EG40_2$3*3.71] (t3_219);</t>
         </is>
       </c>
     </row>
     <row r="1046">
       <c r="A1046" t="inlineStr">
         <is>
-          <t>[EG40_2$3*3.71] (t3_219);</t>
-        </is>
-      </c>
-    </row>
-    <row r="1047">
-      <c r="A1047" t="inlineStr">
-        <is>
           <t>[EG40_2$4*6.194] (t4_219);</t>
+        </is>
+      </c>
+    </row>
+    <row r="1048">
+      <c r="A1048" t="inlineStr">
+        <is>
+          <t>!ITEM: EG41_1 | jid = 221</t>
         </is>
       </c>
     </row>
     <row r="1049">
       <c r="A1049" t="inlineStr">
         <is>
-          <t>!ITEM: EG41_1 | jid = 221</t>
+          <t>f BY EG41_1*0.028 (a_221);</t>
         </is>
       </c>
     </row>
     <row r="1050">
       <c r="A1050" t="inlineStr">
         <is>
-          <t>f BY EG41_1*0.028 (a_221);</t>
+          <t>[EG41_1$1*-4.133] (t1_221);</t>
         </is>
       </c>
     </row>
     <row r="1051">
       <c r="A1051" t="inlineStr">
         <is>
-          <t>[EG41_1$1*-4.133] (t1_221);</t>
+          <t>[EG41_1$2*-1.53] (t2_221);</t>
         </is>
       </c>
     </row>
     <row r="1052">
       <c r="A1052" t="inlineStr">
         <is>
-          <t>[EG41_1$2*-1.53] (t2_221);</t>
-        </is>
-      </c>
-    </row>
-    <row r="1053">
-      <c r="A1053" t="inlineStr">
-        <is>
           <t>[EG41_1$3*1.028] (t3_221);</t>
+        </is>
+      </c>
+    </row>
+    <row r="1054">
+      <c r="A1054" t="inlineStr">
+        <is>
+          <t>!ITEM: EG41_2 | jid = 222</t>
         </is>
       </c>
     </row>
     <row r="1055">
       <c r="A1055" t="inlineStr">
         <is>
-          <t>!ITEM: EG41_2 | jid = 222</t>
+          <t>!Constrain slope to EG41_1. Constrain tau$1 to EG41_1$1. Constrain tau$4 to EG41_1$3</t>
         </is>
       </c>
     </row>
     <row r="1056">
       <c r="A1056" t="inlineStr">
         <is>
-          <t>!Constrain slope to EG41_1. Constrain tau$1 to EG41_1$1. Constrain tau$4 to EG41_1$3</t>
+          <t>f BY EG41_2*0.028 (a_221);</t>
         </is>
       </c>
     </row>
     <row r="1057">
       <c r="A1057" t="inlineStr">
         <is>
-          <t>f BY EG41_2*0.028 (a_221);</t>
+          <t>[EG41_2$1*-4.133] (t1_221);</t>
         </is>
       </c>
     </row>
     <row r="1058">
       <c r="A1058" t="inlineStr">
         <is>
-          <t>[EG41_2$1*-4.133] (t1_221);</t>
+          <t>[EG41_2$2*-0.889] (t2_222);</t>
         </is>
       </c>
     </row>
     <row r="1059">
       <c r="A1059" t="inlineStr">
         <is>
-          <t>[EG41_2$2*-0.889] (t2_222);</t>
+          <t>[EG41_2$3*-0.129] (t3_222);</t>
         </is>
       </c>
     </row>
     <row r="1060">
       <c r="A1060" t="inlineStr">
         <is>
-          <t>[EG41_2$3*-0.129] (t3_222);</t>
-        </is>
-      </c>
-    </row>
-    <row r="1061">
-      <c r="A1061" t="inlineStr">
-        <is>
           <t>[EG41_2$4*1.028] (t3_221);</t>
+        </is>
+      </c>
+    </row>
+    <row r="1062">
+      <c r="A1062" t="inlineStr">
+        <is>
+          <t>!ITEM: EG42a | jid = 223</t>
         </is>
       </c>
     </row>
     <row r="1063">
       <c r="A1063" t="inlineStr">
         <is>
-          <t>!ITEM: EG42a | jid = 223</t>
+          <t>f BY EG42a*1.507 (a_223);</t>
         </is>
       </c>
     </row>
     <row r="1064">
       <c r="A1064" t="inlineStr">
         <is>
-          <t>f BY EG42a*1.507 (a_223);</t>
+          <t>[EG42a$1*7.483] (t1_223);</t>
         </is>
       </c>
     </row>
     <row r="1065">
       <c r="A1065" t="inlineStr">
         <is>
-          <t>[EG42a$1*7.483] (t1_223);</t>
+          <t>[EG42a$2*8.645] (t2_223);</t>
         </is>
       </c>
     </row>
     <row r="1066">
       <c r="A1066" t="inlineStr">
         <is>
-          <t>[EG42a$2*8.645] (t2_223);</t>
-        </is>
-      </c>
-    </row>
-    <row r="1067">
-      <c r="A1067" t="inlineStr">
-        <is>
           <t>[EG42a$3*11.414] (t3_223);</t>
+        </is>
+      </c>
+    </row>
+    <row r="1068">
+      <c r="A1068" t="inlineStr">
+        <is>
+          <t>!ITEM: EG42b | jid = 224</t>
         </is>
       </c>
     </row>
     <row r="1069">
       <c r="A1069" t="inlineStr">
         <is>
-          <t>!ITEM: EG42b | jid = 224</t>
+          <t>!Constrain slope to EG42a. Constrain tau$1 to be a simplex between EG42a$1 and EG42a$3.</t>
         </is>
       </c>
     </row>
     <row r="1070">
       <c r="A1070" t="inlineStr">
         <is>
-          <t>!Constrain slope to EG42a. Constrain tau$1 to be a simplex between EG42a$1 and EG42a$3.</t>
+          <t>f BY EG42b*1.507 (a_223);</t>
         </is>
       </c>
     </row>
     <row r="1071">
       <c r="A1071" t="inlineStr">
         <is>
-          <t>f BY EG42b*1.507 (a_223);</t>
-        </is>
-      </c>
-    </row>
-    <row r="1072">
-      <c r="A1072" t="inlineStr">
-        <is>
           <t>[EG42b$1*8.112] (t1_224);</t>
+        </is>
+      </c>
+    </row>
+    <row r="1073">
+      <c r="A1073" t="inlineStr">
+        <is>
+          <t>!ITEM: EG42c | jid = 225</t>
         </is>
       </c>
     </row>
     <row r="1074">
       <c r="A1074" t="inlineStr">
         <is>
-          <t>!ITEM: EG42c | jid = 225</t>
+          <t>!Constrain slope to EG42a. Constrain tau$1 to be equal to EG42a$1. Constrain tau$4 to be equal to EG42a$3.</t>
         </is>
       </c>
     </row>
     <row r="1075">
       <c r="A1075" t="inlineStr">
         <is>
-          <t>!Constrain slope to EG42a. Constrain tau$1 to be equal to EG42a$1. Constrain tau$4 to be equal to EG42a$3.</t>
+          <t>f BY EG42c*1.507 (a_223);</t>
         </is>
       </c>
     </row>
     <row r="1076">
       <c r="A1076" t="inlineStr">
         <is>
-          <t>f BY EG42c*1.507 (a_223);</t>
+          <t>[EG42c$1*7.483] (t1_223);</t>
         </is>
       </c>
     </row>
     <row r="1077">
       <c r="A1077" t="inlineStr">
         <is>
-          <t>[EG42c$1*7.483] (t1_223);</t>
+          <t>[EG42c$2*8.933] (t2_225);</t>
         </is>
       </c>
     </row>
     <row r="1078">
       <c r="A1078" t="inlineStr">
         <is>
-          <t>[EG42c$2*8.933] (t2_225);</t>
+          <t>[EG42c$3*9.76] (t3_225);</t>
         </is>
       </c>
     </row>
     <row r="1079">
       <c r="A1079" t="inlineStr">
         <is>
-          <t>[EG42c$3*9.76] (t3_225);</t>
-        </is>
-      </c>
-    </row>
-    <row r="1080">
-      <c r="A1080" t="inlineStr">
-        <is>
           <t>[EG42c$4*11.414] (t3_223);</t>
+        </is>
+      </c>
+    </row>
+    <row r="1081">
+      <c r="A1081" t="inlineStr">
+        <is>
+          <t>!ITEM: EG43a_1 | jid = 226</t>
         </is>
       </c>
     </row>
     <row r="1082">
       <c r="A1082" t="inlineStr">
         <is>
-          <t>!ITEM: EG43a_1 | jid = 226</t>
+          <t>f BY EG43a_1*1.319 (a_226);</t>
         </is>
       </c>
     </row>
     <row r="1083">
       <c r="A1083" t="inlineStr">
         <is>
-          <t>f BY EG43a_1*1.319 (a_226);</t>
+          <t>[EG43a_1$1*3.5] (t1_226);</t>
         </is>
       </c>
     </row>
     <row r="1084">
       <c r="A1084" t="inlineStr">
         <is>
-          <t>[EG43a_1$1*3.5] (t1_226);</t>
+          <t>[EG43a_1$2*5.186] (t2_226);</t>
         </is>
       </c>
     </row>
     <row r="1085">
       <c r="A1085" t="inlineStr">
         <is>
-          <t>[EG43a_1$2*5.186] (t2_226);</t>
+          <t>[EG43a_1$3*5.983] (t3_226);</t>
         </is>
       </c>
     </row>
     <row r="1086">
       <c r="A1086" t="inlineStr">
         <is>
-          <t>[EG43a_1$3*5.983] (t3_226);</t>
-        </is>
-      </c>
-    </row>
-    <row r="1087">
-      <c r="A1087" t="inlineStr">
-        <is>
           <t>[EG43a_1$4*8.459] (t4_226);</t>
+        </is>
+      </c>
+    </row>
+    <row r="1088">
+      <c r="A1088" t="inlineStr">
+        <is>
+          <t>!ITEM: EG43a_2 | jid = 227</t>
         </is>
       </c>
     </row>
     <row r="1089">
       <c r="A1089" t="inlineStr">
         <is>
-          <t>!ITEM: EG43a_2 | jid = 227</t>
+          <t>!Constrain all to EG43a_1.</t>
         </is>
       </c>
     </row>
     <row r="1090">
       <c r="A1090" t="inlineStr">
         <is>
-          <t>!Constrain all to EG43a_1.</t>
+          <t>f BY EG43a_2*1.319 (a_226);</t>
         </is>
       </c>
     </row>
     <row r="1091">
       <c r="A1091" t="inlineStr">
         <is>
-          <t>f BY EG43a_2*1.319 (a_226);</t>
+          <t>[EG43a_2$1*3.5] (t1_226);</t>
         </is>
       </c>
     </row>
     <row r="1092">
       <c r="A1092" t="inlineStr">
         <is>
-          <t>[EG43a_2$1*3.5] (t1_226);</t>
+          <t>[EG43a_2$2*5.186] (t2_226);</t>
         </is>
       </c>
     </row>
     <row r="1093">
       <c r="A1093" t="inlineStr">
         <is>
-          <t>[EG43a_2$2*5.186] (t2_226);</t>
+          <t>[EG43a_2$3*5.983] (t3_226);</t>
         </is>
       </c>
     </row>
     <row r="1094">
       <c r="A1094" t="inlineStr">
         <is>
-          <t>[EG43a_2$3*5.983] (t3_226);</t>
-        </is>
-      </c>
-    </row>
-    <row r="1095">
-      <c r="A1095" t="inlineStr">
-        <is>
           <t>[EG43a_2$4*8.459] (t4_226);</t>
+        </is>
+      </c>
+    </row>
+    <row r="1096">
+      <c r="A1096" t="inlineStr">
+        <is>
+          <t>!ITEM: EG43b | jid = 228</t>
         </is>
       </c>
     </row>
     <row r="1097">
       <c r="A1097" t="inlineStr">
         <is>
-          <t>!ITEM: EG43b | jid = 228</t>
+          <t>!Constrain slope to EG42a.</t>
         </is>
       </c>
     </row>
     <row r="1098">
       <c r="A1098" t="inlineStr">
         <is>
-          <t>!Constrain slope to EG42a.</t>
+          <t>f BY EG43b*1.507 (a_223);</t>
         </is>
       </c>
     </row>
     <row r="1099">
       <c r="A1099" t="inlineStr">
         <is>
-          <t>f BY EG43b*1.507 (a_223);</t>
-        </is>
-      </c>
-    </row>
-    <row r="1100">
-      <c r="A1100" t="inlineStr">
-        <is>
           <t>[EG43b$1*6.935] (t1_228);</t>
+        </is>
+      </c>
+    </row>
+    <row r="1101">
+      <c r="A1101" t="inlineStr">
+        <is>
+          <t>!ITEM: EG44_1 | jid = 229</t>
         </is>
       </c>
     </row>
     <row r="1102">
       <c r="A1102" t="inlineStr">
         <is>
-          <t>!ITEM: EG44_1 | jid = 229</t>
+          <t>f BY EG44_1*1.211 (a_229);</t>
         </is>
       </c>
     </row>
     <row r="1103">
       <c r="A1103" t="inlineStr">
         <is>
-          <t>f BY EG44_1*1.211 (a_229);</t>
-        </is>
-      </c>
-    </row>
-    <row r="1104">
-      <c r="A1104" t="inlineStr">
-        <is>
           <t>[EG44_1$1*2.623] (t1_229);</t>
+        </is>
+      </c>
+    </row>
+    <row r="1105">
+      <c r="A1105" t="inlineStr">
+        <is>
+          <t>!ITEM: EG44_2 | jid = 230</t>
         </is>
       </c>
     </row>
     <row r="1106">
       <c r="A1106" t="inlineStr">
         <is>
-          <t>!ITEM: EG44_2 | jid = 230</t>
+          <t>!Constrain all to EG44_1</t>
         </is>
       </c>
     </row>
     <row r="1107">
       <c r="A1107" t="inlineStr">
         <is>
-          <t>!Constrain all to EG44_1</t>
+          <t>f BY EG44_2*1.211 (a_229);</t>
         </is>
       </c>
     </row>
     <row r="1108">
       <c r="A1108" t="inlineStr">
         <is>
-          <t>f BY EG44_2*1.211 (a_229);</t>
-        </is>
-      </c>
-    </row>
-    <row r="1109">
-      <c r="A1109" t="inlineStr">
-        <is>
           <t>[EG44_2$1*2.623] (t1_229);</t>
+        </is>
+      </c>
+    </row>
+    <row r="1110">
+      <c r="A1110" t="inlineStr">
+        <is>
+          <t>!ITEM: EG45_1 | jid = 231</t>
         </is>
       </c>
     </row>
     <row r="1111">
       <c r="A1111" t="inlineStr">
         <is>
-          <t>!ITEM: EG45_1 | jid = 231</t>
+          <t>f BY EG45_1*1.516 (a_231);</t>
         </is>
       </c>
     </row>
     <row r="1112">
       <c r="A1112" t="inlineStr">
         <is>
-          <t>f BY EG45_1*1.516 (a_231);</t>
+          <t>[EG45_1$1*6.1] (t1_231);</t>
         </is>
       </c>
     </row>
     <row r="1113">
       <c r="A1113" t="inlineStr">
         <is>
-          <t>[EG45_1$1*6.1] (t1_231);</t>
+          <t>[EG45_1$2*7.955] (t2_231);</t>
         </is>
       </c>
     </row>
     <row r="1114">
       <c r="A1114" t="inlineStr">
         <is>
-          <t>[EG45_1$2*7.955] (t2_231);</t>
+          <t>[EG45_1$3*8.713] (t3_231);</t>
         </is>
       </c>
     </row>
     <row r="1115">
       <c r="A1115" t="inlineStr">
         <is>
-          <t>[EG45_1$3*8.713] (t3_231);</t>
-        </is>
-      </c>
-    </row>
-    <row r="1116">
-      <c r="A1116" t="inlineStr">
-        <is>
           <t>[EG45_1$4*10.718] (t4_231);</t>
+        </is>
+      </c>
+    </row>
+    <row r="1117">
+      <c r="A1117" t="inlineStr">
+        <is>
+          <t>!ITEM: EG45_2 | jid = 232</t>
         </is>
       </c>
     </row>
     <row r="1118">
       <c r="A1118" t="inlineStr">
         <is>
-          <t>!ITEM: EG45_2 | jid = 232</t>
+          <t>!Constrain all to EG45_1</t>
         </is>
       </c>
     </row>
     <row r="1119">
       <c r="A1119" t="inlineStr">
         <is>
-          <t>!Constrain all to EG45_1</t>
+          <t>f BY EG45_2*1.516 (a_231);</t>
         </is>
       </c>
     </row>
     <row r="1120">
       <c r="A1120" t="inlineStr">
         <is>
-          <t>f BY EG45_2*1.516 (a_231);</t>
+          <t>[EG45_2$1*6.1] (t1_231);</t>
         </is>
       </c>
     </row>
     <row r="1121">
       <c r="A1121" t="inlineStr">
         <is>
-          <t>[EG45_2$1*6.1] (t1_231);</t>
+          <t>[EG45_2$2*7.955] (t2_231);</t>
         </is>
       </c>
     </row>
     <row r="1122">
       <c r="A1122" t="inlineStr">
         <is>
-          <t>[EG45_2$2*7.955] (t2_231);</t>
+          <t>[EG45_2$3*8.713] (t3_231);</t>
         </is>
       </c>
     </row>
     <row r="1123">
       <c r="A1123" t="inlineStr">
         <is>
-          <t>[EG45_2$3*8.713] (t3_231);</t>
-        </is>
-      </c>
-    </row>
-    <row r="1124">
-      <c r="A1124" t="inlineStr">
-        <is>
           <t>[EG45_2$4*10.718] (t4_231);</t>
+        </is>
+      </c>
+    </row>
+    <row r="1125">
+      <c r="A1125" t="inlineStr">
+        <is>
+          <t>!ITEM: EG46a_1 | jid = 233</t>
         </is>
       </c>
     </row>
     <row r="1126">
       <c r="A1126" t="inlineStr">
         <is>
-          <t>!ITEM: EG46a_1 | jid = 233</t>
+          <t>f BY EG46a_1*1.855 (a_233);</t>
         </is>
       </c>
     </row>
     <row r="1127">
       <c r="A1127" t="inlineStr">
         <is>
-          <t>f BY EG46a_1*1.855 (a_233);</t>
-        </is>
-      </c>
-    </row>
-    <row r="1128">
-      <c r="A1128" t="inlineStr">
-        <is>
           <t>[EG46a_1$1*-3.643] (t1_233);</t>
+        </is>
+      </c>
+    </row>
+    <row r="1129">
+      <c r="A1129" t="inlineStr">
+        <is>
+          <t>!ITEM: EG46a_2 | jid = 234</t>
         </is>
       </c>
     </row>
     <row r="1130">
       <c r="A1130" t="inlineStr">
         <is>
-          <t>!ITEM: EG46a_2 | jid = 234</t>
+          <t>!Constrain all to EG46a_1</t>
         </is>
       </c>
     </row>
     <row r="1131">
       <c r="A1131" t="inlineStr">
         <is>
-          <t>!Constrain all to EG46a_1</t>
+          <t>f BY EG46a_2*1.855 (a_233);</t>
         </is>
       </c>
     </row>
     <row r="1132">
       <c r="A1132" t="inlineStr">
         <is>
-          <t>f BY EG46a_2*1.855 (a_233);</t>
-        </is>
-      </c>
-    </row>
-    <row r="1133">
-      <c r="A1133" t="inlineStr">
-        <is>
           <t>[EG46a_2$1*-3.643] (t1_233);</t>
+        </is>
+      </c>
+    </row>
+    <row r="1134">
+      <c r="A1134" t="inlineStr">
+        <is>
+          <t>!ITEM: EG46b | jid = 235</t>
         </is>
       </c>
     </row>
     <row r="1135">
       <c r="A1135" t="inlineStr">
         <is>
-          <t>!ITEM: EG46b | jid = 235</t>
+          <t>!Constrain slope to EG46a_1. Constrain tau$1 to be less than EG46c$1.</t>
         </is>
       </c>
     </row>
     <row r="1136">
       <c r="A1136" t="inlineStr">
         <is>
-          <t>!Constrain slope to EG46a_1. Constrain tau$1 to be less than EG46c$1.</t>
+          <t>f BY EG46b*1.855 (a_233);</t>
         </is>
       </c>
     </row>
     <row r="1137">
       <c r="A1137" t="inlineStr">
         <is>
-          <t>f BY EG46b*1.855 (a_233);</t>
-        </is>
-      </c>
-    </row>
-    <row r="1138">
-      <c r="A1138" t="inlineStr">
-        <is>
           <t>[EG46b$1*-8.037] (t1_235);</t>
+        </is>
+      </c>
+    </row>
+    <row r="1139">
+      <c r="A1139" t="inlineStr">
+        <is>
+          <t>!ITEM: EG46c | jid = 236</t>
         </is>
       </c>
     </row>
     <row r="1140">
       <c r="A1140" t="inlineStr">
         <is>
-          <t>!ITEM: EG46c | jid = 236</t>
+          <t>!Constrain slope to EG46a_1.</t>
         </is>
       </c>
     </row>
     <row r="1141">
       <c r="A1141" t="inlineStr">
         <is>
-          <t>!Constrain slope to EG46a_1.</t>
+          <t>f BY EG46c*1.855 (a_233);</t>
         </is>
       </c>
     </row>
     <row r="1142">
       <c r="A1142" t="inlineStr">
         <is>
-          <t>f BY EG46c*1.855 (a_233);</t>
-        </is>
-      </c>
-    </row>
-    <row r="1143">
-      <c r="A1143" t="inlineStr">
-        <is>
           <t>[EG46c$1*-4.224] (t1_236);</t>
+        </is>
+      </c>
+    </row>
+    <row r="1144">
+      <c r="A1144" t="inlineStr">
+        <is>
+          <t>!ITEM: EG46d | jid = 237</t>
         </is>
       </c>
     </row>
     <row r="1145">
       <c r="A1145" t="inlineStr">
         <is>
-          <t>!ITEM: EG46d | jid = 237</t>
+          <t>!Constrain slope to EG46a_1. Constrain tau$1 to be less than EG46c$1.</t>
         </is>
       </c>
     </row>
     <row r="1146">
       <c r="A1146" t="inlineStr">
         <is>
-          <t>!Constrain slope to EG46a_1. Constrain tau$1 to be less than EG46c$1.</t>
+          <t>f BY EG46d*1.855 (a_233);</t>
         </is>
       </c>
     </row>
     <row r="1147">
       <c r="A1147" t="inlineStr">
         <is>
-          <t>f BY EG46d*1.855 (a_233);</t>
-        </is>
-      </c>
-    </row>
-    <row r="1148">
-      <c r="A1148" t="inlineStr">
-        <is>
           <t>[EG46d$1*-4.534] (t1_237);</t>
+        </is>
+      </c>
+    </row>
+    <row r="1149">
+      <c r="A1149" t="inlineStr">
+        <is>
+          <t>!ITEM: EG47a | jid = 238</t>
         </is>
       </c>
     </row>
     <row r="1150">
       <c r="A1150" t="inlineStr">
         <is>
-          <t>!ITEM: EG47a | jid = 238</t>
+          <t>f BY EG47a*3.418 (a_238);</t>
         </is>
       </c>
     </row>
     <row r="1151">
       <c r="A1151" t="inlineStr">
         <is>
-          <t>f BY EG47a*3.418 (a_238);</t>
-        </is>
-      </c>
-    </row>
-    <row r="1152">
-      <c r="A1152" t="inlineStr">
-        <is>
           <t>[EG47a$1*-0.077] (t1_238);</t>
+        </is>
+      </c>
+    </row>
+    <row r="1153">
+      <c r="A1153" t="inlineStr">
+        <is>
+          <t>!ITEM: EG47b | jid = 239</t>
         </is>
       </c>
     </row>
     <row r="1154">
       <c r="A1154" t="inlineStr">
         <is>
-          <t>!ITEM: EG47b | jid = 239</t>
+          <t>!Constrain slope to EG47a. Constrain tau$1 to be less than EG47a$1.</t>
         </is>
       </c>
     </row>
     <row r="1155">
       <c r="A1155" t="inlineStr">
         <is>
-          <t>!Constrain slope to EG47a. Constrain tau$1 to be less than EG47a$1.</t>
+          <t>f BY EG47b*3.418 (a_238);</t>
         </is>
       </c>
     </row>
     <row r="1156">
       <c r="A1156" t="inlineStr">
         <is>
-          <t>f BY EG47b*3.418 (a_238);</t>
-        </is>
-      </c>
-    </row>
-    <row r="1157">
-      <c r="A1157" t="inlineStr">
-        <is>
           <t>[EG47b$1*-4.047] (t1_239);</t>
+        </is>
+      </c>
+    </row>
+    <row r="1158">
+      <c r="A1158" t="inlineStr">
+        <is>
+          <t>!ITEM: EG48_1 | jid = 240</t>
         </is>
       </c>
     </row>
     <row r="1159">
       <c r="A1159" t="inlineStr">
         <is>
-          <t>!ITEM: EG48_1 | jid = 240</t>
+          <t>f BY EG48_1*1.244 (a_240);</t>
         </is>
       </c>
     </row>
     <row r="1160">
       <c r="A1160" t="inlineStr">
         <is>
-          <t>f BY EG48_1*1.244 (a_240);</t>
-        </is>
-      </c>
-    </row>
-    <row r="1161">
-      <c r="A1161" t="inlineStr">
-        <is>
           <t>[EG48_1$1*3.382] (t1_240);</t>
+        </is>
+      </c>
+    </row>
+    <row r="1162">
+      <c r="A1162" t="inlineStr">
+        <is>
+          <t>!ITEM: EG48_2 | jid = 241</t>
         </is>
       </c>
     </row>
     <row r="1163">
       <c r="A1163" t="inlineStr">
         <is>
-          <t>!ITEM: EG48_2 | jid = 241</t>
+          <t>!Constrain all to EG48_1</t>
         </is>
       </c>
     </row>
     <row r="1164">
       <c r="A1164" t="inlineStr">
         <is>
-          <t>!Constrain all to EG48_1</t>
+          <t>f BY EG48_2*1.244 (a_240);</t>
         </is>
       </c>
     </row>
     <row r="1165">
       <c r="A1165" t="inlineStr">
         <is>
-          <t>f BY EG48_2*1.244 (a_240);</t>
-        </is>
-      </c>
-    </row>
-    <row r="1166">
-      <c r="A1166" t="inlineStr">
-        <is>
           <t>[EG48_2$1*3.382] (t1_240);</t>
+        </is>
+      </c>
+    </row>
+    <row r="1167">
+      <c r="A1167" t="inlineStr">
+        <is>
+          <t>!ITEM: EG49_1 | jid = 242</t>
         </is>
       </c>
     </row>
     <row r="1168">
       <c r="A1168" t="inlineStr">
         <is>
-          <t>!ITEM: EG49_1 | jid = 242</t>
+          <t>f BY EG49_1*1.459 (a_242);</t>
         </is>
       </c>
     </row>
     <row r="1169">
       <c r="A1169" t="inlineStr">
         <is>
-          <t>f BY EG49_1*1.459 (a_242);</t>
-        </is>
-      </c>
-    </row>
-    <row r="1170">
-      <c r="A1170" t="inlineStr">
-        <is>
           <t>[EG49_1$1*-7.709] (t1_242);</t>
+        </is>
+      </c>
+    </row>
+    <row r="1171">
+      <c r="A1171" t="inlineStr">
+        <is>
+          <t>!ITEM: EG49_2 | jid = 243</t>
         </is>
       </c>
     </row>
     <row r="1172">
       <c r="A1172" t="inlineStr">
         <is>
-          <t>!ITEM: EG49_2 | jid = 243</t>
+          <t>!Constrain all to EG49_1.</t>
         </is>
       </c>
     </row>
     <row r="1173">
       <c r="A1173" t="inlineStr">
         <is>
-          <t>!Constrain all to EG49_1.</t>
+          <t>f BY EG49_2*1.459 (a_242);</t>
         </is>
       </c>
     </row>
     <row r="1174">
       <c r="A1174" t="inlineStr">
         <is>
-          <t>f BY EG49_2*1.459 (a_242);</t>
-        </is>
-      </c>
-    </row>
-    <row r="1175">
-      <c r="A1175" t="inlineStr">
-        <is>
           <t>[EG49_2$1*-7.709] (t1_242);</t>
+        </is>
+      </c>
+    </row>
+    <row r="1176">
+      <c r="A1176" t="inlineStr">
+        <is>
+          <t>!ITEM: EG4a_1 | jid = 244</t>
         </is>
       </c>
     </row>
     <row r="1177">
       <c r="A1177" t="inlineStr">
         <is>
-          <t>!ITEM: EG4a_1 | jid = 244</t>
+          <t>f BY EG4a_1*2.183 (a_244);</t>
         </is>
       </c>
     </row>
     <row r="1178">
       <c r="A1178" t="inlineStr">
         <is>
-          <t>f BY EG4a_1*2.183 (a_244);</t>
-        </is>
-      </c>
-    </row>
-    <row r="1179">
-      <c r="A1179" t="inlineStr">
-        <is>
           <t>[EG4a_1$1*7.732] (t1_244);</t>
+        </is>
+      </c>
+    </row>
+    <row r="1180">
+      <c r="A1180" t="inlineStr">
+        <is>
+          <t>!ITEM: EG4a_2 | jid = 245</t>
         </is>
       </c>
     </row>
     <row r="1181">
       <c r="A1181" t="inlineStr">
         <is>
-          <t>!ITEM: EG4a_2 | jid = 245</t>
+          <t>!Constrain all to EG4a_1</t>
         </is>
       </c>
     </row>
     <row r="1182">
       <c r="A1182" t="inlineStr">
         <is>
-          <t>!Constrain all to EG4a_1</t>
+          <t>f BY EG4a_2*2.183 (a_244);</t>
         </is>
       </c>
     </row>
     <row r="1183">
       <c r="A1183" t="inlineStr">
         <is>
-          <t>f BY EG4a_2*2.183 (a_244);</t>
-        </is>
-      </c>
-    </row>
-    <row r="1184">
-      <c r="A1184" t="inlineStr">
-        <is>
           <t>[EG4a_2$1*7.732] (t1_244);</t>
+        </is>
+      </c>
+    </row>
+    <row r="1185">
+      <c r="A1185" t="inlineStr">
+        <is>
+          <t>!ITEM: EG4b_1 | jid = 246</t>
         </is>
       </c>
     </row>
     <row r="1186">
       <c r="A1186" t="inlineStr">
         <is>
-          <t>!ITEM: EG4b_1 | jid = 246</t>
+          <t>!Constrain slope to EG4a_1</t>
         </is>
       </c>
     </row>
     <row r="1187">
       <c r="A1187" t="inlineStr">
         <is>
-          <t>!Constrain slope to EG4a_1</t>
+          <t>f BY EG4b_1*2.183 (a_244);</t>
         </is>
       </c>
     </row>
     <row r="1188">
       <c r="A1188" t="inlineStr">
         <is>
-          <t>f BY EG4b_1*2.183 (a_244);</t>
-        </is>
-      </c>
-    </row>
-    <row r="1189">
-      <c r="A1189" t="inlineStr">
-        <is>
           <t>[EG4b_1$1*8.678] (t1_246);</t>
+        </is>
+      </c>
+    </row>
+    <row r="1190">
+      <c r="A1190" t="inlineStr">
+        <is>
+          <t>!ITEM: EG4b_2 | jid = 247</t>
         </is>
       </c>
     </row>
     <row r="1191">
       <c r="A1191" t="inlineStr">
         <is>
-          <t>!ITEM: EG4b_2 | jid = 247</t>
+          <t>!Constrain slope to EG4a_1; Constrain tau$1 to EG4b_1$1</t>
         </is>
       </c>
     </row>
     <row r="1192">
       <c r="A1192" t="inlineStr">
         <is>
-          <t>!Constrain slope to EG4a_1; Constrain tau$1 to EG4b_1$1</t>
+          <t>f BY EG4b_2*2.183 (a_244);</t>
         </is>
       </c>
     </row>
     <row r="1193">
       <c r="A1193" t="inlineStr">
         <is>
-          <t>f BY EG4b_2*2.183 (a_244);</t>
-        </is>
-      </c>
-    </row>
-    <row r="1194">
-      <c r="A1194" t="inlineStr">
-        <is>
           <t>[EG4b_2$1*8.678] (t1_246);</t>
+        </is>
+      </c>
+    </row>
+    <row r="1195">
+      <c r="A1195" t="inlineStr">
+        <is>
+          <t>!ITEM: EG50a | jid = 248</t>
         </is>
       </c>
     </row>
     <row r="1196">
       <c r="A1196" t="inlineStr">
         <is>
-          <t>!ITEM: EG50a | jid = 248</t>
+          <t>f BY EG50a*1.354 (a_248);</t>
         </is>
       </c>
     </row>
     <row r="1197">
       <c r="A1197" t="inlineStr">
         <is>
-          <t>f BY EG50a*1.354 (a_248);</t>
-        </is>
-      </c>
-    </row>
-    <row r="1198">
-      <c r="A1198" t="inlineStr">
-        <is>
           <t>[EG50a$1*2.041] (t1_248);</t>
+        </is>
+      </c>
+    </row>
+    <row r="1199">
+      <c r="A1199" t="inlineStr">
+        <is>
+          <t>!ITEM: EG50b | jid = 249</t>
         </is>
       </c>
     </row>
     <row r="1200">
       <c r="A1200" t="inlineStr">
         <is>
-          <t>!ITEM: EG50b | jid = 249</t>
+          <t>!Constrain slope to EG50a. Constrain tau$1 to be greater than EG50a$1</t>
         </is>
       </c>
     </row>
     <row r="1201">
       <c r="A1201" t="inlineStr">
         <is>
-          <t>!Constrain slope to EG50a. Constrain tau$1 to be greater than EG50a$1</t>
+          <t>f BY EG50b*1.354 (a_248);</t>
         </is>
       </c>
     </row>
     <row r="1202">
       <c r="A1202" t="inlineStr">
         <is>
-          <t>f BY EG50b*1.354 (a_248);</t>
-        </is>
-      </c>
-    </row>
-    <row r="1203">
-      <c r="A1203" t="inlineStr">
-        <is>
           <t>[EG50b$1*2.748] (t1_249);</t>
+        </is>
+      </c>
+    </row>
+    <row r="1204">
+      <c r="A1204" t="inlineStr">
+        <is>
+          <t>!ITEM: EG5a | jid = 250</t>
         </is>
       </c>
     </row>
     <row r="1205">
       <c r="A1205" t="inlineStr">
         <is>
-          <t>!ITEM: EG5a | jid = 250</t>
+          <t>f BY EG5a*1.093 (a_250);</t>
         </is>
       </c>
     </row>
     <row r="1206">
       <c r="A1206" t="inlineStr">
         <is>
-          <t>f BY EG5a*1.093 (a_250);</t>
+          <t>[EG5a$1*1.32] (t1_250);</t>
         </is>
       </c>
     </row>
     <row r="1207">
       <c r="A1207" t="inlineStr">
         <is>
-          <t>[EG5a$1*1.32] (t1_250);</t>
+          <t>[EG5a$2*3.969] (t2_250);</t>
         </is>
       </c>
     </row>
     <row r="1208">
       <c r="A1208" t="inlineStr">
         <is>
-          <t>[EG5a$2*3.969] (t2_250);</t>
+          <t>[EG5a$3*5.133] (t3_250);</t>
         </is>
       </c>
     </row>
     <row r="1209">
       <c r="A1209" t="inlineStr">
         <is>
-          <t>[EG5a$3*5.133] (t3_250);</t>
-        </is>
-      </c>
-    </row>
-    <row r="1210">
-      <c r="A1210" t="inlineStr">
-        <is>
           <t>[EG5a$4*7.872] (t4_250);</t>
+        </is>
+      </c>
+    </row>
+    <row r="1211">
+      <c r="A1211" t="inlineStr">
+        <is>
+          <t>!ITEM: EG5b | jid = 251</t>
         </is>
       </c>
     </row>
     <row r="1212">
       <c r="A1212" t="inlineStr">
         <is>
-          <t>!ITEM: EG5b | jid = 251</t>
+          <t>!Constrain slope to EG5a</t>
         </is>
       </c>
     </row>
     <row r="1213">
       <c r="A1213" t="inlineStr">
         <is>
-          <t>!Constrain slope to EG5a</t>
+          <t>f BY EG5b*1.093 (a_250);</t>
         </is>
       </c>
     </row>
     <row r="1214">
       <c r="A1214" t="inlineStr">
         <is>
-          <t>f BY EG5b*1.093 (a_250);</t>
-        </is>
-      </c>
-    </row>
-    <row r="1215">
-      <c r="A1215" t="inlineStr">
-        <is>
           <t>[EG5b$1*3.563] (t1_251);</t>
+        </is>
+      </c>
+    </row>
+    <row r="1216">
+      <c r="A1216" t="inlineStr">
+        <is>
+          <t>!ITEM: EG6_1 | jid = 252</t>
         </is>
       </c>
     </row>
     <row r="1217">
       <c r="A1217" t="inlineStr">
         <is>
-          <t>!ITEM: EG6_1 | jid = 252</t>
+          <t>f BY EG6_1*0.72 (a_252);</t>
         </is>
       </c>
     </row>
     <row r="1218">
       <c r="A1218" t="inlineStr">
         <is>
-          <t>f BY EG6_1*0.72 (a_252);</t>
-        </is>
-      </c>
-    </row>
-    <row r="1219">
-      <c r="A1219" t="inlineStr">
-        <is>
           <t>[EG6_1$1*1.657] (t1_252);</t>
+        </is>
+      </c>
+    </row>
+    <row r="1220">
+      <c r="A1220" t="inlineStr">
+        <is>
+          <t>!ITEM: EG6_2 | jid = 253</t>
         </is>
       </c>
     </row>
     <row r="1221">
       <c r="A1221" t="inlineStr">
         <is>
-          <t>!ITEM: EG6_2 | jid = 253</t>
+          <t>!Constrain all to EG6_1</t>
         </is>
       </c>
     </row>
     <row r="1222">
       <c r="A1222" t="inlineStr">
         <is>
-          <t>!Constrain all to EG6_1</t>
+          <t>f BY EG6_2*0.72 (a_252);</t>
         </is>
       </c>
     </row>
     <row r="1223">
       <c r="A1223" t="inlineStr">
         <is>
-          <t>f BY EG6_2*0.72 (a_252);</t>
-        </is>
-      </c>
-    </row>
-    <row r="1224">
-      <c r="A1224" t="inlineStr">
-        <is>
           <t>[EG6_2$1*1.657] (t1_252);</t>
+        </is>
+      </c>
+    </row>
+    <row r="1225">
+      <c r="A1225" t="inlineStr">
+        <is>
+          <t>!ITEM: EG7_1 | jid = 254</t>
         </is>
       </c>
     </row>
     <row r="1226">
       <c r="A1226" t="inlineStr">
         <is>
-          <t>!ITEM: EG7_1 | jid = 254</t>
+          <t>f BY EG7_1*0.972 (a_254);</t>
         </is>
       </c>
     </row>
     <row r="1227">
       <c r="A1227" t="inlineStr">
         <is>
-          <t>f BY EG7_1*0.972 (a_254);</t>
-        </is>
-      </c>
-    </row>
-    <row r="1228">
-      <c r="A1228" t="inlineStr">
-        <is>
           <t>[EG7_1$1*-6.48] (t1_254);</t>
+        </is>
+      </c>
+    </row>
+    <row r="1229">
+      <c r="A1229" t="inlineStr">
+        <is>
+          <t>!ITEM: EG7_2 | jid = 255</t>
         </is>
       </c>
     </row>
     <row r="1230">
       <c r="A1230" t="inlineStr">
         <is>
-          <t>!ITEM: EG7_2 | jid = 255</t>
+          <t>!Constrain all to EG7_1</t>
         </is>
       </c>
     </row>
     <row r="1231">
       <c r="A1231" t="inlineStr">
         <is>
-          <t>!Constrain all to EG7_1</t>
+          <t>f BY EG7_2*0.972 (a_254);</t>
         </is>
       </c>
     </row>
     <row r="1232">
       <c r="A1232" t="inlineStr">
         <is>
-          <t>f BY EG7_2*0.972 (a_254);</t>
-        </is>
-      </c>
-    </row>
-    <row r="1233">
-      <c r="A1233" t="inlineStr">
-        <is>
           <t>[EG7_2$1*-6.48] (t1_254);</t>
+        </is>
+      </c>
+    </row>
+    <row r="1234">
+      <c r="A1234" t="inlineStr">
+        <is>
+          <t>!ITEM: EG8_1 | jid = 256</t>
         </is>
       </c>
     </row>
     <row r="1235">
       <c r="A1235" t="inlineStr">
         <is>
-          <t>!ITEM: EG8_1 | jid = 256</t>
+          <t>f BY EG8_1*1.055 (a_256);</t>
         </is>
       </c>
     </row>
     <row r="1236">
       <c r="A1236" t="inlineStr">
         <is>
-          <t>f BY EG8_1*1.055 (a_256);</t>
-        </is>
-      </c>
-    </row>
-    <row r="1237">
-      <c r="A1237" t="inlineStr">
-        <is>
           <t>[EG8_1$1*-5.38] (t1_256);</t>
+        </is>
+      </c>
+    </row>
+    <row r="1238">
+      <c r="A1238" t="inlineStr">
+        <is>
+          <t>!ITEM: EG8_2 | jid = 257</t>
         </is>
       </c>
     </row>
     <row r="1239">
       <c r="A1239" t="inlineStr">
         <is>
-          <t>!ITEM: EG8_2 | jid = 257</t>
+          <t>!Constrain all to EG8_1</t>
         </is>
       </c>
     </row>
     <row r="1240">
       <c r="A1240" t="inlineStr">
         <is>
-          <t>!Constrain all to EG8_1</t>
+          <t>f BY EG8_2*1.055 (a_256);</t>
         </is>
       </c>
     </row>
     <row r="1241">
       <c r="A1241" t="inlineStr">
         <is>
-          <t>f BY EG8_2*1.055 (a_256);</t>
-        </is>
-      </c>
-    </row>
-    <row r="1242">
-      <c r="A1242" t="inlineStr">
-        <is>
           <t>[EG8_2$1*-5.38] (t1_256);</t>
+        </is>
+      </c>
+    </row>
+    <row r="1243">
+      <c r="A1243" t="inlineStr">
+        <is>
+          <t>!ITEM: EG9a | jid = 258</t>
         </is>
       </c>
     </row>
     <row r="1244">
       <c r="A1244" t="inlineStr">
         <is>
-          <t>!ITEM: EG9a | jid = 258</t>
+          <t>f BY EG9a*0.745 (a_258);</t>
         </is>
       </c>
     </row>
     <row r="1245">
       <c r="A1245" t="inlineStr">
         <is>
-          <t>f BY EG9a*0.745 (a_258);</t>
-        </is>
-      </c>
-    </row>
-    <row r="1246">
-      <c r="A1246" t="inlineStr">
-        <is>
           <t>[EG9a$1*-0.635] (t1_258);</t>
+        </is>
+      </c>
+    </row>
+    <row r="1247">
+      <c r="A1247" t="inlineStr">
+        <is>
+          <t>!ITEM: EG9b | jid = 259</t>
         </is>
       </c>
     </row>
     <row r="1248">
       <c r="A1248" t="inlineStr">
         <is>
-          <t>!ITEM: EG9b | jid = 259</t>
+          <t>!Constrain slope to EG9a</t>
         </is>
       </c>
     </row>
     <row r="1249">
       <c r="A1249" t="inlineStr">
         <is>
-          <t>!Constrain slope to EG9a</t>
+          <t>f BY EG9b*0.745 (a_258);</t>
         </is>
       </c>
     </row>
     <row r="1250">
       <c r="A1250" t="inlineStr">
         <is>
-          <t>f BY EG9b*0.745 (a_258);</t>
-        </is>
-      </c>
-    </row>
-    <row r="1251">
-      <c r="A1251" t="inlineStr">
-        <is>
           <t>[EG9b$1*-0.634] (t1_259);</t>
+        </is>
+      </c>
+    </row>
+    <row r="1252">
+      <c r="A1252" t="inlineStr">
+        <is>
+          <t>!ITEM: NOM044 | jid = 261</t>
         </is>
       </c>
     </row>
     <row r="1253">
       <c r="A1253" t="inlineStr">
         <is>
-          <t>!ITEM: NOM044 | jid = 261</t>
+          <t>f BY NOM044* (a_261);</t>
         </is>
       </c>
     </row>
     <row r="1254">
       <c r="A1254" t="inlineStr">
         <is>
-          <t>f BY NOM044* (a_261);</t>
-        </is>
-      </c>
-    </row>
-    <row r="1255">
-      <c r="A1255" t="inlineStr">
-        <is>
           <t>[NOM044$1*] (t1_261);</t>
+        </is>
+      </c>
+    </row>
+    <row r="1256">
+      <c r="A1256" t="inlineStr">
+        <is>
+          <t>!ITEM: NOM046X | jid = 263</t>
         </is>
       </c>
     </row>
     <row r="1257">
       <c r="A1257" t="inlineStr">
         <is>
-          <t>!ITEM: NOM046X | jid = 263</t>
+          <t>f BY NOM046X* (a_263);</t>
         </is>
       </c>
     </row>
     <row r="1258">
       <c r="A1258" t="inlineStr">
         <is>
-          <t>f BY NOM046X* (a_263);</t>
+          <t>[NOM046X$1*] (t1_263);</t>
         </is>
       </c>
     </row>
     <row r="1259">
       <c r="A1259" t="inlineStr">
         <is>
-          <t>[NOM046X$1*] (t1_263);</t>
+          <t>[NOM046X$2*] (t2_263);</t>
         </is>
       </c>
     </row>
     <row r="1260">
       <c r="A1260" t="inlineStr">
         <is>
-          <t>[NOM046X$2*] (t2_263);</t>
+          <t>[NOM046X$3*] (t3_263);</t>
         </is>
       </c>
     </row>
     <row r="1261">
       <c r="A1261" t="inlineStr">
         <is>
-          <t>[NOM046X$3*] (t3_263);</t>
+          <t>[NOM046X$4*] (t4_263);</t>
         </is>
       </c>
     </row>
     <row r="1262">
       <c r="A1262" t="inlineStr">
-        <is>
-          <t>[NOM046X$4*] (t4_263);</t>
-        </is>
-      </c>
-    </row>
-    <row r="1263">
-      <c r="A1263" t="inlineStr">
         <is>
           <t>[NOM046X$5*] (t5_263);</t>
         </is>
@@ -8989,7 +8996,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A183"/>
+  <dimension ref="A1:A181"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9075,1202 +9082,1188 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>a_11 ~ N(1,1);</t>
+          <t>a_13 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>a_12 ~ N(1,1);</t>
+          <t>a_14 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>a_13 ~ N(1,1);</t>
+          <t>a_15 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>a_14 ~ N(1,1);</t>
+          <t>a_16 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>a_15 ~ N(1,1);</t>
+          <t>a_17 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>a_16 ~ N(1,1);</t>
+          <t>a_18 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>a_17 ~ N(1,1);</t>
+          <t>a_19 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>a_18 ~ N(1,1);</t>
+          <t>a_20 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>a_19 ~ N(1,1);</t>
+          <t>a_21 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>a_20 ~ N(1,1);</t>
+          <t>a_22 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>a_21 ~ N(1,1);</t>
+          <t>a_23 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>a_22 ~ N(1,1);</t>
+          <t>a_24 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>a_23 ~ N(1,1);</t>
+          <t>a_25 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>a_24 ~ N(1,1);</t>
+          <t>a_26 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>a_25 ~ N(1,1);</t>
+          <t>a_27 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>a_26 ~ N(1,1);</t>
+          <t>a_28 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>a_27 ~ N(1,1);</t>
+          <t>a_29 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>a_28 ~ N(1,1);</t>
+          <t>a_30 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>a_29 ~ N(1,1);</t>
+          <t>a_31 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>a_30 ~ N(1,1);</t>
+          <t>a_32 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>a_31 ~ N(1,1);</t>
+          <t>a_33 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>a_32 ~ N(1,1);</t>
+          <t>a_34 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>a_33 ~ N(1,1);</t>
+          <t>a_35 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>a_34 ~ N(1,1);</t>
+          <t>a_36 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>a_35 ~ N(1,1);</t>
+          <t>a_37 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>a_36 ~ N(1,1);</t>
+          <t>a_38 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>a_37 ~ N(1,1);</t>
+          <t>a_39 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>a_38 ~ N(1,1);</t>
+          <t>a_40 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>a_39 ~ N(1,1);</t>
+          <t>a_41 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>a_40 ~ N(1,1);</t>
+          <t>a_42 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>a_41 ~ N(1,1);</t>
+          <t>a_43 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>a_42 ~ N(1,1);</t>
+          <t>a_44 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>a_43 ~ N(1,1);</t>
+          <t>a_45 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>a_44 ~ N(1,1);</t>
+          <t>a_46 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>a_45 ~ N(1,1);</t>
+          <t>a_47 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>a_46 ~ N(1,1);</t>
+          <t>a_48 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>a_47 ~ N(1,1);</t>
+          <t>a_49 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>a_48 ~ N(1,1);</t>
+          <t>a_50 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>a_49 ~ N(1,1);</t>
+          <t>a_51 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>a_50 ~ N(1,1);</t>
+          <t>a_52 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>a_51 ~ N(1,1);</t>
+          <t>a_53 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>a_52 ~ N(1,1);</t>
+          <t>a_54 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>a_53 ~ N(1,1);</t>
+          <t>a_55 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>a_54 ~ N(1,1);</t>
+          <t>a_56 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>a_55 ~ N(1,1);</t>
+          <t>a_57 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>a_56 ~ N(1,1);</t>
+          <t>a_58 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>a_57 ~ N(1,1);</t>
+          <t>a_59 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>a_58 ~ N(1,1);</t>
+          <t>a_60 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>a_59 ~ N(1,1);</t>
+          <t>a_61 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>a_60 ~ N(1,1);</t>
+          <t>a_62 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>a_61 ~ N(1,1);</t>
+          <t>a_63 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>a_62 ~ N(1,1);</t>
+          <t>a_64 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>a_63 ~ N(1,1);</t>
+          <t>a_65 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>a_64 ~ N(1,1);</t>
+          <t>a_66 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>a_65 ~ N(1,1);</t>
+          <t>a_67 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>a_66 ~ N(1,1);</t>
+          <t>a_68 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>a_67 ~ N(1,1);</t>
+          <t>a_69 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>a_68 ~ N(1,1);</t>
+          <t>a_70 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>a_69 ~ N(1,1);</t>
+          <t>a_71 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>a_70 ~ N(1,1);</t>
+          <t>a_72 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>a_71 ~ N(1,1);</t>
+          <t>a_73 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>a_72 ~ N(1,1);</t>
+          <t>a_74 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>a_73 ~ N(1,1);</t>
+          <t>a_75 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>a_74 ~ N(1,1);</t>
+          <t>a_76 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>a_75 ~ N(1,1);</t>
+          <t>a_77 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>a_76 ~ N(1,1);</t>
+          <t>a_78 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>a_77 ~ N(1,1);</t>
+          <t>a_79 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>a_78 ~ N(1,1);</t>
+          <t>a_80 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>a_79 ~ N(1,1);</t>
+          <t>a_81 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>a_80 ~ N(1,1);</t>
+          <t>a_82 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>a_81 ~ N(1,1);</t>
+          <t>a_83 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>a_82 ~ N(1,1);</t>
+          <t>a_84 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>a_83 ~ N(1,1);</t>
+          <t>a_85 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>a_84 ~ N(1,1);</t>
+          <t>a_86 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>a_85 ~ N(1,1);</t>
+          <t>a_87 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>a_86 ~ N(1,1);</t>
+          <t>a_88 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>a_87 ~ N(1,1);</t>
+          <t>a_89 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>a_88 ~ N(1,1);</t>
+          <t>a_90 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>a_89 ~ N(1,1);</t>
+          <t>a_91 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>a_90 ~ N(1,1);</t>
+          <t>a_92 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>a_91 ~ N(1,1);</t>
+          <t>a_93 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>a_92 ~ N(1,1);</t>
+          <t>a_94 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>a_93 ~ N(1,1);</t>
+          <t>a_95 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>a_94 ~ N(1,1);</t>
+          <t>a_96 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>a_95 ~ N(1,1);</t>
+          <t>a_97 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>a_96 ~ N(1,1);</t>
+          <t>a_98 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>a_97 ~ N(1,1);</t>
+          <t>a_99 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>a_98 ~ N(1,1);</t>
+          <t>a_100 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>a_99 ~ N(1,1);</t>
+          <t>a_101 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>a_100 ~ N(1,1);</t>
+          <t>a_103 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>a_101 ~ N(1,1);</t>
+          <t>a_104 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>a_103 ~ N(1,1);</t>
+          <t>a_105 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>a_104 ~ N(1,1);</t>
+          <t>a_106 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>a_105 ~ N(1,1);</t>
+          <t>a_107 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>a_106 ~ N(1,1);</t>
+          <t>a_108 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>a_107 ~ N(1,1);</t>
+          <t>a_109 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>a_108 ~ N(1,1);</t>
+          <t>a_110 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>a_109 ~ N(1,1);</t>
+          <t>a_111 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>a_110 ~ N(1,1);</t>
+          <t>a_112 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>a_111 ~ N(1,1);</t>
+          <t>a_113 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>a_112 ~ N(1,1);</t>
+          <t>a_114 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>a_113 ~ N(1,1);</t>
+          <t>a_115 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>a_114 ~ N(1,1);</t>
+          <t>a_116 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>a_115 ~ N(1,1);</t>
+          <t>a_117 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>a_116 ~ N(1,1);</t>
+          <t>a_118 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>a_117 ~ N(1,1);</t>
+          <t>a_119 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>a_118 ~ N(1,1);</t>
+          <t>a_120 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>a_119 ~ N(1,1);</t>
+          <t>a_121 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>a_120 ~ N(1,1);</t>
+          <t>a_122 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>a_121 ~ N(1,1);</t>
+          <t>a_123 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>a_122 ~ N(1,1);</t>
+          <t>a_124 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>a_123 ~ N(1,1);</t>
+          <t>a_125 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>a_124 ~ N(1,1);</t>
+          <t>a_126 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>a_125 ~ N(1,1);</t>
+          <t>a_127 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>a_126 ~ N(1,1);</t>
+          <t>a_128 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>a_127 ~ N(1,1);</t>
+          <t>a_129 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>a_128 ~ N(1,1);</t>
+          <t>a_130 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>a_129 ~ N(1,1);</t>
+          <t>a_131 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>a_130 ~ N(1,1);</t>
+          <t>a_132 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>a_131 ~ N(1,1);</t>
+          <t>a_133 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>a_132 ~ N(1,1);</t>
+          <t>a_135 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>a_133 ~ N(1,1);</t>
+          <t>a_137 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>a_135 ~ N(1,1);</t>
+          <t>a_139 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>a_137 ~ N(1,1);</t>
+          <t>a_141 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>a_139 ~ N(1,1);</t>
+          <t>a_143 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>a_141 ~ N(1,1);</t>
+          <t>a_145 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>a_143 ~ N(1,1);</t>
+          <t>a_147 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>a_145 ~ N(1,1);</t>
+          <t>a_151 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>a_147 ~ N(1,1);</t>
+          <t>a_153 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>a_151 ~ N(1,1);</t>
+          <t>a_156 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>a_153 ~ N(1,1);</t>
+          <t>a_160 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>a_156 ~ N(1,1);</t>
+          <t>a_162 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>a_160 ~ N(1,1);</t>
+          <t>a_169 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>a_162 ~ N(1,1);</t>
+          <t>a_171 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>a_169 ~ N(1,1);</t>
+          <t>a_173 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>a_171 ~ N(1,1);</t>
+          <t>a_175 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>a_173 ~ N(1,1);</t>
+          <t>a_177 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>a_175 ~ N(1,1);</t>
+          <t>a_179 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>a_177 ~ N(1,1);</t>
+          <t>a_181 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>a_179 ~ N(1,1);</t>
+          <t>a_185 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>a_181 ~ N(1,1);</t>
+          <t>a_188 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>a_185 ~ N(1,1);</t>
+          <t>a_191 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>a_188 ~ N(1,1);</t>
+          <t>a_199 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>a_191 ~ N(1,1);</t>
+          <t>a_202 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>a_199 ~ N(1,1);</t>
+          <t>a_204 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>a_202 ~ N(1,1);</t>
+          <t>a_206 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>a_204 ~ N(1,1);</t>
+          <t>a_208 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>a_206 ~ N(1,1);</t>
+          <t>a_210 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>a_208 ~ N(1,1);</t>
+          <t>a_212 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>a_210 ~ N(1,1);</t>
+          <t>a_214 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>a_212 ~ N(1,1);</t>
+          <t>a_217 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>a_214 ~ N(1,1);</t>
+          <t>a_219 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>a_217 ~ N(1,1);</t>
+          <t>a_221 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>a_219 ~ N(1,1);</t>
+          <t>a_223 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>a_221 ~ N(1,1);</t>
+          <t>a_226 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>a_223 ~ N(1,1);</t>
+          <t>a_229 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>a_226 ~ N(1,1);</t>
+          <t>a_231 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>a_229 ~ N(1,1);</t>
+          <t>a_233 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>a_231 ~ N(1,1);</t>
+          <t>a_238 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>a_233 ~ N(1,1);</t>
+          <t>a_240 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>a_238 ~ N(1,1);</t>
+          <t>a_242 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>a_240 ~ N(1,1);</t>
+          <t>a_244 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>a_242 ~ N(1,1);</t>
+          <t>a_248 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>a_244 ~ N(1,1);</t>
+          <t>a_250 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>a_248 ~ N(1,1);</t>
+          <t>a_252 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>a_250 ~ N(1,1);</t>
+          <t>a_254 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>a_252 ~ N(1,1);</t>
+          <t>a_256 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>a_254 ~ N(1,1);</t>
+          <t>a_258 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>a_256 ~ N(1,1);</t>
+          <t>a_261 ~ N(1,1);</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
-        <is>
-          <t>a_258 ~ N(1,1);</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>a_261 ~ N(1,1);</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
         <is>
           <t>a_263 ~ N(1,1);</t>
         </is>
